--- a/repo/article_topic.xlsx
+++ b/repo/article_topic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,157 +687,157 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  </t>
+          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  </t>
+          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝</t>
+          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1007,27 +1007,27 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  </t>
+          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
+          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1127,27 +1127,27 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  </t>
+          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供</t>
+          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1237,27 +1237,27 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死</t>
+          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝</t>
+          <t>嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1357,27 +1357,27 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1537,47 +1537,47 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    </t>
+          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  </t>
+          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  </t>
+          <t xml:space="preserve">從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  </t>
+          <t xml:space="preserve">屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1637,77 +1637,77 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
+          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 得 很 完整   要 知道 高 危險區   並做 必要 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 這個 問題   目前 台北市 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 措施  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  </t>
+          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 路旁 汽車   人行道 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 會 進場 透地雷達 檢測   並確 認管線 排水 溝 是否 破壞 處理 方式   待 基地 內側 灌漿 完成 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 慶城街   興安街 交叉口 昨   23   天晚間 突發生 工地 地基 塌陷 問題   連帶 週邊 停 路旁 汽車   人行道 傾斜 下陷   北市 府 緊急 下令 回填   經過 連夜 灌漿   截至 今   24   早 7 點 左右   已經 灌漿 250 方   初估 中午 12 點可 完成   另外 針對業者 開罰 18 萬並 勒令停工   據 了解   新建 工地 尚未 開挖   只是 導溝   疑似 因內部 支撐力 不夠   造成 導溝 外壁 下陷   所幸 無人 傷亡   而 除了 導溝 回填 外   北市 府 表示 外側 坍塌 處   為 預防樹木 傾倒   且 灌漿 回填 後 樹木無法 存活   故將 4 棵 黑板 樹鋸斷   此外   北市 府 開罰 業者 18 萬   並 勒令停工   而 雖然 目前 沒有 漏水 情況   但 接下 來 自來 水處 將持續 監測   早上 會 進場 透地雷達 檢測   並確 認管線 排水 溝 是否 破壞 處理 方式   待 基地 內側 灌漿 完成 初 凝 後   即 進行 道路 回填   北市 府 透露   今早 沒 再 塌陷 情況   監測 資料 今天 比 對 完成 後 公布  </t>
+          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 這個 問題   至於 問題 出 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   必要措施 防範  </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北 松山區 慶城街 昨   23   天晚間 發生 地層下陷   身為 前 台北 市長   民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高   被 問到 卸任 後 北市 兩度 發生 工地 地層下陷   他 表示 台北市 是 盆地   本來 就是 地層下陷 檢視區   認為 高 危險區 要 能夠 事先 知道   並做 必要措施   柯文 哲 今天 一大早 6 點多   從 台北 關渡 宮出 發挑戰 一日 北高   面對慶 城街 昨晚 發生 地層下陷   他 認為 台北市 本來 就是 地層下陷 檢視區   工務 局網 站上 可以 看到 好 幾個 區域   且 北市 本來 就是 盆地   所以 本來 就 這個 問題   至於 問題 出 誰 身上   柯文 哲認 為   本來 地質 就 應該 多 注意   北市 地路 已經 相當 完整   高 危險區 要 能夠 事先 知道   必要措施 防範  </t>
+          <t xml:space="preserve">台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  </t>
+          <t xml:space="preserve">台北市 慶城街 一處 新建 工地 昨晚 發生 地層下陷 事故   對 於 台北市 接連 發生 地層下陷 事件   前 台北 市長   民眾 黨 主席 柯文 哲 今天 表示   台北市 本來 就是 地層下陷 潛勢區   台北市 政府 已經 把 地圖 得 很 完整   要 知道 高 危險區   並做 必要 措施       柯文 哲 表示   台北市 本來 就是 地層下陷 潛勢區   其實 只要 去 工務局 往 上查 一下   就 可以 看到 地層下陷 潛勢區 好 幾個   因為 這個 地方 本來 就是 盆地   所以 就 會 這個 問題   目前 台北市 地圖 已經 相當 完整   高 危險區 要 事先 知道   做出 必要 措施  </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1757,87 +1757,87 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
+          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
+          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  </t>
+          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  </t>
+          <t xml:space="preserve">新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9</t>
+          <t>新北市 萬里區 公所 表示   有民眾 日前 反應加 投溫泉 公共 浴室 燈管   溫度 顯示器 不亮 等 問題   委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   圖為 建物 出現 裂縫     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   為確 保泡湯 安全   目前 已 封閉 修繕 中     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t>萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>新北市 萬里 區加 投溫泉 公共 浴室 疑似 地層下陷 現象   造成 浴池 受損   壁磚 脫落   未來將 進行 修繕 改善   確認 無 危險 之 虞   才 會 再行 開放 供民眾 使用     公所 提供     中央社 記者 王鴻國 傳真   113 年 3 月 26 日</t>
+          <t xml:space="preserve">新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -2197,11 +2197,101 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
           <t xml:space="preserve">科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>16</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">江慶賢 指出   近一個 月 立信 街   信街   自強 街 附近 住戶   不斷 反映 水壓 不足   很多 里民因 為 抽 不到 水   馬 達 都 燒壞 了   他 向 自來 水 公司 反映   水 公司 一開始 堅持 水壓 供水 都 正常   最後才 說 水管 破裂   今天 要來 修理     今   5   日 早上 江慶賢還 沒 等到 水 公司 工程 人員   就 接到 里民通報   指立 中 六街 出現 天坑   他 跑 到 現場   見 到 一部 工程 車右後輪 將馬路 壓出 一個 洞   怪手 正在 協助 工程 車脫 困   幸好 沒人 傷亡   但馬路 破洞 裡的 水源 源不斷 湧出   地層下陷 情形 似乎 很 嚴重   他將 要求 自來 水 公司 全力 補救     自來 水 公司 回應 表示   一開始 以 為 只是 漏水   後 來 才 發現 立中 六街 下方 還有 一處 直徑 10 公分 自來 水管 線 破裂   當下 已 立即 派遣 工班 到場 處理   針對 住戶 抽水 馬 達 燒壞   將會 研議 是否 進行 相關 賠償  </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台灣 西南 沿海 地區 為候 鳥 主要 度冬棲息 地   為 了 守護 於 此 休憩 黑面 琵鷺   水鳥 與 候鳥   台灣 環境 資訊 協會   簡稱 環資   嘉時 航運 股份 有限公司   簡稱 嘉時 航運   攜手 合作 生態 工作 假期   於 5 月 27 日至 嘉義 布袋 濕地   執行 棲地 植樹 活動   讓候 鳥 過境 休憩 時   樹林 保護下 安心 成長   更 期盼 長 期 努力 下   成為 全球 生物 多樣 性 後 盾     嘉義 布袋 擁有 廣闊 濕地 多樣 鳥類 棲息 地   以豐富 生態 資源 特色 環境 聞名   這裡 每年 冬季 都 會 迎來 一批 特別 客人   是 全球 關注 物種 — — 黑面 琵鷺   從 1989 年 全球 紀錄 288 隻   到 2024 年 共 6988 隻   數量 變化 一直 受到 國際 鳥類 保護 組織 密切 追 蹤     天氣剛 好 遇到 5 月 梅雨季   各地 受 鋒面 與 氣流 影響   很 幸運 受到 天公 伯伯 賞臉   讓 雲層 遮住 炙熱 太陽   陰涼 天氣 下 順利 進行     志工 雙手 從 平常 使用 電腦 與 滑鼠   換成 圓鍬 鏟子   互相 協助 挖出 半 公尺 深 與 寬 土穴   倒入 蚵 殼 抵擋 鹽氣   細心 覆土種 下 適合 濱 海生 長 木麻黃   黃 槿 大葉欖仁 樹苗   總共種 下 40 棵 樹   廣闊 環境 中 工作   志工 臉 因 挖掘 動作 變得 通紅   休補充 水分 時   抬頭望 就 能 看 見 波光粼粼 濕地 中   鳥類 生活 覓食 畫面   相信 大家 不僅 是 為 黑面 琵鷺 保護 出力   更是 為 全球 生物 多樣 性 維護 做出 貢獻     本次 環資 活動 總籌乙雯 說     相信 經過 今天 棲地 行動   我們 都 更 貼 近 腳下 這片 土地   了解 生態 保育 重要性       嘉義 擁有 著 美好 生態 棲地外   面臨 著 多重 環境 挑戰   工作 完成 後   志工 搭 上 遊覽車 移動 前往 白水 湖壽島   走訪 2020 年   消失 情人 節   電影 壯闊 海景 美麗夕陽 背 後   沒有 說 出 國土 消失   地層下陷   影響 生態 系統 健康 現況     嘉義 因優越 水質 地勢 條件   使養 蚵 產業 蓬勃 發展   外海 密密麻麻 竹棚   近岸 漂浮 白色 保麗龍   垂 吊式 養殖 道路 上 暫放 成山 蚵 殼   從 眼前 景色 就 能 了解 牡蠣 不同 養殖 方式   志工 走 隔 開陸 地 與 海 堤防 上   右手 邊是 海   左手 邊是 滯洪池   蔡 福昌 老師 說     現在 大家 腳下 堤防 近幾年 修建 加高   如果 不 這麼   陸 地上 坐路 掌潭村 就 會 淹 沒 危險     吹 著涼爽 海風   遠方 風力 發電機 運轉 著   退潮 時 沿著 海水 與 紅磚 被 海 水淹 沒 痕跡   水泥 路上 長 滿蘚類   可以 走向 外 海沙 島的 方向   感受 濱海 滄桑 與 失落     志工文 函用 望眼 鏡發現 高蹺 鴴   又名 長 腳 鷸 身影   一雙長 紅腿 淺水 地上 行走   欣賞 之餘 用 手機 連接 著望 遠鏡 鏡頭   拍下 它們 拍 翅 美姿     來 到 嘉義 不 只有 食 蚵   嘉時 航運 志工 不僅付 諸行動   守護 遠道 來 台 黑面 琵鷺 與候 鳥棲地   還相約 下次 再 到 布袋 濕地   樹下 乘涼   欣賞候 鳥 安心 棲息 美好 畫面   成為 生物 多樣 性守護者  </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">此外   住 戶質 疑公會 鑑定 專業   表示 重災戶 房子 傾斜 倒塌   不 就是 基泰 跟 技師 做出 來   安全 無虞證 明書     才 引起 這場 重大 公安   住戶 質疑現 鑑定   結構 安全     誰 能 保證 是 真的 安全     陳 怡君 提到   住戶 表示   對 於 下陷 地層   家中 磁磚 脫落   地 磚裂 掉   門窗 鐵門壞 掉   家中 漏水 水管 破裂   天花板 掉落 等   賠償 1.2 倍 相當 沒誠意   除了 財產 損失   多處 損鄰 造成 生活 不便   家中 隨時 磁磚 脫落 精神 折磨   還有 地震 來時 不安   這些 精神 賠償     陳 怡君 說   這是 損鄰戶 第一次 公部門 主導 下 所 召開 調解會議   基泰 應正視 損鄰戶 心聲   針對 賠償 金額   陳 怡 君主 張應 提高 為 1.5 倍   或主動 至 損鄰戶 家中 估價除 結構 之外 損失   增列 至 賠償 金額 中   才 是 該 賠償 氣度     對此   據   自由 時報   報導   台北市 建管處 表示   為 促進 基泰 與 受 損戶 協調 和解 效率   都 發局 主動 本月 6 日 於 大直 國小辦 理代為 協調 會議   針對 會議 中受 損戶 提出 修繕 賠償 金額 不足 等 訴求   已 請 基泰 建設 收集 受 損戶 所 提相 關意 見後並 妥為 處理   促進 建損 雙方 和解 進度  </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>24</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>5</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">記者 林意筑 ／ 台中 報導   台中港 西碼頭 附近   今   11   日 上午 一度 傳出 碼頭 破堤 消息   透過 現場 畫面 可見   一部 重型 機具 因 不明 原因 深陷 海砂 中   一旁 海水 幾乎 快 淹過   引發民眾 恐慌   不過 稍早 警方 緊急 澄清   由 於 該 起 工程 作業 本身 就 海平面 以下   因此 下 挖 管線 時   因 海水 壓力 導致 機具 下沉   並非 地層下陷 引起 海水倒灌     據悉   台中港 西碼頭 中油 區 近日 正在 進行 建造 冷凝 設備 工程 作業   但 今日 上午 一度 傳出   大型 機具 因 不明 原因 深陷 海砂 中   造成 恐慌     對此   台中港 務西 碼頭 中隊 長 賴逸丰 表示   由 於 該 起 工程 作業   挖 埋 管線   部分 本身 就 海平面 以下   而 下 挖 管線 時 因 海水 壓力 差而導致 機具 下沉   並非 地層下陷 引起 海水倒灌   預計 今日 下午 抽完 海水 後 即可 繼續 作業   現場 無人員 受傷   無 相關 設備 建物 損壞  </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>17</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">近期 能源 公司 元長 鄉 瓦 磘 村 建 設 太 陽 光 電 場   卻 場址 設 村莊 中心   讓 當地 居民 人心惶惶   今 ( 11 ) 日 瓦 磘 反光 電 自救 會 前往 雲林縣 議會   向 縣長 張麗善 遞交陳情 書   盼光 電廠 商 另 尋他 地   不要 將光 電場 設置 於 瓦 磘 村 中   張麗善 除 親手 接下 陳 情書   表示 會 站 鄉親 立場   保護 大家 居住 環境   呼籲台 電應 考量 民眾 意見 本權責 妥處     張麗善 表示   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍     張麗善 再次 強調   三不三要     不 希望 農地 一直 種電   破壞 農地 未來 發展 跟 價值   認為 光電業者 聚落 裡 種電   已影響 鄉親 生活 起居 跟 品質   能 感同身受 鄉親 不安 焦慮   會 透過 各種 協調 溝通   保障 地 鄉親 權益     建設 處長 李俊 興 表示   本案 屬於鄉 村區 乙種 建築 用地   業者 依法 向 縣府 提出 申請   公部門 亦 依法行政 核發 同意 文件   去年 9 月 接 獲民眾 陳 情 後   立即 協調 業者 應 與 當地 居民 持續 溝通   業者 表示同意 先行 暫停 施工  </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>17</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說     很 開心   差點 變成 不是 第一 個     透露 目前 已經 很多 歌手   陸續 安排 開唱 計畫   原本 很 擔心 阿拉伯 國家 演出 會 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想     真的假 啦   有人 要 聽     過往 都 只有 杜拜 轉機 經驗   從 未 入境 過旅遊 他 說     他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 地方   30 萬人     杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 太 多 抱怨 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 歌喉 完全 沒有 受 影響     還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差     本來 就 沒 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱     第一 個 要 搶 時間   現在 場館 太難 搶 了     記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回     大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 到 我   等 別人 有空 給我用   我 再 用 就 好       歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 關注 此事     好 害怕   我 吃 增強 免疫力 的藥   醫生開     即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到   前輩   薛之謙唱 到 吸氧 氣   私下 還嚇 他     一定 不要 亂動   不要 突然 爆衝    </t>
         </is>
       </c>
     </row>

--- a/repo/article_topic.xlsx
+++ b/repo/article_topic.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -587,11 +587,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,17 +827,17 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬 上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  </t>
+          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,17 +927,17 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,27 +1007,27 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  </t>
+          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
+          <t>台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,87 +1037,87 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  </t>
+          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   臉書 爆料   週邊 雙號 受災戶 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經 會勘 確認   下陷 累積 7 公分     台北市 議員陳怡 君今 稍早 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 雙號棟 卻 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經現場 會勘 後 確認   累積 下陷 約 7 公分     陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為   地面 下 無 地基   對面 單號 拆 危樓   所導致 地下 土壤 遭擾動   因此 下陷   強調   雖 判定 暫無 立即 性 危險   建管處 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 是 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 下陷 狀況   溝壁 破損 不堪   而 基泰 旁邊 正在 施工 其他 建案 基地   令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
+          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   臉書 爆料   週邊 雙號 受災戶 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經 會勘 確認   下陷 累積 7 公分     台北市 議員陳怡 君今 稍早 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 雙號棟 卻 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經現場 會勘 後 確認   累積 下陷 約 7 公分     陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為   地面 下 無 地基   對面 單號 拆 危樓   所導致 地下 土壤 遭擾動   因此 下陷   強調   雖 判定 暫無 立即 性 危險   建管處 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 是 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 下陷 狀況   溝壁 破損 不堪   而 基泰 旁邊 正在 施工 其他 建案 基地   令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>

--- a/repo/article_topic.xlsx
+++ b/repo/article_topic.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>

--- a/repo/article_topic.xlsx
+++ b/repo/article_topic.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>

--- a/repo/article_topic.xlsx
+++ b/repo/article_topic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,81 +447,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  </t>
+          <t>〔 受 「 尼莎 」 颱風 共伴效應 響 新北市 汐止 地區 降下 豪 大雨 不只 發 土石流 就連 工建路 出現 地層下陷 情形 工務人員 初步 搶修 後 工建路 一度 恢 復 通行 但 昨日 夜間 卻 發現 地基 仍須 補強 必須 再次 施工 警方 獲報 後 立刻 派員 前往 進行 交通管制 全線 封閉 該 路段 為 加快 搶救 速度 警方 還 徒手 協助 搬運 30 多輛 機車 讓 工程 能 順利 進行 汐止區 工建路 地層下陷 後 經工務 人員 搶 救 暫時將 凹陷 地基 填補 起來 未料 這兩天 又 因受 豪雨 響 再 此 下陷 汐止 警 分局 接獲 通報 後 即刻 拉起 封鎖線 並連夜 將規劃 好 改 道路 線告 各 臉書 地方 集團 供民眾 參考 深夜 中員 警手 拿 指揮棒 持續 管制 車流 柏油路 面上 出現 許多道 裂痕 除了 用 交通 錐 警示 阻擋 立起 告示牌 請行 經車輛 改道 行駛 經過 徹夜 管制 後 施工 單位 評估 現場 完畢 於 今早 6 點準備 開工 卻 發現 許多 機車 車主未 依 通知 移置 車輛 造成 施工 路段 周圍 停滿 機車 負責 交通管制 社后 派出所 2 名員警 見 狀 趕緊 上前 幫忙 短短 10 幾分鐘 就 徒手 移 了 340 台機車 讓 搶 救 工程 得以 順利 進行 新北 市長 侯友宜 上午 特別 到 工建路 了解 現場 狀況 並感謝 汐止 警 分局 區所 施工 單位 連夜 辛苦 進行 管制 勘查 並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢 全力 協助民眾 解決 問題 民進 黨籍 市議員 張錦豪 請 助理 前往 工建路 現場 向 周邊 住戶 詢問 需要 協助 之 處並 與 施工 單位 保持 聯 繫 希望 能 早日 恢 復 正常 通行</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">為 抑制 濁水溪 揚塵   四河 局兩 年前 雲林 林內 段   多 設置 河槽 地下水 補注池   經過 兩年 地下水 補注經 監測   約 注入 1300 萬公噸 水源 入滲   今年 將再 增擴 20 公頃   當地 農民 就 說   去年 全國 百年 大旱   當地 農民持續 水源 灌溉   對此 第四 河川 局則 表示   地下水 補注池 效果 不錯   能 有效 舒緩 地層下陷 問題   雲林 林內 3 號水門 附近 濁水溪 河段   為 了 改善 揚塵   兩 年前 四河 局進行 疏濬 工程   並設 置 地下水 人工 補注池 蓄水   將 地面 河水 引進 補注 地下水   水源 最深 達到 地下 四百 公尺   希望 減緩 地層下陷   第四 河川 局 副 局長 張朝 恭 說     疏濬 部分   配合 把 引水 進來   來 一個 補注 地下水 功能     雲 科大 水土 中心 主任 溫志超 表示     這邊 8 公頃   上游 有個 28 公頃   兩個 合 併 約 35 公頃 去 操作   兩年 時間   基本上 總共 35 公頃 之下   1300 多萬公噸 水入滲 下去     雲 科大 水土 中心 表示   補注池 水源 由高處 流向 低處 補注   能 有效 減緩 地層下陷   能 使 地下水位 回升   像 去年 全國 百年 大 缺水   各地 都 沒水 可 灌溉   補注池 功效 就 明顯 可見   雲林 農民說     年尾時 沒 下雨 一定 都 會 缺水   缺水 時透過 這樣 補注   對 農民 一定 有所 幫助     雲林 農民 表示     要 用水 就 比 較 不用 擔心   就是 用排 排 得到     四河 局 表示   雲林 第一座 地下水 補注池   2020 年 完成 因為 效果 不錯   今年 將再 擴大將 蓄水池 面積 增加 20 公頃   希望 透過 地面水 補注 地下水   達到 減緩 地層下陷 情況   能 讓 農民有 足夠 水源 灌溉  </t>
+          <t>汐止 工建路 因連日 大雨 沖 刷 路面 下方 土石流 失 造成 路面 下陷 為維護 用路 安全 新北市 水利局 表示 已連夜 成立 前進 指揮 所 調度 人員 機具 進行 路面 搶修 目前 採低 壓 灌漿 穩定 地盤期 能 於 最 短 時間 修 復 路面 水利局 表示 汐止 工建路 下方 設 污水 特四幹線 收集 汐止 地區 污水 於 103 年間 曾 遭建商 基樁 打破 因特 四幹線 管徑 1.8 且位 於 道路 下方 15 並持續 通水 使用 中需 設置 替代 管線後方能 進行 修 復 因此 當時 由 台北市 衛工 處行 於 管線 上方 灌漿 補強 並進行 新 設繞 流管 建置 工程 水利局 提到 目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程 計畫 新設 管徑 1.2 繞 流管 導水後再 辦理 原特四幹線 管線 修 復 此次 修繕 工程 繞 流管 尚約 剩 7 才能 接通 預計 11 月 14 日 工程 完成 水利局 透露 此次 工建路 下陷 位置 臨近 特四幹線 遭 打破 點 初步 研判 可能 與 此 相關 為 避免 持續 下陷 水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作 等到 特四幹線 繞 流管 工程 完工 後 將進 行原 特四幹線 檢修 工程</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  </t>
+          <t>汐止 驚見 地層下陷 新北市 汐止區 工建路 上 不明 原因 出現 地層下陷 而 上個 禮拜 就 發過區 所 趕緊 進行 挖 填 沒 想到 這幾天 又 再度 下陷 為 避免 發危險 昨 22 天晚 間 9 點開始 該 路段 全線 封閉 並今 23 天 早上 進行 大規模 檢測 以 進行 搶修 工程 確保 附近 住戶 安全</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  </t>
+          <t>〔 印度 斯希馬 特鎮 Joshimath 位 於 喜馬 拉雅山 區因 地層 持續 下陷 已 接連 600 間 房屋 出現 明顯裂 縫 6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌 當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所 美聯社 7 日 報導位 於 印度 北阿 坎德 省 Uttarakhand 傑 莫利 縣 Chamoli 斯希馬 特鎮 居民 說 之前 就 注意 到 房子 出現 裂痕 尤其 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地後當 地 媒體 播出 畫面 顯示 該 鎮多處 道路 出現 裂 縫響 車輛 往來 6 日 晚間 當地 一座 神廟 崩塌 所幸 附近 居民 已 前一天 撤離 沒 造成 人員 傷亡 地方 首長 庫拉納 Himanshu   Khurana 說 已經 60 多戶 搬 到 政府 臨時 避難 所 撤離 人數 可能 會達 到 600 戶北 阿 坎德 省災難 管理 官員辛赫 Ranjit   Singh 說出 現裂 縫 近因 「 似乎 問題 排水 系統 導致 房子 底下 滲水 造成 下陷 」 斯希馬特 人口 約 2 萬 5000 人 印度教 錫克 教徒 朝聖 必經 之 地 大批 朝聖觀 光客 促使 該鎮 多年 來大興 土木 鋪路 造房 不斷 擴張 部份 專家 認為 地層下陷 與 此關 係 現當 地 政府 已經 暫停 所建築 工程 另外 根據 印度 媒體 報導 巴德 林納斯鎮 Badrinath 相距 80 里 同縣 另 一鎮 卡納 普拉 耶格 Karnaprayag50 多間 房子 出現 不斷 擴大裂 縫 該鎮 人口 5 萬人</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  </t>
+          <t>印度 北部 喜馬 拉雅山 區一個 經常 朝聖觀 光客 造訪 城鎮 這兩天 突然 發 地層下陷 超過 600 棟 房屋 出現 裂縫 寺 廟 紛紛 倒塌 當地 政府 緊急 撤離 將近 200 位民眾 安置 安全 避難 地點 印度 北部 山城 地層下陷 房屋 樓梯 道路 都 嚴重 龜裂 建築物 牆壁 還不斷 滲出 泥水 隨時 可能 發 崩塌 景象 怵 目驚心 當地 居民 表示 「 5 戶 人家 已經 搬走 其他 好 幾戶 計劃 遷移 另 打算 」 官員 表示 最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫 因此 已經將 至少 193 名 居民 安置 到 安全 地點 「 找到 解決 方法 之前 我們 把 居民 安置 安全 無虞飯 店賓館 跟 民宿 」 喬西馬斯 Joshimath 海拔 將近 2000 人口 約 2 萬 5000 人朝 聖客 前往 山上 印度教 跟錫克 教寺 廟門 戶常 想要 征服 喜馬 拉雅山 登山 客造訪 喬西馬斯 所傑 莫利 縣 Chamoli2021 年 2 月 曾經 爆發 洪水 造成 200 多人 喪還 沖 走 兩座 水力 發電站 災情 相當 慘重 科學家 目前 還 研究 氣候變遷 對 喜馬 拉雅山 響 但 如果 不好 水土保持 這座 「 沉沒城鎮 」 可能 很快 就 會 走向 毀滅</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  </t>
+          <t>〔 台北市 信義區 出現 天坑 台北市 消防局 下午 3 時 13 分接 獲通報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 長 15 寬 3 深度 2 至 3 附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑 幸無人 受傷 台北市 政府 表示 目前 已 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 信義區 長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 台北市 建築 管理 處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 目前 了解 連續 壁 滲水 工地 正 止水 當中 消防局 現場 協助 鄰 房民眾 疏散</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  </t>
+          <t>台北市 信義區 崇德街 今 13 日 下午 3 點 13 分傳出 一處 新建 案 工地 旁 道路 「 地層下陷 」 馬 路上 出現 一個 長 15 寬 3 深度 約 4 天坑 摩托 車腳 踏車 都 掉入 坑洞 一旁 住戶 家門口 更 危險 「 懸空 」 而 台北 市長 蔣 萬安 稍早 前往 現場 勘查 受訪 時 表示 第一 時間 就 即刻 派員前 來 相關 單位 了 緊急 疏散 強調當 這次 事件 緊急 處置 告一段落 之後會 台北市 相關 工地 全面 清查 了解 類似 這次 地面 坍塌 原因 積極 相關 處置 目前 對廠 商建築師 各 開罰 9 萬元 工地 勒令停工 蔣 萬安 表示 初步 了解 聽 了 相關 單位 說明 我們 下午 3 點 13 分 消防局 接收 到 地方 反應 這邊 地層下陷 第一 時間 就 即刻 派員前 來 趕快 連絡 了 警察局 新工處 建管處 區所 自來 水處 瓦斯 司台 電等 相關 單位 了 緊急 疏散 蔣 萬安 指出 跟 指揮官 相關 單位 來 說明 第一 人員 安全 最 重要 所以 相關 緊急 應變 處置 必須 盡速 完成 包括 疏散 安置 等等 將這次 地面 坍塌 可能 造成 損害 降到 最低 第二 就 旁邊 工地 目前 了解 可能 連續 壁 滲水 問題 已經 趕快 了 處理 盡速 找出 坍塌 原因 然後盡 快 排除 避免 坍塌 面積 持續 擴大 第三 會 就 這次 地面 坍塌 事件 進行 調查 當然 包括 工地 實施 營造 商過 去 相關 紀錄 第四 當這次 事件 緊急 處置 告一段落 之後要 台北市 相關 工地 全面 清查 了解 類似 這次 地面 坍塌 原因 要積 極來 相關 處置 蔣 萬安 表示 「 我們 現 已經 非常 努力 緊急 應變 處置 第一 時間 盡快 疏散 了 住 戶 我 想 市民 朋友 安全 最 重要 目前 還緊 急 處置 我 想 必要 話 我們還 希望 預防性 疏散 」 而 台北市 土木 技師會 理事 長 莊均緯 指出 還要 再 把 崩塌 孔洞 填補 完成 現還 灌水 當中 水頭 差會 慢慢 達到 平衡 而 因 地質 條件屬 於 沙 跟 水 因此 擔心 擋 土 設施 破洞 只要 衝破 連續 壁洞 勢必 擋 土 牆後面 會 崩塌 目前 要 把 崩塌 部分 用 混 泥土 灌足 外開 挖面 水平衡 只要 水 與 地下水位 一 平衡 土沙 部分 就 會靜止 就 不會 往開 挖面 流動 防止 二次 下陷 目前 搶救 可控 範圍 莊均緯 表示 通常 會發 這狀況 地面 本來 就 下陷 只 下陷 又 再 造成 第二 崩塌 灌漿 部分 還從 最 底下 往上 灌表層 部分 基本上 還 些 鬆 動 需要 等 水位 平衡 後 才能 達到 搶災 最終 停止 狀態 估計 應該 都 要 到 凌晨</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  </t>
+          <t>【 1727 ｜ 更新 天坑 初步 原因 】 信義區 崇德街 今 13 天 下午 3 點 13 分傳出 一處 新建 案 工地 旁 道路 「 地層下陷 」 消防局 獲報 緊急 疏散 鄰近 住戶 無人 受傷 根據 消防局 獲報 消息 信義區 崇德街 60 巷 22 號前 新建 工地 旁 出現 道路 地層下陷 馬 路上 出現 一個 長 15 寬 3 深度 約 4 天坑 摩托 車腳 踏車 都 掉入 坑洞 一旁 住戶 家門口 更 危險 「 懸空 」 警消 人員 疏散 鄰近 住戶 所幸 無人 受傷 目前 劃設 警戒 線 建管處 新工處 道 管 中心 瓦斯 司 北水 處派員 趕 赴 現場 處理 信義區 區長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 這個 天坑 幾乎 占據 整條 巷弄 北市 建管處 初步 了解 由 於 住 戶 旁 就 工地 施工 疑似 因為 工地 連續 壁施 作且 出現 滲水 狀況 才 釀成 天坑 出現 稍早 水泥 車緊 急 進行 灌漿 作業 主要 基本 填補 坑洞 受響 住戶 透露 剛剛 一度 5 名住 戶 受困 屋子 裡 所幸 消防 員協助 救援 而三戶 門口 前端 地基 被 掏空 住戶 非常 擔心 房屋 可能 會 倒塌 地基 到底 穩不穩 固住 裡面 到底 安 不 安全 今天 晚上 到底 要 住 哪裡 等 問題 不 過關 於後續 賠償 等 都 還要 進 一步 釐 清</t>
         </is>
       </c>
     </row>
@@ -531,157 +531,157 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  </t>
+          <t>台北市 信義區 崇德街 巷弄 13 日 下午 發 路面 塌陷 事故 現場 緊鄰 一旁 建案 工地 中央社 台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 表示 正持續 向 坑洞 灌漿 建案 基地 灌水 共 撤離 周遭 16 戶住 戶 其餘住 戶判斷 沒 危險 台北市 信義區 崇德街 巷弄 今天下午 出現 一個 長 15 寬 3 深度 3 坑洞 道路 緊鄰 建築 基地 當時 正施 作連續 壁 工程 目前 已 停工 並 疏散 鄰近 住戶 副 市長 李 四川 工務局 長 黃 一平 都發局長 王玉芬 皆 到場 了解 狀況 王玉芬 向 中央社 表示 坑洞 正持續 灌漿 建築 基地 則用 消防 車 灌水 讓 外 壓力 平衡 阻止 繼續 塌陷 何時 才能 確認 沒進 一步 危害 則要 持續 觀察 至於 住戶 部分 王玉芬 說 已經 撤離 16 戶 其中 10 人 需要 安置 這些 開銷 都 會 由 開發 單位 負責 其餘住 戶 雖 由 台北市 結構 技師會 判斷 沒 危險 考量 住戶 仍會 擔心 已 請里長 逐戶 安撫 談到 事發 過程 附近 居民 仍然 餘悸 猶存 鄭 大哥 說 他 姊姊 大概 下午 2 時 50 分時候 聽 到 「 砰 」 聲音並 看到 門口 出現 一個 小洞 就 喊 他 出去 看洞 這個 過程 中越 來 越 大 路上 腳踏車 摩托 車等 就 跟著 掉下去 「 很 可怕 」 鄭 大哥 表示 他 住 這裡 3 年 多 了 旁邊 建案 大概 去年 開始 施工 剛開 挖 時候 路面 龜裂 建商 就 來 補好 之 後 雖然 施工 時 住家 總會 感到 地震 無法 睡 午覺 但 沒什麼 異狀黃則 說 他 住 這裡 20 多年 了 今天下午 外面 散步 走過 去 時 發現 一個 小洞 這個 洞後來 持續 陷 下去 但 他 沒 聽 到 什麼 聲音 新竹縣 竹北 莊敬六街 一處 建案 周邊 日前 才 發 路基 坍塌 導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  </t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚間 前往 現場 蔣 萬安 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 說 第一 時間 消防局 長 就 趕到 現場 共 啟用 13 輛 消防 車 2 輛救護車 36 位 消防 同仁 趕到 現場 第一 緊急 應變 處置 包括 疏散 安置 或 其他 必要 作為 相關 局處 都 發局 建管處 警察局 區所水處 瓦斯 司 等等 都 現場 必須 要 盡速 完成 相關 緊急應 變作 為 來確 保人 員 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大 把 整個 損害 降到 最低 蔣 萬安 指出 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 【 中央社 台北 13 日電 】 北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 已 開罰 營造廠 建築師 各 9 萬元 市長 蔣 萬安 則 下令 後 續 要 清查 所 工地 避免 類似 情況 再度 發 台北市 信義區 崇德街 巷弄 今天下午 約 3 時 突然 出現 一個 長 15 寬 3 深度 3 坑洞 下午 5 時 22 分 又 再度 塌陷 道路 緊鄰 新建 工地 當時 正施 作連續 壁 工程 市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶 台北市 工務局 長 黃 一平 都發局長 王玉芬 皆 下午 4 時許 到場 了解 狀況 副 市長 李 四川 則晚 間 6 時 抵達 現場 市長 蔣 萬安 約 晚間 6 時 30 分現 身 蔣 萬安 聽取 報告 後 接受 媒體 聯訪 表示 消防局 下午 3 時許 獲報 地層下陷 後 共 出動 13 輛 消防 車 2 輛救護車 36 名 消防 員 消防局 長 莫懷祖 到場 坐鎮 蔣 萬安 說 第一件 事 趕快 緊急 應變 處置確 保人 員 都 安全 並 排除 事發 原因 避免 坍塌 再度 擴大建築 工地 已 被 勒令停工 他 指出 接下 來會 就 這次 事件 完整 調查 全面 檢視 建築 工地 營造 商紀錄 等 狀況 控制 住後會 清查 台北市 所 工地 尤其 新建 工程 工地 避免 類似 情況 再度 發 至於 需要 多久 處理 時間 蔣 萬安 說 目前 正積極 努力 中同 時評 估要 不要 預防性 疏散 因為 市民 安全 最 重要 現場 關心 約 半小時 後 蔣 萬安 晚間 6 時 50 分離開 台北市 結構 技師會 理事 長 徐茂卿 指出 因為 巷弄 旁邊 建案 地下 層連續 壁 破洞 導致 道路 塌陷 所以 緊急 撤離 周遭 住 戶後建築 工地 灌水 道路 灌漿 讓 兩邊 土壓 平衡 「 現搶 救 原因 之後再 來 探討 」 台北市 建管處 表示 此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷 將依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各新 台幣 9 萬元 信義區 所 表示 安置 需求 每人每天 可申 請 新 台幣 1600 元 補助 最多 7 天 台北市 信義區 崇德街 巷弄 道路 13 日驚傳 塌陷 警消 獲報 到場 疏散 鄰近 住戶 目前 無人 傷亡 但 現場 坍塌 似 擴大 趨勢 傍晚 5 時許 現場 再度 塌陷 一旁 工地 藍色 帳棚 等 遭波 傾倒 中央社 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 圖 消防局 提供</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  </t>
+          <t>北市 信義區 崇德街 60 巷鄰近 一處 新建 工地 今天下午 3 點多 路面 突然 下陷 出現 一個 大 天坑 台北市 副 市長 李 四川 都發局長 王玉芬 傍晚 抵達 了解 現況 王說 明處理 進度 住戶 方面 已 撤離 16 戶 工程 則 坑洞 灌漿 建案 基地 灌水 都發局長 王玉芬 到場 表示 馬 路上 坑洞 約 10 幾長 3 寬 深度 判斷 達 到 3 以 灌漿 方式 處理 建築 基地 開挖 地下室 部分 用 消防 水車 拉水線 灌水 使外 壓力 可以 平衡 已拉 兩條 水線 再 請 消防局 再拉一條 加快 灌水 速度 王玉芬 說 明住 戶 部分 已經 撤離 16 戶 10 人 需要 安置 且 安置 妥當 某 一家 旅館 所 住宿 日常 開銷 都 會 由 營造 單位 負責 其餘住 戶 由 台北市 結構 技師會 判斷 沒 危險 因 居民 擔心 請里長 逐戶 安撫 現場 分為 撤離區 監測區 除了 天坑 之外 轉角 一戶 地下室 技師 下去 看 目前 還沒 任何 響會 持續 監測 黃 住 當地 20 多年 他 提到 走路 經過 時 看到 裂一個 小洞 下午 2 點多 就 一直 下陷 從 22 號坍 下去 住戶 鄭 表示 他 姊姊 騎車 來 時 突然 聽到 「 砰 」 一聲 被 嚇到 時 就 一個 小洞 自己 走 出去 看前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了 沒 多久 警察 到場 就 要求 不要 過去 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  </t>
+          <t>北市 信義區 今 下午 3 點 多出 現大 天坑 崇德街 60 巷 民宅 前 路面 坍陷 傍晚 5 點多 坑洞 再 擴大 消防局 已緊 急 疏散 鄰近 住戶 信義區 所區長 陳 冠伶 表示 9 位 安置 需求 已協助 找 好 旅社 並 入住 每人 每日 可申 請 補助 1600 元 最 多 7 天區長 陳 冠伶 表示 人數 調查 一直 變動 目前 9 位 安置 需求 依規定 發緊 急 災害 可 申請 安置 補助 每人 一天 1600 元 最 多 申請 7 天已 協助 找 好 旅社 住戶 均 已 入住 安置 該 坑 主要 範圍 為 18 號至 24 號 警戒 區 12 號至 24 號已 拉起 封鎖線 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  </t>
+          <t>台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人 並劃 設緊 戒線並 通知 市府 相關 單位 到場 處理 天坑 位 於 新建 工地 民宅 中間 巷弄 道路 塌陷 時 發出 聲響 驚動 住戶 但 因為 坑洞 擋家門 前 第一 時間 無法 脫困 消防局 緊急 到場 以 爬梯 方式 救援 住戶 出來 消防局 救出 2 名 女子 疏散 1 男 1 女人 員 已 全數 疏散 完畢 另外 1 名 85 歲 老婦 因長 期行動 不 雖無外 傷意識 清醒 但家屬 要求 預防性 送 醫由 消防局 送北醫 由 於 天坑 危 安全 響 周遭 至少 五戶 民宅 部分 住戶 無法 回家 估計 10 餘人 受響 將由 台北市 府 處理 安置 問題 台北市 信義區 出現 天坑 目前 市府 新工處 建管處 勞檢處 等 相關 單位 都 已 派 人 到場 現場 設置 指揮 所 初步 懷疑 與 民宅 對面 新建 工地 工程 關現 以 灌漿 方式 緊急 處置 至於 天坑 出現 原因 將 交由 市府 建管 新工 等 單位 調查 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  </t>
+          <t>北市 信義區 崇德街 60 巷 路面 今天下午 出現 大 天坑 坑洞 長 15 寬 3 深度 2 到 3 機車 單車 陷落 坑中 消防局 已 疏散 鄰近 住戶 10 多人 台北市 建管處 表示 路面 坍陷 處以 混凝土 處置 目前 已 勒令停工 將依建築法 開罰 營造廠 監造 人 各 9 萬元 台北市 建管處 表示 事發地 旁為 一處 新建 住宅 大樓 工地 疑似 施作 連續 壁 滲水導致 道路 塌陷 目前 以 混凝土 處置 工地 現場 緊急 處理 中將 依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各 9 萬元 目前 已 勒令停工 未來 把 一切 安全 問題 妥善 完成 後 才 會 復工 消防局 已協助 將住 戶 全部 撤離 完 畢人員均 安全 信義區 所正 處理 安置 問題 北市 議員 許淑華 表示 該處 昨晚 就 灌水 疑似 連續 壁施作 釀禍事 發地 鄰近 住戶 共 30 戶 12 戶住 坍塌 處 附近 約 10 人 安置 飯店 要求 市府 妥善 協助 住戶 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供</t>
+          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷 崇德街 60 巷 路面 今天下午 3 點 13 分出 現長 15 寬 3 約 2 至 3 深大 天坑 台北市 建管處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 目前 了解 連續 壁 滲水 工地 正 止水 當中 消防局 現場 協助 鄰 房民眾 疏散 台北市 建管處 表示 該案 因連續 壁施作 已 派員至 現場 了解 處理 中 工地 正 止水 當中 圖讀 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷 崇德街 60 巷 路面 出現 大 天坑 圖讀 提供</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 並劃 設緊 戒線並 通知 府 相關 單位 到場 處理 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 廖炳棋 翻 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 緊急 救援 住戶 圖讀 提供</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>北市 信義區 今 下午 3 點 多出 現大 天坑   崇德 街 60 巷 民宅 前 路面 坍陷   傍晚 5 點多 坑洞 再 擴大   消防局 已緊 急 疏散 鄰近 住戶   信義區 公所 區長 陳 冠伶 表示   9 位有 安置 需求者   已協助 找 好 旅社 並 入住   每人 每日 可申 請 補助 1600 元   最多 7 天       區長 陳 冠伶 表示   人數 調查 一直 變動   目前 9 位有 安置 需求   依規定 發生 緊急 災害 可 申請 安置 補助   每人 一天 1600 元   最多 申請 7 天   已協助 找 好 旅社   住戶 均 已 入住 安置   該 坑 主要 範圍 為 18 號至 24 號   警戒 區 12 號至 24 號已 拉起 封鎖線   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 北市 府 表示 消防局 於 15 時 13 分通報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 長 15 寬 3 深度 2 至 3 無人 受傷 市府 表示 目前 處置 作為 已 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 信義區 區長 已 趕 抵 現場 坐鎮 指揮 目前 評估 約 10 餘位 住戶 需要 安置 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 今 13 日 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 且 二度 坍塌 台北 市長 蔣 萬安 晚上 到場 關心並 作出 四點 指示 蔣 萬安 表示 市府 已 第一 時間 出 相關 緊急 疏散 處置 並向 同仁 作出 四點 指示 第一 安全 至上 相關 緊急 應變 處置 必 須 儘 速 地 完成 包括 疏散 安置 等 已 媒合 旅宿業 進行 安置 住民 入住 可依規定 申請 補助 我們 會 盡力將 損害 降到 最低 第二 釐 清 坍塌 原因 儘 快 排除 目前 了解 可能 連續 壁 滲水 問題 市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因 並 儘 快 排除 避免 坍塌 面積 持續 擴大 第三 事件 整體 調查 就 這次 地面 坍塌 事件 將針 對 工地 負責營 造商 就 過去 相關 建造 紀錄 整體 調查 第四 全市 工地 全面 清查 崇德街 案緊 急 處置 後 將針 對 台北市 興建 工程 工地 作 全面 清查 避免 相關 事件 重演 蔣 萬安 強調 目前 已責成 相關局 處務必 盡速 完成 相關 緊急應 變作 為確 保住 民 市民 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大將 損害 降到 最低 全力 捍衛 市民 命財產 安全 根據 建管處 資料 顯示 該 起 工程 工地 起造 人 東禧 建設 承造 人華熊 營造 監造 人 向度 聯 合建 築師 事務 所 目前 則已針 對 承造 人 監造 人 各 開罰 新 台幣 九萬元</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚上 到場 關心並 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 表示 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 周邊 拉起 警戒 線 提醒 民眾 注意安全 民眾 警方 協助 下回 住 處拿東 西林 伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 周邊民眾 聚集 關心 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 晚間 坑洞 正持續 灌漿 阻止 繼續 塌陷 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北市 議員 許淑華前 右到 場關 心民眾 林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 左二 台北市 議員 徐巧 芯 右二到 場關 心林伯東</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供</t>
+          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道 蹋陷 緊急 灌漿 回填 住戶 驚慌 撤離   消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 寬 3 深度 23 ) 幸無人 受 傷警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 目前 評估 約 10 餘位 住戶 需要 安置 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 警消 緊急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 住戶 心餘悸 驚慌 撤離 到 一旁 安全 區域 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 警方 疏導 住戶 驚慌 撤離 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供</t>
+          <t>〔 台北市 信義區 崇德街 60 巷華熊 營造 建案 工地 旁 巷道 昨 13 日 下午 發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 昨晚 灌漿 填補 坑洞 與 建案 基地 坑洞 初步 填平 完成 但 目前 為將 土水壓 平衡 仍 基地 持續 灌水 台北市 都發局長 王玉芬 今 14 日 上午 說明 灌水 作業 預計 今 下午 完成 至於 住戶 回家 需達 3 條件 估計 作業 需 1 至 2 週王玉芬 今 上午 抵達 現場 說明 進度並 表示 造成 道路 塌陷 初步 判斷 工地 地下 連續 壁 約 1112 處 破洞 造成 水 與 砂往 工地 流產 破洞 原因 疑似 為 連續 壁 施工 時 包土 狀況 目前 已 坑洞 進行 灌漿 回填 基地 則採 填砂 灌水 以 平衡 水壓 至於 安置 外住 戶 王玉芬 指出 住戶 回到 家 需 3 個 條件 包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層 監測 建築物 無 傾斜 由 專業 技術 人員 進入 屋檢查 無 毀損 或 裂縫 預計 時間 需 1 至 2 週 希望 可盡 早 完成 讓 住戶 回到 家園 安置 費用則 由 廠商 全部 負擔 針對 現場 作業 進度 王玉芬 說 目前 基地 水位 地下 5.5 大約 下午 會 灌到 地下 3 雖然 昨晚 已 初步 判斷 狀況 趨 於 穩定 但 北市 府 要求 持續 灌水 至 地下 3 處 預計 灌水 作業 今 下午 可 完成 台北市 信義區 長 陳 冠伶今 受訪 表示 調查 結果 撤出 七戶 需要 安置 住戶 一共 5 戶 10 人 目前 都 安置 信義區 旅館 按照 規定 發緊 急 災害 補助 可 申請 安置 補助 每人 一天 1600 元 最 多 可 申請 七天 超過 部分 廠 商承諾 超出 部分 可 負擔</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供</t>
+          <t>首次 上稿   0004 更新 時間   0609 〔 台北市 信義區 崇德街 60 巷一處 華熊 營造 建案 工地 旁 巷道 13 日 下午 3 點多發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 台北市 政府 與 建 商展 開搶救 灌漿 填補 坑洞 與 建案 基地 晚間 11 點 坑洞 初步 填平 完成 北市 府 啟動 預防性 疏散 疏散 安置 11 名住 戶到 旅館 住宿 台北市 建管處 指出 崇德街 60 巷華熊 營造 建築 工地 旁發 道路 坍陷 建管處 收到 訊息 立刻 派員 現場 了解 工地 正 進行 地下室 開挖 因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷 立即 指揮 承造 人 進行 緊急 處置 要求 基地 外 道路 下陷 處 進行 灌漿 回填 基地 採填砂 灌水 以 平衡 水壓 至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成 趨 於 穩定 基地 仍 監督持續 進行 填砂 灌漿 台北市 建管處 長 虞 積學 表示 經 建管處 緊急 聯 繫 台北市 土木 技師會莊 理事 長 結構 技師會 徐 理事 長 均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍 目前 採預 防性 疏散 措施 疏散 1224 號計 5 戶 需 安置 11 名住 戶 均 已 安排 至 旅館 住宿 虞積 學強 調該 建案 違反 「 建築法 」 部分 現場 已 立即 勒令停工 並處 以 18 萬元罰 鍰 建管處 將持續 現場 指揮 搶 救 現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測 提高 觀測 頻率 直到 確認 安全 無虞該 工地 目前 已 勒令停工 後 續須 確認 週邊 地質 鄰房 安全 無虞並 檢具 改善 計畫 經相 關會 審 查核 可 後 始得 復工</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  </t>
+          <t>台北市 信義區 崇德街 一處 新建 工地 旁 道路 13 日發 地層下陷 晚間 緊急 灌漿 搶 救 晚間 11 時 坑洞 初步 填平 完成 附近 住戶 一 早就 跑 來 關心 自己 攤位 擔心會 再次 坍塌 北市 都發局長 王玉芬 視察 表示 初步 判斷 道路 塌陷 原因 因 工地 地下 連續 壁 約 11 至 12 處 破口 水 與 砂往 地下室 流 造成 坑洞 未來 一周 將會 同三大技 師會 全面 檢查 地下室 開挖 工地 避免 類似 意外 再度 發 台北市 信義區 崇德街 一處 新建 工地 旁 巷道 13 日 下午 突然 發 地層下陷 坑洞 長 約 15 寬 3 深度 3 北市 勒令 工地 停工 附近 住戶 一 早就 跑 來 關心 自己 攤位 擔心會 再次 坍塌 周邊 住戶 說 「 昨晚 1112 點還 沒 睡覺 早上 56 點又趕 快 跑 出來 看要 關心 一下 我 自己 攤位 希望 說 沒下 一次 啦 」 信義區 區長 陳 冠伶 表示 「 安置 了 5 戶 一共 10 位現 我們 把 他們 都 安置 我們 信義區 旅館裡 」 台北 市長 蔣 萬安 上午 前往 旅館 探視 安置 戶致 贈慰 問金以 康乃馨 報告 工程 搶修 進度 蔣 萬安 提 「 接下 來 我們 還要 持續 監測 第二 個 我們 會 請 土木 技師來 整體 評估 」 初步 了解 因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷 現場 隨即 進行 緊急 處置 基地 外 道路 下陷 處 進行 灌漿 回填 基地 採填砂 灌水 以 平衡 水壓 北市 府 都發局長 王玉芬 解釋 「 初步 判斷 工地 裡面 地下 連續 壁大約 11 到 12 之間 破口 所以 它 水 跟 砂會 往 地下室 裡面 流才 造成 這個 坑洞 」 為 了 避免 類似 工地 意外 再度 發蔣 萬安 指出 已責成 相關局 處針 對 北市 工地 全面 清查 目前 建築 工地 正開 挖階段 102 件 將由三大 專業會 逐案 現場 勘查 於 一 週檢 查完 畢屆 時 安全 疑慮將 下令 停工 改善</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影</t>
+          <t>北市 信義區 驚見 天坑 市政府 表示 坍塌 原因 指向 旁邊 大樓 建案 因為 地下 連續 壁 破洞 都 發局 初步 調查 後 對 承造 人 監造 人 各 開出 9 萬元罰 單 等 釐 清責任 歸屬 再 進 一步 開罰 至於 附近 住戶 目前 共 10 人 接受 安置 暫住 信義區 旅館 相關 費用 將由建 商來 負責 巷弄 路面 塌陷 好大 一塊 深度 達到 3 一旁 民宅 門口 遭殃 鐵門 幾乎 懸空 這樣 情況 就 發 台北市 信義區 短時間 房子 不能 住 了 住 戶們 該何 去 何 從 台北市 信義區 長 陳 冠伶 指出 「 昨天 疏散 撤離 範圍 從 12 號到 24 號調查 結果 發現 需要 安置 住戶 一共 5 戶 」 市府 緊急 介入 安置 一共 撤離 7 戶 需要 安置 5 戶 一共 10 人 暫時 住 信義區 旅館 依照 規定 每人每天 可以 請領 補助 金 1600 元 可以 請領 7 天 但 看 這情況 住 戶們 一週 回 不了 家 了 超出 費用 將由建商 全額 買單 另外 台北市 都 發局 局長 王玉芬 表示 第一 時間 已經 勒令停工 現進行 搶災 部分 同時會 對 承造 人 跟 監造 人處 各 9 萬元罰 鍰 根據 初判 建商要 負責 因為 一旁 建案 施工 地下 連續 壁 破洞 釀災 原本 要蓋 大樓 地下 4 層 地上 17 層 負責營 造華 熊營 造司 興建過 包括 台北 101 世貿 中心 陶朱 隱園 都 赫赫 名建築 如今 卻 發工安 意外 讓 工程 暫時 喊 卡 首要 之務得 設法 解決 安全 問題 還給 當地 居民 一個 安全 家</t>
         </is>
       </c>
     </row>
@@ -691,297 +691,297 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影</t>
+          <t>桃園市 蘆竹區 南興 水岸 遊憩 園耗資 1 億元 2019 年 竣工 不到 4 年 近期 卻 被 發現 步道 草原 都 因 地層下陷 出現 大大小小 坑洞 遭議員 批評 宛如 成 了 「 地雷 園 」 市府 工務局 表示 地層下陷 原因 可能 水路 沖 刷 造成 後 續會 再 前往 會勘 確認 南興 水岸 遊憩 園 2019 年 完工 當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中 發現 綠地水 利用 地未 被 徵收 經與 地方 討論 後 市府 決定 徵收 開闢 為 水景 園引 進共融式 設計 設置 樹屋 人文 廣場 森林 小徑 遊戲 沙坑 自行 車道 等 成為 南 崁 住宅 密集 區 「 都 會 中綠洲 」 市議員 張桂綿 近期 發現 園中 步道 嚴重 下陷 凹 了 一塊 包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞 甚至 掏空 成 了 無底 洞 主因 就 鄰近 河川 水流 滲透導致 地層下陷 嚴重 土壤 幾乎 全都 流失 「 這裡 宛如 地雷 區 」 張桂綿 直言 如果 民眾 或 兒童 沒 注意 一不小心 可能 會 踩 空受 傷前 已向區 所 反映 但 至今 仍無解 方呼籲 市府 務 單位 多 幫忙 盡速 拆除 「 地雷 」 還給 鄉親 安全 遊憩 環境 工務局 長 汪宙 表示 初步 判斷 可能 施工 時 夯土 不夠 扎實 附近 水流 滲透 加上 行人 重量 造成 壓力 才 導致 夯土 流失 地層下陷 市府 後 續會 協同 各 單位 前往 會勘 了解 發 原因 並盡速 改善 施工 缺失 桃園 蘆竹區 南興 水岸 遊憩 園 竣工 不到 4 年 步道 卻 嚴重 凹陷 恐響 市民 安全 圖 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 園耗資 1 億元 卻 出現 「 無底 洞 」 遭議員 批評 宛如 成 了 「 地雷 園 」 圖 張桂綿 提供</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  </t>
+          <t>桃園市 蘆竹區 南興 水岸 遊憩 園耗資 1 億元 打造 完工 迄今 不到 4 年 近期 被 發現 步道 草 原因 地層下陷 出現 大大小小 坑洞 議員 批評 宛如 成 了 「 地雷 園 」 市府 工務局 表示 地層下陷 原因 可能 夯土 不夠 扎實 水路 沖 刷 造成 將 安排 會勘 改善 南興 水岸 遊憩 園 2019 年 竣工 市府 特別 引進 共融式 設計 設置 樹屋 人文 廣場 森林 小徑 遊戲 沙坑 自行 車道 等 南 崁 住宅 密集 區營造 「 都 會 中綠洲 」 市議員 張桂綿 說園 步道 近期 嚴重 下陷 包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞 甚至 掏空 成 「 無底 洞 」 推測 鄰近 河川 水流 滲透導致 地層下陷 嚴重 土壤 幾乎 全都 流失 「 這裡 宛如 地雷 區 」 張桂綿 直言 如果 民眾 或 兒童 沒 注意 一不小心 可能 踩 空 受傷 已向區 所 反映 但 仍 無 解方 呼籲 市府 工務 單位 正視 盡速 拆除 「 地雷 」 還給 鄉親 安全 遊憩 環境 工務局 長 汪宙 說 初判 可能 施工 時 夯土 不夠 扎實 附近 水流 滲透 加上 行人 重量 造成 壓力 導致 夯土 流失 地層下陷 市府 後 續會 協同 各 單位 現勘 了解 發 原因 並盡速 改善 施工 缺失</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  </t>
+          <t>根據 研究 指出 美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 分 速度 持續 下沉 中 而 部分 地區 下沉 速度 甚至 比 平均值 高出 兩倍 分析 主要 原因 因為 大量 建築物 尤其 一棟棟 摩天 大樓 讓 地表 超重 再 加上 海平面 不斷 上升 地層下陷 海平面 上升 雙重 夾擊 讓 紐約市 岌岌可危 「 紐約 市將 30 年後沈入 海底 」 這 可能 不 危言 聳 聽 因為 研究 指出 紐約市 正以 每年 0.1 到 0.2 分 速度 持續 下沉 中紐 約 市 840 萬人 不但 人口 高度 密集 更 一座 水泥 叢林帝 國大廈 等 數不清 摩天 大樓 壓得 紐約 喘 不 過氣 紐約市 建築 總 重量 大約 7620 億斤 相當 於 1.4 億頭 大象 重量 聯合國 秘書長 古特 瑞斯 說 「 海平面 上升 不僅僅 只 威脅 而已 它 更 威脅 乘數 」 原來 從 1950 年 以來 紐約市 沿岸 海平面 已經 上升 22 分大 蘋果 海平面 上升 速度 全球 平均值 兩倍 預 估到 2050 年 紐約市 海平面 將 上升 30 到 45 分 這中間 值 最高 甚至 估計 到 76 分 最壞 情況 21 世紀 結束 時紐 約 海平面 比現 上升 約 180 分 自由 女神像 早已 滅頂 建築物 導致 地層下陷 海平面 快速 上升 不用 太久 紐約市 恐怕 將成 為 歷史 名詞</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  </t>
+          <t>紐約市 正 下陷 美國 地質 專家 研究 發現 由 於 紐約市 摩天 大樓 眾多 加上 地質 變動 部分 紐約市 地層 已 下陷 至少 2 分未來 若 再 加上 海平面 上升 恐讓 沿海 地區 居民 存備 受 威脅 紐約 每年 均 下沉 據 獨立報 報導 紐約市 人口 約 800 萬美國 地質 調查局 研究 人員 指出 包括 布魯克林 皇后 區與 下曼頓 部分 紐約市 因為 地層下陷 每年 下沉 1 到 2 分該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億斤 重量 等 因素 除此之外 研究 更 指出 紐約 市還 面臨 洪水 危害 風險 海平面 上升 亦 威脅 稍早 研究 曾 指出 全球 暖化 帶來 海平面 快速 上升 2050 年前 全球 海平面 將 上升 200 到 600 分 研究 人員還 指出 紐約市 每年 下陷 約 1 到 2 分 部分 地區 下沉 速度 更 快 原因 除了 近期 不斷 興建 摩天 大樓 外還 包括 抽取 地下水 土壤 壓實 與 地震 等 因素 都市 建築物 面臨 其他 風險 例如 地層 暴露 鹽水 後 可能 導致 鋼筋 混凝土 受到 侵蝕 因此 減少壽命 下 沈 自然 造成 據 Live   Science 報導 研究 指出 紐約市 下 沈 部分 原因 可能 自然 形成 因為 上 一次 冰河 時期 最 寒冷 時候 巨大 冰層 曾 覆蓋 大部分 地球 造成 冰層 下方 地面 下陷 進而 讓 陸地 邊緣 升起 等到 冰層 融化 後 被 抬升 地區則 開始 下陷 之前 研究 就 指出 到 2100 年 美國 東岸 可能 會 下陷 48 至 150 分 除了 大自然 力量 之外 研究 人員 認為還 可能 包括 其他人 為 因素 且 科學家 發現 當地 某些 地區 下沉 速度 更 快 原因 可能 建築物 重量 造成 本次 研究 結果 刊登 Earths   Future 期刊 【 更 多 精采 詳見 】</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  </t>
+          <t>一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機 美國線 電視 新聞網 CNN 報導據 推估 紐約市 2050 年 海平面 將 上升 8 至 30 英寸 20.32 至 76.2 分 更 重要 科學家 預期 由 於 人 為 引發 氣候 危機類 似東 北風暴 noreaster 颶風 這類 極端 降雨 事件 將更頻 繁地 出現 美國 地質 調查 所 US   Geological   Survey 專家 帕森斯 Tom   Parsons 說 「 我們 離 海水倒灌 還 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件 像 颶風珊迪 Sandy 艾達 Ida 帶來 暴雨 使得 城市 淹水 成災 都市化 帶來 部分 響 使得 水災發 」 這篇論 文發表 期刊 「 地球 未來 」 EarthsFuture 上旨 展示 沿海 河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險 以應 採取 相關 措施 來 降低 潛危險 衝擊 研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量 計算出 這些 建築物 重量 約 為 7620 億斤 相當 於 約 190 萬架 滿載 波音 747400 客機 研究 團隊 接著 利用 模擬 方式 計算出 這些 重量 對 地面 響並 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較 帕森斯 說 這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米 部分 下陷 較嚴 重地 區 每年 下陷 約 4.5 毫米 」 然而 並非 所 地層下陷 都 建築物 造成 帕森斯 說 「 我們 可想 見 非常 鬆 軟 土壤 人工 填 土地 面上 建造 建築 地層下陷 關聯 … 其他 地方 我們則 看到 難以 解釋 地層下陷 它 很多 不同 成因 例如 上個 冰河 時期後發 後 冰期 回落 或 抽取 地下水 」 研究 表明 地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅 而且 這種 情況 不只 發紐 約 市 帕森斯 說 「 這一個 全球性 問題 我 來 自羅德島 大學 University   of   Rhode   Island 合著 研究 了 世界各地 共 99 座 城市 不只 沿海 城市 陸 城市 其中 絕 大多 數都存 地層下陷 問題 」</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供</t>
+          <t>經典 末日 電 明天 過後 海水 源源 不絕 灌入 市區 整座 城市 轉眼 之間 沉 沒 大海 令人 難以 置信 這樣 災難 情節 未來 可能 紐約 真實 上演 人稱 「 大 蘋果 」 美國 紐約 高樓 林立 房子 一棟 比 一棟 蓋 得 更 高 更 奢華光 摩天 大樓 就 多 達 6000 棟 整座 城市 更 超過 100 萬棟 建築物 總 重量 高達 7700 億斤 約 1.4 億頭 大象 而 高樓 數量 還持續 增加 中 土地 承受 不了 建築物 重壓 加上 超 抽 地下水 使得 地層下陷 紐約 正 逐漸 下沉 中 雖然 從 數字來 看 沒什麼 大不了 換算下 來 每 10 年 才 下沉 2 分 但 專家 警告 這對 沿海 地區響 不小 覷 紐約 人口 最 密集 曼頓 跟 海岸 地區 首當 其衝 這個 世紀 末 就 西元 2100 年前 可能 陷入 汪洋 之中 成 了 名 副 其實 「 水 都 」 專家 擔心 地層下陷 跟 海平面 上升 雙重 夾擊 下 未來 如果 再 遇上 強烈 颶風 災情 可能 一年 比 一年 嚴重 氣候變遷 加劇 海平面 快速 上升 原因 都 跟 高碳 排放 脫 不了 關 係 減碳 成為 各國 首要 目標 紐約 當局 祭出 了 減碳 法令 限制 大樓 排放量 希望 改善 暖化 問題 減緩 海平面 上升 紐約 一半 以上 建築都將 受到 規範效 控制 碳 排放 些 建商 採用 新技術 地下室 打造 「 碳 捕捉 室 」 把 二氧化碳 收集 起來 更好 利用 透過 儀器 把 天然 氣燃 燒產 二氧化碳 轉換成 液態 阻止 它 進入 大氣層 還能 賣給 建商 力行 減碳免 於 受罰 還能 賺 錢 一舉 多 得 大樓 紐約 最大 碳 排放 來源 佔 了 城市 碳排 三分之二 把 造成 暖化 二氧化碳 封存 水泥 從 根本 減碳 起 未來將 全面 電氣化 停止使用 天然 氣 化石 燃料 減緩 暖化 速度 紐約 當局 防患未然 沿海 地區 設立 防波堤 環繞 整個 紐約 強化 海岸 防洪 能力 避免 強烈 颶風來 襲時 海水 灌入 市區 對 市區 造成 損害 建造 海牆 能效 防洪 但 可能 破壞 市 干擾 海邊 活動響 沿海居民 美國陸 軍 工程兵 團擬定 一項 名為 3B 新計畫 把 防洪 設施 分散 各地 降低 對當 地響 能 達 到 最好 效果 希望 對民環境 能 面面俱到 不只 紐約 面臨 下沉 危機 全球 多國 沿海 城市 飽受 海平面 上升 之苦 氣候變遷 威脅 越來 越大 各國 除了 要 加強 防洪 設施 要 經濟 開發 跟 環保 取得 平衡 加強 減碳 跟 發展 綠色 能源 才能 防止 大自然 反撲</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  </t>
+          <t>美國 紐約 東部 最熱鬧 城市 之一 美國 人口 最 多 城市 但 研究 顯示 這座 重要 城市 卻 每年 都 下沉 中 部分 地區 最 後 可能 還會 被淹 沒電 明天 過後 海水倒灌 場景 未來 恐怕 真會 發美國 紐約 摩天 大樓 林立 但 多 達 百萬棟 建築物實 太重 了 讓 整座 城市 地層 正 下陷 再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 長 久 下來 恐發 海水倒灌 等 洪水 災害 美國 地質 調查 所 專家 帕森斯 表示 「 無可 避免 地面 下降 水面 上升 某些 時候 這兩層 面會同 時發 但 我 沒辦 法給 確切 時間點 」 帕森斯 說 超過 百萬座 建築物 分布 五個 行政 區上 加起 來 約 1.7 兆 磅 混凝土 金屬 玻璃 等 建材 相當 於 4700 座帝 國大廈 重量 壓 地球 上 其中 部分 大樓 建築布 魯克林 皇后 區曼頓 市中心 土 質 鬆 散 地 區 上 下沉 速度 更快 美國 地質 調查 所 專家 帕森斯 表示 「 中部 大陸 上升 東 海岸 每年 下沉 約 1 至 2 釐 這我們 看到 主要 警訊 再 加上 紐約市 不同 土壤 質地還 人工 填土 來 增加 土地 面積 但 它們 土壤 固結度 很 差還 可以 讓 地層下陷 」 帕森斯 還說 雖然 下沉 速度 很 緩慢 但 紐約 部分 地區 最 終將 被淹 沒猶如電 明天 過後 海水倒灌 場景 未來 恐怕 真會發 至於 紐約會 變成 美國版 威尼斯 帕森斯 表示 確切 時間點 目前 尚 不 清楚 可能 還 需要 數 百年 時間 但 他 研究 不 危言 聳 聽 只 希望 透過 科學 數據 問題 擴大前 採取 行動</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  </t>
+          <t>路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 Batagaika   crater 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 片中 兩名 探險 爬過 巨坑 底部 凹凸不平 地形 這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成 因 地下 永凍土 融化 導致 地層下陷 當地 居民 兼 探險 家史 特魯奇 科夫 Erel   Struchkov 表示 「 當地 人稱 之 為 塌陷 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 科學家 說 俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍 占 俄國國 土面 積達 65% 苔原 因此 融化 釋出 溫室 氣體位 於 亞庫 次克梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 Nikita   Tananayev 表示 雖然 這 可能 吸引 遊客 但 坑洞 擴大 「 危險訊號 」 「 今後隨著 氣溫 升高 人為 壓力 增加 我們將 看到 越來 越 多 這種 巨型 塌陷 形成 直到 所永凍 土 都 消失 為止 」 永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮 導致 道路 坍塌 房屋 崩裂 管線 中斷 最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重 薩共國 當地 人 注意 到 巨坑 迅速 擴大史 特魯奇 科夫 說 「 兩 年前 巨坑 邊緣 距離 這條 小路 大約 20 到 30 現它 顯然 離 我們 更 近 了 」 科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度 但塔納 納耶夫 說 巨坑 下面 土地 些 地方 深約 100 含 「 大量 」 機碳 隨著永凍 土 融化 這些 機碳 將釋 放到 大氣 中加 劇 全球 暖化 「 隨著 氣溫 升高 我們 可以 預計 巨坑 將以 更 快 速度 擴大 這將 導致 未來 幾年 氣候 更加 暖化 」 路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 路透</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】</t>
+          <t>俄羅斯遠 東薩共國 一個 全球 最大 永凍土 塌陷 坑當 地人 把 它 稱作 「 冥界 之門 」 隨著 全球 暖化 加劇 這個 巨型 天坑 正持續 擴大科 學家 警告 永凍土 融化 會 把 更 多機 碳釋 放到 大氣 中 讓 溫室 效應 跟 全球 暖化 加劇 俄羅斯遠 東薩共國境 「 巴塔 蓋卡大融 洞 」 全世界 最大 永凍土 塌陷 坑當 地人 把 它 稱作 「 冥界 之門 」 當地 居民 斯特 魯奇 科夫 表示 「 這 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 當地 1960 年代 開始 砍伐森林 造成 地下 永凍土 融化 進而導致 地層下陷 氣候 暖化 更 加速 永凍土 流失 讓 融洞 越來 越大梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出 「 這個 危險跡 象 因為 這高氣 溫氣候 暖化 跟 人 為 活動 壓力 造成 我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成 直到 所永凍 土 都 消失 」 更 糟糕 隨著永凍 土 消失 封存 裡頭 機碳會 被釋 放到 大氣 中加 劇 全球 暖化 塔納納 耶夫 表示 「 永凍 土碳 存量 大氣 中 兩倍 它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 取導致 更 高 甲烷 跟 二氧化碳 排放 加速 溫室 效應 」 科學家 說 俄國國土 六成 五 都 苔原 當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上 永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮 造成 道路 坍塌 房屋 崩裂 並阻礙 管線 運作 對民眾 活構 成威脅</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    </t>
+          <t>宜蘭縣 蘇澳鎮 民富街 部分 路段 緊臨 蘇澳 海事 游泳池 居民 質疑 疑似 校方 長 期為 泳池 抽 地下水 導致當 地底 層 下陷 連 住家 地基 都 被 掏空 嚴重響 居住 安全 校方 認超 抽 地下水 立委 陳 琬惠會 同 教育部 水利 署 官員到 當地 與 居民 研商 解決 辦法 宜蘭 蘇澳鎮 民富街 部分 與 蘇澳 海事 緊鄰 路段 長 年 發 地層下陷 問題 住戶 房子 地基 被 掏空 地面 牆面 出 現裂 縫 從 住家 滾一個 鐵罐 到 道路 對 面相 當順暢 可以 見 到 坡度 相當大且 道路 表面 比旁邊 側溝 還要 矮 根本 沒 排水 功能 居民 指出 「 游泳池 建好 以 後 大概 用 了 4 年 多 就 塌 掉 了 響 到 我們 」 當地 地層下陷 情況 從 2017 年 蘇澳 海事 游泳池 塌陷 後 就 開始 發 多年 來無法 完全 改善 即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿 道路 仍持續 塌陷 居民 質疑 當年 蘇澳 海事 為 了 游泳池 超 抽 地下水 才 導致 地層下陷 情形 教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示 「 我覺 得 地質 監測 這一塊 我們 可以 持續 讓 大家 安心 說 我們 不持續 劇烈 沉降 或 傾斜 狀況 會 定期 跟 大家 報告 我們 監測 結果 」 校方 認超 抽 地下水 表示 當年 泳池 塌陷 後 就 沒 抽水 過去 抽 溢流 出 地面 水源 教育部 則說 過去 壓力 灌漿 延緩 地質 沉降 效果 立法 委員陳琬惠 表示 「 房子 跟 道路 就 脫離 當中 所以 我 希望 我們 今天 要 找到 一個 方法 不只 檢測 而已 」 水利 署 組長 簡昭群 說 「 技師會 去 依據 他 測量 結果 找出 造成 沉陷 具體 原因 」 陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會 研商 解決 辦法 水利 署 說 要 確定 當地 地層下陷 真正 原因 抽水 行為 還土質 問題 才能 根治 問題</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 災難 情節   未來 可能 紐約 真實 上演   人稱   大 蘋果   美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 影響 不容 小覷   紐約 人口 最 密集 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實   水 都     專家 擔心   地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 採用 新技術   地下室 打造   碳 捕捉 室     把 二氧化碳 收集 起來   更好 利用   透過 儀器   把 天然 氣燃 燒產生 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 碳 排放 來源   佔 了 城市 碳排 三分之二   把 造成 暖化 二氧化碳 封存 水泥   從 根本 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 防患未然   沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 擬定 一項 名為 3B 新計畫   把 防洪 設施 分散 各地   降低 對 當地 影響   能 達 到 最好 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 沿海 城市   飽 受 海平面 上升 之苦   氣候變遷 威脅 越來 越大   各國 除了 要 加強 防洪 設施   要 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  </t>
+          <t>地層下陷 居住 環境 出現 疑慮 宜蘭 蘇澳鎮 民富街 持續 嚴重 地層下陷 除了 騎樓 路面 出現 裂 縫家裡 牆壁 地磚 都 裂痕 讓民眾 膽戰心 驚質疑 附近 蘇澳 海事 水產 職業 學校 游泳池 超 抽 地下水 造成 10 號會同 當地 立委 縣府 官員 進行 協商 希望 解決 問題 道路 傾斜 越來 越 嚴重 路面 持續 裂痕 產 地層下陷 越陷越深 民眾 憂心 忡忡 因為 騎樓 道路 出現 明顯裂 縫家門口 緊鄰 水溝 都 脫離 了 3 分走 進家裡 更 驚險 白色 地磚 出現 裂痕 銜接 處變 得 高低不平 整個 牆 壁上 超長 裂痕 怵 目驚心 這裡 宜蘭 蘇澳鎮 民富街 部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池 當地 地層 持續 嚴重 下陷 遊 泳池 用 了 四年 就 塌陷 讓 居民 質疑 學校 不當 抽取 地下水 惹 得 禍 10 號這天會 同 立委 縣府 官員 共同 協商 不過 水利 署 官員 分析 指出 地層下陷 除了 跟 抽水 行為關 泳池 載 重關 係 還要 再 進 一步 釐 清 居家 環境 不安 全民 眾活 都 膽戰心 驚 只 盼望 可以 盡快 改善 問題 還給 居民 安全 活環境</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  </t>
+          <t>台北市 再現 「 天坑 」 南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌 長 約 2 寬約 2 深度 約 2 市府 指出 目前 無人受 傷員警 已 畫設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 市府 晚間 7 點 30 分開設 前進 指揮 所 南港區 長 蔡明 儒到 達 現場 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 中 新建 工程 處開 挖 確認 塌陷 原因 水利 處連接 涵管 輕微 脫管 現象 目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮 官後續 將由 水利 處修 復 脫 管處 含 路面 修 復 並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞 水利 處 評估 工程 進度 實施 交通 維護 南港路 3 段 47 巷雙 向 封閉 預計 今晚 9 時修 復 機具 進入 開工 8 月 19 日 凌晨 0 時 灌漿 回填 作業後續 等到 混凝土 達到 一定 強度 之 後 路面 將會 辦理 復 舊 預計 於 明天 晚上 10 時許 恢 復 通車 市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管後續 將由 水利 處修 復 脫 管處 含 路面 修 復 並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞 圖 北市 府 提供 台北市 下午 4 點多 再現 「 天坑 」 市府 指出 目前 無人受 傷員警 已 畫設 警戒 線新 工處 調派 重機 具開 挖 確認 坍塌 原因 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  </t>
+          <t>〔 台北市 南港區 昨天 晚間 發 道路 塌陷 經查 塌陷 原因 雨水 連 接管 脫管 造成 南港路 3 段 47 巷雙 向 封閉 施工 原 預計 今 19 晚 10 時 恢 復 通車 水利 處連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 提前 於 早上 8 點開放 機車 小型 轎車 通行 預 中午 12 點 全面 通行 南港 警方 昨天 晚間 近 6 點 42 分接 獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷 下陷 面積長 約 2 寬約 2 深度 約 2 幸無人 受 傷員 警劃 設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 經設 置 前進 指揮 所 水利 處 擴大開 挖 作業 確認 雨水 連 接管 脫管 造成 連夜 搶 修後已 經修 復 完成 並 回填 路面 今天 早上 已經 提前 恢 復 通車後續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影</t>
+          <t>北市 南港路 3 段 47 巷 昆陽街 60 巷 交界 昨晚 出現 道路 局部 塌陷 連夜 搶 修下 預 中午 12 點 全面 通行 昨晚 天坑 地點 一處 機車 停等區 地層下陷 長 約 2 寬約 2 深度 約 2 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 水利 處 指出 連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 19 日 8 時將 開放 機車 小型 轎車 通行 預 12 點 全面 通行 北市 天坑 搶修 完成 圖 北市 府 提供 北市 天坑 搶修 完成 圖 北市 府 提供</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  </t>
+          <t>台北市 短短 3 個 月 出現 4 個 天坑 遭批 天龍國 變成 了 「 天坑 國 」 對此 工務局 今 20 日強 調 今年 發四案 道路 坑洞 情形 均 非 道路 受 輾壓 破 損導致 工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案 以 避免 類似 情形 發 北市 民東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞 新工處 接獲 通報 立即 調派 開 挖機 進場 確認 為 路旁 側溝 破損 造成 道路 掏空 新工處 進行 路面 回填 後 續 由 水利 處修 復 溝體 水利 處下 工科 科長 邱佑銘 表示 經現場 勘查 破 損側 溝位 排水 下游 處 可能 因 水流 長 期 沖 刷 或 施作 年代 久遠 溝底 出現 局部 破損 情形 水利 處並 已督商 今日 進場 辦理 搶 修作業 因案址 位處 8 以下 單行 道 因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行 當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護 欄圍 設並 可回 復 道路 通行 為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間 溝底 牆身 頂版會 分次 施工 預計 2 天可將 側溝 搶修 完成 工務局 說明 北市 近期 出現 4 個 道路 坑洞 事件 歸納為 3 種 原因 造成 5 月 19 日 信義區 崇德街 因建案 工地 開挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 周邊 道路 沙土 被 帶 走 而 出現 坑洞 7 月 10 日 大同區 南京西路 坑洞 因該 處 地層 軟弱 長 期受 潮汐 響 地下水位 升降 使 污水 管線 下方 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土砂 沿管線 破 損處 流失 所致 後 衛工處 以視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常 近 兩日發 兩 案件 均 與 水利 管渠 破 損關 南港區 南港路 出現 坑洞 市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍 許多 建案 均 施工 中 南港路 47 巷道 路 狹小 因此 水利 處無法 深埋 排水 箱涵 接側 溝連 接管 研判 與 重車 來 往頻 繁間 接關 係 使得 連 接管 間 出現 縫隙 地下水 帶 走 土沙而發 地層下陷 至於 昨夜 民東路 二段 159 巷口 坑洞 則因 道路 側溝 溝體 老舊 破損 而 造成 近期 下雨 排水 淘涮 因應 幾次 道路 塌陷 坑洞 問題 事件 北市 府 已 擬定 防範 措施 新工處 將加強 定期 道路 巡查 如發現 路面 曾 出現 塌陷 修補 狀況 會 再 使用 透地雷達 確認 道路 無 孔洞 若 土壤 流失 透過 預判 可行 強 化道路 衛工 處則 啟動機 巡視 各個 大型 管道 水利 處將針 對 管路 箱涵 等 進行 巡視 機制 多管 齊下 避免 類似 坑洞 情形 再發</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  </t>
+          <t>北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 民進 黨 北市 議員 洪婉臻 晚間 表示 短短 時間 發多起 塌陷 意外 道路 品質 堪憂 根本 不堪 大雨 考驗 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責 任批 市府 宜 行事 罔 顧共 安全 洪婉臻 說 昆明街 320 巷 92 號 今天下午 4 點 42 分出 現 天坑 事件 該 事件 因建案 開 挖 造成 長 3 寬 2 深度 1.5 地層下陷 約 一輛 汽車 車身 所幸 塌陷 部分 位 工地 範圍 未響 到民眾 安全 與 通車 表示 據 建管處 施工 科回報 查明 連續 壁 並無滲 水破損 情形 與 之前 南京西路 發 塌陷 原因 不同 比較 可能 因為 連日豪 大雨 造成 土 質 鬆 動 才 發 整 體 事件 因 基地 退縮 建築線 3.64 米開 挖 故 坍陷 處裡開 挖面 仍 2 至 3 米 距離 坍陷 原因 還 查明 洪婉臻 指出 繼 之前 大同區 南京西路 後 今天 已 北市 第 3 次發 路面 塌陷 事件 短短 時間 發多起 塌陷 意外 北市 道路 品質 堪憂 根本 不堪 大雨 考驗 直言 北市 府 真 應該 好好 檢討 路面 品質 呼籲 市府 對 於 道路 品質 不要 宜 行事 屢次 臨時 抱 佛腳 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責任 上次 衛工處 這次 建管處 簡直 罔 顧共 安全 「 一次 又 一次 只會 讓 人民 對 政府 失去 信心 」 北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 圖洪婉臻 辦室 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透</t>
+          <t>繼 前天 南港區 昨日 中山區 北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞 這 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 台北市 工務局 表示 該處 為 新建 工地 疑 基地 外舊 水溝 加上 地基 較 鬆 軟 遇上 大雨 沖 刷 導致 土石流 失 下陷 這處 天坑 約長 3 寬 2 深度 1.5 無人 受傷 已 畫設 警戒 線 淘空 點位 建築 基地 建商 已 接手 灌漿 處 理完 畢 萬華區 天坑 位 於 昆明街 320 巷 92 號 新建 工地 旁 今天下午 16 時 42 分 左右 疑似 因 基地 外舊 水溝 加上 地基 鬆 軟 遇 大雨 沖 刷 導致 土石流 失 下陷 北市 府 表示 這起 萬華 地層下陷 長 寬 約 一輛 汽車 車身 還好 塌陷 時 無 造成 人員 受傷 目前 北市 府 已 畫設 警戒 線 消防局 已 現場 成立 前進 指揮 所 警戒 守視 新 工處 表示 本案 經 工地 主任 說明 因 基地 外舊 水溝 加上 地基 較 鬆 軟 遇上 大雨 沖 刷 疑似 導致 土石流 失 下陷 建商 已 緊急 調用 水泥 車搶修 晚間 19 時 完成 灌漿 回填 作業 目前 初步 評估 並無 擴大 危害 之虞 北市 近期 五度 出現 路面 坑道 分別 為 5 月 13 日 信義區 崇德街 7 月 10 日 大同區 南京西路 8 月 18 日 南港區 南港路 8 月 19 日 中山區 民東路 以 今天 萬華區 昆明街 北市 萬華 某處 工地 今天 出現 路面 坑洞 圖 居民 提供 工務局 表示 掏空 點位 建築 基地 建商 已 接手 灌漿 處 理完 畢圖 居民 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞 圖 居民 提供</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  </t>
+          <t>4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線關   市府 已 要求 總體檢 〔 台北市 昨晚 萬華區 昆明路 一處 建案 工地 旁 又 發 地層下陷 近四個 月 來 第五次 市區 道路 塌陷 昨晚 塌陷 原因 仍 不明 不 排除 豪 大雨 所致 台北市 政府 工務局 說 前 四次 塌陷 都 不 車輛 輾壓 破損 而 與 地下 管線關 已 擬定 防範 措施 台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 關呼籲 重視民眾 看不到 基礎 建設民 進黨議 員林 延鳳陳怡 君質疑 「 甩鍋 」 認為 市府 應積極 研擬 極端 氣候 下 管線 老舊 問題 對策 萬華 昆明路 建案 工地 旁   又 發 地層下陷 李 四川 回應 議員質疑 說 絕非 「 甩鍋 」 氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵導 致些 本來 就 破裂 老舊 排水管 損裂 更 嚴重 民東路 管線 就 超過 廿年 而 上次 南京西路 塌陷 後 他 已 要求 衛工處 總體 檢老舊 管線 箱涵 若 需要 維修 或 更 換會 立即 處理 萬華 昨晚 塌陷地 點建案 工地 旁 下陷 面積 約 長 三 寬 兩 深度 一 ． 五晚 間 已經 完成 回填 十九日 民東路 塌陷 處 完成 回填 水利 處 勘查 側溝 破 損導致 地層 被 掏空 將進 行側 溝修 復 豪 大雨 沖 刷   導致 破裂 排水管 損害 更嚴 重工 務局 說明 這幾起 道路 塌陷 都 不 車輛 輾壓 造成 五月 十三日 崇德街 因建案 開 挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 帶 走 周邊 道路 沙土 而 出現 坑洞 七月 十日 南京西路 軟弱 地層 長 期受 潮汐 響 地下水位 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土 沙 沿 管 線 破 損 處 流失 而 南港路 許多 建案 施工 四 七巷 道路 狹小 排水 箱涵 接側 溝連 接管 無法 深埋 疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙 地下水 帶 走 土沙 而 地層下陷 民東路 道路 側溝 溝體 老舊 破損 加上 近期 下雨 排水 掏涮 所致 李 四川 臉書感 而 發說 近來 國外 天災 不斷 包含 國 南投 豪 大雨 高雄 積 淹水 北市 路面 塌陷 等 都 與 極端 氣候 溫室 效應關 希望 每 一位 位 都 能 對 百姓 看不到 基礎 建設 工程 多用 一點 心議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策 林延鳳 認為 李 四川 說法 甩 鍋卸責失 專業 直指 四起 道路 塌陷 都 疏 於 督管 工程 品質 「 人禍 」 不應 歸咎 於 天災 陳 怡君 說 極端 氣候 不能 成為 推卸 市政 理由 與 藉口 市府 應針 對 路面 總體 檢更換 或 整修 老舊 管線 箱涵 積極 研擬 因應 極端 氣候 共管 線 老舊 對策</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  </t>
+          <t>〔 台北市 近來 天坑 事件 頻傳 萬華區 一處 建案 工地 旁 道路 日前 發 地層下陷 坑洞 面積 約 一輛 汽車 車身 所幸 無人 受傷 不 過當 地里 長 蔡岳樺 表示 工地 已 二度 出包 天坑 修補 後 又 出現 積水 北市 議員 應曉薇 質疑 建案 若 未側 溝未來 仍 可能 天坑 事件 台北市 建管處 表示 會 要求 將 排水 系統 完 已 將個 案列 為 重點 稽查 個案 應曉薇 今天 與 多位 萬華 里長 前往 萬華 工地 會勘 應曉薇 質疑 建案 側溝 若 側溝 都 沒 未來 仍 可能 天坑 若 再 大雨 台北市 衛工處 又 要 幫忙 清砂 發現 坑洞 日前 雖已 填補 但現 又 出現 積水 對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 關則 稱 這就 沒 側溝 造成 人為 疏失 蔡岳樺 說 福音 里 3 個 工程 每次 都 這個 建案 出事 他 對 於 都市 更新 樂觀 其成 但 不 希望 響民眾 安全 他 呼籲 建商 出事 要 負責 不要 什麼 就 推給 別人 蔡 表示 天坑 意外 當天 建案 負責人 推 託 說 下雨 地基 掏空 又 說 沒 危險 沒什麼 讓 他 相當 憤怒 難道 要 出事 才 算 問題 呼籲 建商要 把 事情 好 萬華區 全 德里 里長 趙 素美 認為 這個 問題 應該 可以 提前 處理 不能 發 事情 才 處理里 長 都 為 里 民保護 身家 財產建商 與 里 長 應該 互相 尊重 建管處 表示 此 都 更案 採用 舊 法令 本案 涉私 土地 法令 上不會 要求 現 就 按照 使用 執照 竣工 時 排水 系統 完 但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷 現行 法令 對 於 打通 道路 區域 排水 沒規範 但 建管處 會 要求 將 排水 系統 完 改善 區域 排水 建管處 說 已將 此案 列為 重點 稽查 個案 未來會 加強 稽查 目前 坑洞 已 填好 初步 安全 無虞 並將 安全 疑慮 地方 阻隔</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  </t>
+          <t>針對 北市 連續 出現 天坑 台北 市長 蔣 萬安 下午 安會 報中 指示 最近 幾次 地層下陷 會 進行 全面 檢視 請 工務局 邀集 相關 單位 包括 都 發 建管 針對 道路 塌陷 後 續 處理成 通案性 處理 機制 外應 全面 檢視會 就 老舊 管線 一次 清查 下 一步 再針 對 其他 地方 避免 後 續 再 發 地層下陷 情形 北市 建管處 下午 安會報 中針 對 今年 5 月 13 日 信義區 崇德街 60   巷道 路 塌陷 案 進行 專題 報告 加強 管理 作為 針對 北市 建築 工地 正開 挖階段計 102 件 排定 由三大會 從 5 月 15 日 開始 逐案 現場 勘查 目前 已 全數檢 查完 畢針 對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善 為 了 強化 管理 措施 加強 建築 工地 開挖 階段 安全 管理 自 6 月 分起 已委 託 三大會 不定期 進行 現場 勘查 另 就 建築 工地 因違 反建築 法共 安全 共 交通 遭受 裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 相關裁 處訊息 另外 函告 工地 應主動 通報 若 工地 發安 意外事件 應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處以 9 萬元 罰款 情節 嚴重 時並 勒令停工 副 市長 李 四川 提醒 建管處 最近 下午 雷陣雨開 挖 工地 要 加強 宣導 防範 蔣 萬安 表示 信義區 案例 主要 因為 旁邊 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 加強 查核 蔣 萬安 指示 針對些 地方 老舊 管線 不管 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處   地面 上 施工 如果 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>台北市 再現   天坑     南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 連接 涵管 有輕微 脫管 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現   天坑     市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供</t>
+          <t>北市 近日 連續 出現 天坑 市長 蔣 萬安 昨天下午 安會 報中 指示 工務局 邀集 都 發 建管 等 相關 單位 針對 道路 塌陷 制定 通案性 處理 機制 外應 全面 檢視 清查 地下 老舊 管線 下 一步 再針 對 其他 地方 避免 再發 地層下陷 情形 北市 建管處 昨天下午 安會 報針 對 今年 5 月 13 日 信義區 崇德街 60 巷道 路 塌陷 案 進行 專題 報告 北市 開挖 中建 築 工地 計 102 件 已委 託 台北市 土木 技師會 台北市 建築 師會 台北市 結構 工程 工業 技師會 從 5 月 15 日起 逐案 現勘 包括 觀測 項目 設置 按 計畫 觀測 以 施工 計畫 例如 抽水 計畫 等 已 全數檢 查完 畢針 對 檢查 項目 不 符合 建築 工地 要求 停工 釐 清 改善 為 加強 建築 工地 開挖 階段 安全 管理 6 月 起委 託 三大會 不定期 現勘並 就 建築 工地 因違 反建築 法共 安全 共 交通 受裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 裁處訊息 建管處 表示 已 函告 工地 若 發安 意外 應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處 9 萬元 罰款 情節 嚴重 時 還會 勒令停工 最近 常發午 後 雷雨 市長 蔣 萬安 副 市長 李 四川 都 強調 要 注意 李 四川 提醒 建管處 開挖 中 工地 要 加強 宣導 防範 蔣 萬安 說 信義區 案例 主因 為 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 查核 蔣 萬安 指示 針對些 地方 老舊 管線 像 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處 地面 上 施工 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理 建管處 指出 地下 管線 一旦 老舊 可能 鬆 脫 造成 漏水 淘空 地基 導致 地層下陷 隱憂</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  </t>
+          <t>台北市 中山區 大直 街巷 弄 今晚 多棟 大樓 傾斜 警方 初步 了解 大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時疑 因土質 問題 導致 地基 不穩 造成 民宅 傾斜 台北市 警消 晚間 8 時 34 分獲報 大直 街巷 弄 民宅 傾斜 出現 磁磚 牆壁 龜 裂警 消派員 到場 發現 建案 工地 旁 5 至 6 棟大樓 受響 立即 拉 警戒 線並 疏散 25 戶無人 受傷 目前 住戶 疏散 到 實踐 大學 警方 初步 了解 新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時疑 因土質 問題 導致 地基 不 穩定 造成 旁邊 民宅 傾斜且 地基 變形 出現 可能 倒塌 狀況 消防 車已 持續 針對 建案 基地 灌水 協助 穩定 地質民 進黨 台北市 議員陳怡君 第一 時間 赴 事故 現場 勘災後發布 新聞 資料 表示 附近 民眾 提晚 間 曾 聽 見 「 蹦 」 聲響 工地 緊急 疏散 工人 才 通知 住戶 說 附近 民眾 提到 此建案 動工 後 住家 就 龜裂 狀況 已 多次 向 建商 反映 但 都 無 處理 市府 主管 機關 無作 為 才 釀成 此 狀況 要求 市府 清查 受災戶 狀況並 立刻 協助 安置 台北市 信義區 崇德街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水導致 道路 地層下陷 危旁邊 民宅</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供</t>
+          <t>台北市 中山 大直街 94 巷 周邊 民宅 嚴重 塌陷 市長 蔣 萬安 強調 會 徹底 調查 建管處 處理 過程 違失 「 絕不寬 貸護 短 」 同時會 檢視 基泰 建設 台北市 建案 不合 規定 就 會 勒令停工 北市 府 成立 律師團 協助 住 戶後續 追償 蔣 萬安 今 8 日 接受 資深 媒體 人 黃 光芹 主持 節目 專訪 坦言 建管處 45 月 收到 住戶 書面 申訴 牆壁 龜裂 獲 報後派員 了解 當時 認為 與 基泰 建設 開 挖 無 直接 相關 而 當時 仍施 作連續 壁 直至 7 月 24 日才 開 挖 至於 大直 災民 安置 問題 蔣 萬安 表示 會 找 時間 了解 住戶 需求 昨 7 日 就 成立 群組 包含 民政局 社會 局衛局 等 局處 需要 領藥 開綠色 通道 至 台北市 聯合 醫院後續 會 協助 住戶 追究 責任 求償 至於 市議員陳怡 君質 疑住 戶僅 被 安置 1 天蔣 萬安 認 目前 安置 到 11 日 即刻 請觀 傳局 了解 協調 旅宿業 以 降低 大家 搬動 當然 住戶 不想 住麼 長 只要 確認 安全 無虞 就 會 讓 住戶 回去 蔣 萬安 強調將 重新 檢視 調查 事情 原委 包含 住戶 起初 提出 申訴 建管處 判斷 過程 違失 或 違法 才 導致 今天 狀況 「 絕不寬 貸絕 不護 短 」 若 發現 機制 SOP 出 了 問題 就 會 修正 蔣 萬安 提 台北 30 年 以上 老舊 建物 超過 7 成危 老 都 更案 經常 緊臨 老房子 現危 老 都 更 都 會 較 過往 開 挖 來 深 基泰 大直 就 開 挖 到 地下 3 層 故會 要求 建管處 增加 查核 頻率 尤其 地下 深開 挖 部分 要 確保 施工 安全 黃 光芹 詢問 可能 要求 任何 局處 首長 下台 或 撤 職來 負責 蔣 萬安 回應 只要 徹底 調查 發現 任何 違法 情事 或 發現 當時 處理 不 當表態 「 該換 就換 這沒疑問 」 強調 重新 檢視 後 「 需要 撤換 就 撤換 」 至於 基泰 建設 台北 尚 4 個 建案 會 要求 全面 停工 蔣 萬安 回應會 全面 檢視 基泰 建設 台北市 所建案 包含 今日 已 派員去 基泰 建設 勞檢會 檢視 相關 施工 合乎 規定 若 未 依規 就 會 依法 勒令停工 蔣 萬安 稱 北市 府 已 成立 跨局 處 一站式 聯合 服務 中心 成立 律師團 協助 住 戶後續 求償 他 下午 再度 前往 視察時 重申 要 重檢視 北市 建物 而 北市 府 會 向 建商 與 施工 廠商 追究 到底 蔣 萬安 撂 狠話 「 建商 要負 全面 責任則 未來 台北市 很 抱歉 不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子 」 而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  </t>
+          <t>大直 民宅 傾斜案 引發 全台關 注疑 因 附近 基泰 建設 開 挖 工地 導致 地層下陷 使得 197 戶 367 名住 戶 緊急 疏散 而今 8 國民 黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金 對 此 王鴻薇 下午 受訪 強調 並非 收受 政治 獻金 就 不能 監督 透露 來 自 基泰 政治 獻金 一位 從 媒體界 轉從 商前 輩 捐 贈針 對 被 指 收取 基泰 建設 政治 獻金 部分 王鴻薇 今 受訪 表示 這件 事情 民進 黨 以 為 自己 撿 到 槍 但 迴 力 鏢 馬上 就 回到 自己 身上 民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金想 請問 一下 這綠營 想 再次 示範 「 綠能 不能 」 雙標 王鴻薇 指出 上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能司 政治 獻金 雙標 但 認為 不收 政治 獻金 就 不能 監督 至於 昨被 質疑 現場 笑嘻嘻 王鴻薇則 解釋 看 全部 直播 就 會 知道 跟 大家 報告 現場 安置 狀況 但 被 截圖 文章 認為 這綠營 側翼 一貫 手法 王鴻薇 表示 要 特別 提 2 件 事 第一 基泰 建設 全部 北市 工地 都 該 停工 不然 其他 地區 里 長 很 擔心 第二 為 了 慎防 基泰 脫產今 早建議 市政府 「 代位 求償 」 此外 得知 居民 準備 組成 自救 會承諾 一定 會 全力 協助 最 重要 補償 一定 要 落實 而 不 基泰 口頭 上 說 說 而已 再 被問 政治 獻金 部分 王鴻薇則 透露 基泰 董事 長 總經理 真 都 不 認識 但 回頭 去 查 了 一下 一位 媒體 前輩去 意確 實議員 選舉 以 立委 補選時 政治 捐獻 而 由 於 捐 錢個 人要 提供 個 人 身分 證字 號司 要 提供 司 地址 等司 部分 要 查詢 虧損 虧損 就要 退款 不然 會 被 沒收 等等 而 這兩筆 政治 獻金 就 來 自媒體 前輩以 基泰 建設 為 名 捐獻 至於 外界 質疑 王鴻薇 監督 了 許多 全國 各地 之建設 但 這次 大直 民宅 不僅 選區 鄰近 以前 蔣 萬安 選區 為 何會 當選 這 8 個 月 以來 都 沒人 溝通 王鴻薇 表示 昨天 發 事情 後 立刻 跟 團隊 確認 確實 沒接 獲選民 或 議員陳情 這 方面 他們 要 努力 空間還 很多 會勤 走 基層 聽 更 多聲 音稱 很 遺憾 選民 這幾個 月 這樣 困擾 對民代來 講該 努力 就 應該 繼續 去 努力</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供</t>
+          <t>台北市 中山區 大直 民宅 疑因 附近 建案 「 基泰 大直 」 施工 不慎 整棟 下陷 建商 基泰 建設 今天 認了 「 施工 不慎 」 表示 相關責 任絕 不 推卸 會 對 受 損戶 盡 最大 慰問 協助 安置 台北 市長 蔣 萬安 上午 到 顯場 視察指 預防性 撤離 可能 再 擴大 基泰 建設 表示 台北市 中山區 「 基泰 大直 」 建案 於 9 月 7 日 晚間 因營 造廠 施工 不慎 造成 鄰房 損壞 深表 遺憾 為 維護 共 安全 已 於 第一 時間 要求 停工 同時 進行 相關 措施 蔣 萬安 表示 市府 第一 時間 就 進行 疏散 跨局 處 到場 預防性 撤離 撤離 人數 規模 大共 197 戶約 369 人 但 可能 再持續 擴 大道 明外 僑學校 操場 圍牆 裂開 教育局 緊急 確認 後 宣布 今日 預防性 停課 1 日 以策安全   登入 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 登入 讀 還不會員   馬上 註 冊   ｜   立即 搶購 看 完整 精彩 526 前成 為 年戶 就 機會 抽 最新   Macbook   Air 支持</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供</t>
+          <t>基泰 建設 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴 重安 意外 台北市 都發局長 王玉芬 今日 受訪 說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫 開 基泰 大直 連續 壁廠 商為 「 齊崴 營造 」 至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」 王則 稱 沒 看過 這份 監測報 告後續 會 要求 建商 提供 本刊 今 11 日 獨家 揭露 基泰 建設委 託 儀大 工程 顧問司 提供 北市 都 發局 7 月 26 日 監測 報告 顯示 坍塌 前 44 天監測 報告 結論 說明 一欄 中 已 明確 指出 「 部分 監測 儀器 已 超出 警戒 值 」 然而 基泰 建設 卻 未 積極 處理 9 月 照常 大規 模開 挖 最終 釀成 這起 嚴峻安 事故 對此 王玉芬 回應 昨 10 日才 收到 建商 提供 89 月 監測 報告 7 月 尚未 收到 已 要求 建商 提供 完整 監測 資料 並請 專業 技師會 判讀 如 發現 任何 違失會 將技師 建築師 等 相關 人員 移送 懲戒 媒體 追 問判讀 需要 多少 時間 王玉芬 回應 由 於 資料 應該 很多 但會用 最快 時間 得出 結論 除 25 戶重 災戶 外 其他 居民 可 返家 住 但 居民 因 安全 疑慮僅 38 戶 返回 王玉芬 稱 近期 會 召開 說 明會 由 技師會 對 所 疑慮 住戶 說 明檢測 結果 以 解除 住戶 疑慮 而 這次 共 撤離 236 戶民眾 除 25 戶 以外 撤離戶 每戶 家中 裂縫 需要 補強 會 由 技師 逐步 去 勘檢逐戶 錄去 修繕 「 我們 沒所謂 強迫 住戶 入住 南港 社宅 這都 讓 住戶 可以 自己 選擇 」 王玉芬 指出 北市 府將 於 週三 13 日召 說 明會 說 明長 期 安置 3 個 方案 包含 南港 國宅備 妥 25 戶 家具 冷氣 冰箱 等 若想 住 附近 會持續 提供 安置 旅館 最後民眾 可 自由 選擇 居住地 1 坪 補貼 1600 元 租金 此外 王玉芬 指出 今日 已 啟動 4 大技師會 對 184 處開 挖 工地 進行 嚴格 檢查 第二 波針 對 地下室 開挖 導溝 連續 壁 工程 檢查 另 對 所 工地 加強 加強 頻率 檢查 預計 每月 1 次 地下室 開挖 會 增加 檢查 頻率 而 鄰損 規則 SOP 結構 外 審規定 會 一個 整體 檢視 即刻 啟動修 法王 玉芬 強調 未來 只要 建設 司營 造廠 或 分包 廠商 相關 技師 工地 涉安 跟 鄰 損嚴 重時 就 會 全部 開資訊 包括 下 包廠 商而 今日 布 「 基泰 大直 」 下 包連續 壁廠 商為 「 齊崴 營造 」 「 一個 都 不要 跑掉 讓 大家 可以 避開 雷區 」</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  </t>
+          <t>北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案 基泰 建設 昨 10 日證 交所 召開 重訊會 董事 長 陳 世銘 道歉 後 宣布 請辭 負責離 去 北市 議員 王世堅 指出 從 監測 資料 判斷 基泰 大直 連續 壁施 作後保養 期間 就 已 出現 監測 數據 異常 基泰 仍選擇 繼續 開 挖業 「 不 確定 故意 」 釀成 大禍 今 11 日 上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂 王世堅 說 基泰 大直 這類 建案 依規定 進行 深開 挖 工程 前建商 必須 安裝 監測 系統 並錄 每日 施工 導致 各種 建物 馬 路 位移 等 情況 依照 議員陳怡君 會勘 紀錄 附近 居民 檢舉 已 8 個 月 市府 卻 一再 回應 安全 無虞 從 監測 資料 就 可 推斷 市府 回報 行政 怠惰 瀆職 或 疏 於 監督 「 建商 老 闆 起造 人出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人 」 王世堅 說 基泰 董事 長 陳 世銘 昨天 請辭 擺明 就 只 想 用 民事 賠償 解決 不想 負 刑事 責任 他 今天 將赴 北檢加告 殺 人 未遂 就 希望 檢方 要 儘 快 蒐 證 確 保 事件 發時 起造 人應 負起 完全 責任 不能 出 了 事 就 落 跑</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  </t>
+          <t>台北市 中山區 大直 民宅 塌陷 案 基泰 建設 總經理 馮勉 委屈 地稱 事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊 對 此 李 四川 今 受訪 還原 真相 馮當 晚確 現場 但 當晚 後 就 沒見 到 馮到 現場 關心還 一度 失聯 找 不到 人談 相關後續 事宜 李 四川 今 11 日 接受 媒體 人王 淺秋廣播 專訪 千秋 萬事談 基泰 建設 董事 長 陳 世銘 昨 10 日快 閃離 開會 一事 直言 碰到 問題 只能 面對 不能逃避 至於 基泰 總經理 馮勉聲 稱 一直 現場 李 四川 則還 原事 發當天 7 日 晚間 抵達 現場 後 一直 處理 救災 灌水 任務 最後因 灌水 速度 不 搶 救 他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去 李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 事情 們 負責人 沒 現場 只 一個 主任 這 」 而 工地 主任 才 回應 「 我們 總經理 站 旁 邊邊 」 李聲 稱 當下 自己 不 認識 馮且 之 後 沒見 到 馮 直至 9 日救災 告一段落 需談 安置 時尋找 基泰 建設 祕 書要 馮來 談 一談 結果 馮 卻 沒接 電話連 祕 書 找 不到 馮他 才 會 媒體 前 嚴厲 譴責 基泰 李 四川 回憶 說 道 直至 10 日 上午 才 聯 繫 到 馮 勉 雙 方 約 好 9 時 30 分到 台北市 政府 開會會 同 法制局 後 達 成後續 3 點承諾王 淺秋詢 問發 事故 當晚 工地 主任 介紹 馮勉 後 馮無過 來 稍微 討論 一下 發什麼 事 還馮 就 旁邊 像 個 路 人 一樣 圍觀 李 四川 回應 馮勉 過來 打招呼 說 自己 總經理 但 沒談 任何 相關 事宜 李 四川 提當天 搶 救 緊急 過程 當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散 聽到 消防局 回報 工地 一直 傳出 「 啪啪 啪 」 聲音察覺 不妥 後 就 要求 立即 消防局 疏散 住民 同時 詢問 單號 住戶 對面 無 房子 間 隔 獲得 對 面還 一排 雙號 住戶 因此 當下 就 下令 對面 要 依法 全部 撤離 並請區 所 找到 實踐 大學行 安置 李 四川 當天 到 現場 約 22 時當時 單號棟 已 稍微 傾斜 但 未 沉下去 立即 要求 消防局 衛工處 水處 全部 灌水 看能 不能 讓 基地 平衡 不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短 他 就 要求 全部 站 旁邊 人 全部 快 疏散 李 表示 他 現場 約 40 分鐘後因 灌水 無法 讓 基地 平衡 眼睜睜 看著 房子 沉陷 垮掉 就 等同 連續 壁 全部 斷掉 緊急 改為 灌漿 處理 李 四川 提 退休 後 又 重新 回到 北市 府 工作 很多 市政 幾乎 都 不 陌不過 比較 麻煩 極端 氣候 響 市區 很多 側溝 設計 無法 承受 近來 豪 大雨 若 「 用 工程 技術 去 追 」 不斷 投入 資源 改善 怎樣 都 無法 追上 老天 給挑 戰舉 例豪 大雨 對 一些 老舊 低窪 社區 市府 要 想 辦法 減災 這他 回到 北市 府 任職 最大 考驗</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   應 全面 檢視   會先 就 老舊 管線 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 表示   信義區 案例   主要 因為 旁邊 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處   地面 上 施工   如果 發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  </t>
+          <t>基泰 建設 新建 案 「 基泰 大直 」 日前 因 施工 不慎 導致 台北市 中山區 大直街 鄰近 民宅 傾斜 倒塌 甚至 發 建物 下陷 情形 北市 府上 月 26 日 進行 拆除 下陷 建物 作業 本月 1 日 進行 單號 受災屋 拆除 工作 不過 民代今 17 日 臉書 爆料 週邊 雙號 受災戶 惡夢還 沒 結束 15 日竟 出現 房子 撕裂 碎石 掉落 聲且 門外 溝壁 破裂 下陷 情形 經 會勘 確認 「 下陷 累積 7 分 」 台北市 議員陳怡 君今 稍早 臉書上 透露 大直街 5 民宅 危樓 已經 拆除 但 對面 雙號棟 卻 上 週日 15 日 某 住戶 聽聞 房子 撕裂 碎石 掉落 聲且 門外 溝壁 破裂 下陷 情形 經現場 會勘 後 確認 「 累積 下陷 約 7 分 」 陳 怡君 表示 雖結構 技師 現場 判定 無 立即 性 危險 該 狀況 為 「 地面 下 無 地基 對面 單號 拆 危樓 」 所導致 地下 土壤 遭擾動 因此 下陷 強調 雖 判定 暫無 立即 性 危險 建管處 多 設點 觀察 但 還讓 民眾 住 得 心驚膽 跳陳怡 君無奈 認為 基泰 建設 不只 造成 重災戶 無家 可 歸 讓 鄰房 住 得 不安 穩 雖然 市府 還統計 周遭 鄰房 同意 辦 都 更 但 不能 避免 辦 都 更 前民眾 仍 隨時 處 於 驚 恐狀態 下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌 無法 安心 入住 陳 怡君 指出 因為 雙號 建物 下陷 狀況 溝壁 破損 不堪 而 基泰 旁邊 正 施工 其他 建案 基地 令民眾 害怕 房子 不堪 一擊 再次 嚴重 損鄰 陳 怡君 提出 問題 損鄰 報告 房屋 安全 鑑定 以 透地雷達 出來 前 鄰近 工地 施工 若 再次 造成 民房 受損 恐怕 更難 釐 清損 鄰責任</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  </t>
+          <t>前才 發 竹北 天坑 事件 新竹市 平路 20 巷今 21 天 下午 突然 出現 天坑 大約 一輛 車面積 根據 了解 天坑 旁一個 建案 目前 已經 挖 到 地下 三樓 新竹市 府 說明 今日 下午 13 時 35 分許 消防局 受理 平路 出現 道路 地基 下陷 情形 消防局 派員到 場後發現 道路 明顯 傾斜 並伴 隨 瓦斯 異味 隨即 通報 都 發處 工務處 自來 水司 瓦斯 司等 單位 前來 搶修 勘查 市長 高虹安 隨後親 自到場 關心 了解 狀況 聆 聽 周邊民眾 心聲 要求 廠商必 須 儘 速 完成 改善 並確 保 居民 居住 安全 市府 指出 現場 工地 依規施 打 預壘 樁 擋 水樁 工法 沒 問題 疑似 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 如 民宅 開始 傾斜 情形 應 進行 預防性 撤離 另 已確 認自來 水破管 位置 並 完成 修 復 回填 將持續 觀察還 造成 洩漏 情形 避免 地層 再次 下陷 市府 進 一步 指出 本案 因違 反建築法 第 63 條都 發處 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各三萬元 並視後續 情況 再行 論處</t>
         </is>
       </c>
     </row>
@@ -991,147 +991,667 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  </t>
+          <t>新竹市 平路 20 巷 昨 下午 驚見 「 天坑 」 市府 獲報 到 場確 認平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線 瓦斯 管線 洩漏 導致 地層下陷 多名 民代 要求 強化 安全 檢測 市長 高虹安 昨 要求 建商務必 盡速 完成 改善 市府 並 勒令 承造 人 立即 停工 依法 裁處 改善 完成 無虞 才能 復工 市府 表示 昨 下午 13 時 35 分多 消防局 受理 平路 出現 道路 地基 下陷 還伴 隨 瓦斯 異味 相關 單位 都 獲報 搶 修 由 於 近期 接連發 竹北 天坑 基泰 大直 工地 事故 平 路 附近 居民 人心惶惶 時代 力量 立委 邱顯智 市議 員林 彥甫 說 要求 建商確 保相關 支撐 才能 復工 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次 國民 黨市 議員黃 美慧 認為 未來須 全面 將 瓦斯 自來 水管 線 更新 同時須 工地 周邊 建築安裝 警示 裝置 確保 居民 安全 市府 指出 該 建案 工地 下 挖 到 地下 3 樓 依規施 打 預壘 樁 擋 水樁 但 疑似 為 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 指出 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 後 續 將持續 觀察 自來 水管 還 造成 洩漏 由 於 施工 造成 地層下陷 都 發處將 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各 3 萬元 並視後續 情況 再行 論處</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  </t>
+          <t>新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 凹陷 面積 約 1 見方 雖然 緊急 灌漿 回填 但 今天 又 發現 巷 另 處 凹陷 下沉 由 於 一旁 不到 3 緊鄰 20 多戶 住戶 引發 住戶 擔憂 「 整夜 睡不著 」 民代質疑 工法 問題 未來 恐繼續 塌陷 市府 都 發處 指出 昨天 已 勒令 建案 停工 裁罰並 要求 廠商 進行 加固 支撐 灌漿 作業 自來 水司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線之後將 觀察 管線 狀況 再 重鋪 路面 現場 將加裝 傾斜儀 24 小時 檢測 預警 以確 保住 戶 安全 為 最大 前提 據 了解 該 建案 基地 正下 挖 到 地下 3 層頻 繁重 車進 出前 就 人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫 昨天 則開始 出現 道路 地層下陷 還伴 隨 瓦斯 異味 讓 周邊 住戶 相當 害怕 就 怕 上演 基泰 大直 工地 事件 竹 市府 指出 地層下陷 疑似 為 建案 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市議員陳慶齡 熟悉 建築 營造 工程 他 說 該 建案工 地位 於 沙地 正下 挖 地下室 懷疑 打 基樁 過程 不夠 密實 導致 基地 旁 道路 沙土 不斷 流失 流進 地下室 才 會 造成 道路 沈陷 如果 沒 妥善 處理 未來 還會發 道路 沈陷 可能 平路 20 巷住 戶 約 20 多戶 居民 無奈 「 不敢 休息 」 擔心 瓦斯 味 很 重萬一 爆炸 怎麼 辦 平常 只 兩 老住 這 而已 半夜 已經 沒法 入睡 眼看 住家 旁建案 工地 才 剛蓋 未來 至少 還要 辛苦 兩 三年 希望 好 偵測事 預防則 出事 就 麻煩 了 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  </t>
+          <t>新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室 未料 前天 發 基地 旁 道路 下方 自來 水管 線 瓦斯 管線 洩漏 連帶 造成 平路 20 巷 地層下陷 由 於 「 天坑 」 填平 後 今天 又 他 處 塌陷 竹 市府 下午 成立 前進 指揮 所 市長 高虹安 提出 8 點 指示 包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時回 報確 保當 地 安全 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層 前天 竟釀 緊鄰 巷弄 道路 下陷 後 被 市府 勒令停工 不過 因為 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 會勘 高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所並 要求 廠商 與 消防局 警察局 都 發處 民政 處產發 處區 所 立即 派員進 駐 下午 4 點半高虹 安會同 土木 技師 等 四大 專業 技師會 民富 里 沈朝 旺里長 聽取 簡報並 了解 居民 訴求 高虹安 今晚 臉書 發文 說 明針 對 此案 已下 達 8 項 指示 包含 責成 消防局 工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 司 明天 立即 進場 全面 開 挖汰 換成 最新 管線 因無法 同 時汰換 兩種 管線將 依序 後 汰 換自來 水 與 瓦斯 管線 由 於 傾斜計 監測 數值 逼近 警戒 值高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報 要求 消防局 會同 民政 處 社會處 研擬 若事態 進 一步 擴大時 緊急 撤離 與 安置 措施 並預 準備 明天 開始 於 管線汰換 與 相關 改善 工程 期間 要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用 要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛 竹光 國民 運動 中心 免費 開放 居民 盥洗 使用 高虹安說 確認 改善 完成 前 要求 災害 應變 前進 指揮 所 全天候 開設 隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題 於 管線汰換 與 相關 改善 工程 期間 要求 警察局 好 周邊 交通管制 確保 對 當地 交通 衝擊 降到 最低 高虹安說 今天 現場 與 當地 居民 溝通 與 聆 聽 心聲並 一一 錄 要求 廠商 與 局處 盡 全力 處理 強調 市府 團隊 一定 各位 最大 靠山 不僅會 要求 廠商 負起 責任 完成 改善 並經 確認 安全 無虞 之前 不得 進行 除了 安全工程 以外 其他 工程 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍 新竹 市長 高虹安 今天下午 到 平路 20 巷 了解 居民 心聲 圖竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況 圖竹 市府 提供 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持</t>
+          <t>新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 還自來 水洩漏 瓦斯 異味 飄散 情形 引起 住戶 疑慮 雖然 天坑 處緊 急 回填 但 仍 持續 他 處 下陷 建物 傾斜計 監測 數值 逼近 警戒 值自來 水司將 於 明天 起汰換 上百 老舊 自來 水塑膠 管線 市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形 新竹市 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層未料 前天 竟釀 緊鄰 巷弄 道路 下陷 由 於 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 了解 確認 工地 與 道路 下陷 情形 據 了解 前天 發平路 20 巷 「 天坑 」 事件 後 建商 取得 住戶 同意 20 巷前 中後段 設置 建物 傾斜計 監測 傾斜 情形 今天 最新 測得 最大值 每秒 387 已經 接近 每秒 413 警戒 值 由 於 平路 20 巷 仍 道路 下陷 漏水 情形 今天 緊急 加裝 關水閥 處理 建案 營造 商工 務經理 黃 姓 經理 說 建案 地質 為 砂質 帶 土下 挖 施工 採鑽掘 方式 進行 強度 類似 連續 壁 工法 但蔽 體開 挖 壓力 造成 基地 外側 道路 部 土壤 位移 加上 巷老舊 自來 水管 線 破裂 漏水 導致 土壤 泥沙 流失 進而 造成 地層下陷 水 流入 基地 由 於 平路 20 巷約 340 戶 民宅 民富 里里長 沈朝旺 說 住 戶 都 擔心 房子 會 塌陷 不要 等到 真正 傾斜 就 來 不了 希望 相關 單位 告監測 數據並 加快 自來 水 與 瓦斯 管線汰換 自來 水司 明天 將進場 開 挖汰換 鑄鐵管 盼 建商 同步 處理 好 地基 「 各項 資訊要 更 透明 讓 住 戶們 安心 」 楊姓 住戶 說 他 巷 住 了 20 年 其他 老住 戶 更 住 了 40 多年 大家 都 擔心 道路 下陷 擴大 希望 檢測 資訊 更加 透明 因為 他們 肉眼 看不到 傾斜 程度 很 需要 科技 儀器 來 幫忙 監測 數據 要 開 讓 住 戶 都 了解 由 於 建案 工地 旁不斷 道路 下陷 建案 自行 組成 應變 中心 應變 中心 代表 允諾 已 經協調 明天 自來 水司 進場 換管 加派 人力 前後分頭 施工 情形 下能 7 天汰管 完成 預計 10 月初 再換 瓦斯 管線 若 傾斜計 監測 到 了 警戒 值將 安置 住戶 入住 旅館 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 明天 將進 場汰換 老舊 自來 水管 線 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    </t>
+          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工 施工 路線 為 中 土城 交通要道 讓 原 交通 更塞 而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除 卻 將延長 3 年 才 要 拆除 恐將 響拉長 另 議員 發現 萬大線 施工 造成 約 60 戶 民宅 出現 地層下陷 牆面 龜裂 等 鄰損 要求 新北 捷運局 加速 處理 新北 捷運局 表示 已 邀北捷 局里 長 民眾 現場 說明 目前 並無 地層下陷 問題 市議員陳錦錠 表示 新北 中區 連城路 因捷 運萬大線 施工 造成 尖峰 時刻 壅塞 且 第一期 LG06 土建工程 圍籬 原定 年底 拆除 卻 延長 三年 後 才 要 拆除 再 加上 萬大線 施工 造成 約 60 戶 民宅 出現 地層下陷 牆面 龜裂 磁磚 破損 等 鄰損 新北 捷運局 應 盡快 提出 改善 方案 避免 鄰損 擴大確 保民 眾 居住 安全 對此 新北 捷運局 表示 萬大中線 目前 計畫 進度 達 7 成為 紓 解 施工 交通 瓶頸 台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道 預計 明年初 陸續 展開 道路 回填 復 舊 作業 逐步 縮 減圍 籬範圍 緩解 壅塞 情形 至於 鄰損 部分 新北 捷運局 表示 9 月 28 日 邀北捷 局里 長 民眾 現場 說 明關 於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良 現場 立刻 要求 廠商 當天 下午 進場 處理 另 住戶 反應門 窗磁磚 不易 正常 使用 部分 北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理 「 後 續若涉 鄰損 鑑定 北捷局 已承諾將 依相關 規定 辦理 目前 並沒 地層下陷 問題 」 新北 捷運局 長 李政安 表示 會 要求 北捷 局縮 短 工程 不能 任意 延長 新北 捷運 局局 另 指出 LG06 中站 連城路 75 巷為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程 屬契約後續 變更 擴充 工作 因開 工時程 較 晚且 位 於 路側 並不響 連城路 道路 回填 復 舊 期程 不會 造成 交通 壅塞 狀況 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷 局里 長 民眾 現場 說明 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良 已 要求 廠商 當天 下午 處理 另 住戶 反應門 窗磁磚 不易 正常 使用 部分 北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理圖 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供 民眾 反映 萬大線 施工 造成 住家 出現 地面 出現 高低 落差 圖陳錦錠 服務處 提供 民眾 反映 萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差 牆面 龜裂 磁磚 破損 等 鄰 損圖 陳 錦錠 服務處 提供</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  </t>
+          <t>捷運 萬大線 目前 整體 施工 進度 已近 七成 台北市 捷運局 表示 如火如荼 趲 趕中 中站 地下 段 工程 均 依照 規定 施工 定期 監測 目前 沒 地層下陷 問題 捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍 以 緩解 交通 壅塞 負責 施工 台北市 捷運局 一工處 說 明日 前接 獲 施工 路段 住戶 反映 牆面 龜裂 磁磚 破損 等 情形 已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明 一工處 說 已 了解 建物 狀況 將依 會勘 共識 積極 與 住戶 協調 處理 並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修 繕後續 若涉 需鄰 損鑑 定將 按照 規定 辦理後續 一工 處進 一步 指出 近年 因受 疫情 整體 營造 環境 不佳響 致使 中站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊 但 一工 處將 滾動式 檢討 工序 儘 可能 提早 完成 道路 復 舊 還路 於 民以 減少 對民眾 周邊 交通 響</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  </t>
+          <t>旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪 大 高雄 地區 民用 水主動脈 枯水期 間 地下水 主要 供水 區域 如何 永續 地下水 資源 當前 重要 課題 經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游 設置 地下水 補注區 112 年 已 設置 約 11 處 總計 460 頃評 估 一年 補注 將近 1400 萬噸 補 注量 地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤 讓 水流 受阻 流速 變慢 增加 滯水範圍 讓 更 多水 滲入 地下 當 抽取 完 地下水 後 透過 自然 入 滲補注 就 能 讓 地下水位 快速 回 復 平常 水位 以上 使 地下水 源 得以 永續 1960 年代 起 台灣 引進 地下水 鑿井技術 台灣 西 半部 沿海 養殖 漁業 盛行 大量 地超 抽 地下水 使得 地層下陷 海水倒灌 土壤 鹽化 等 問題 層出 不窮關 高雄 運用 地下水 資源會 造成 地層下陷 水利 署透 過長 期監 控出 釋疑 經濟部 水利 署 水文 技術 組科長 吳 明哲 表示 高屏溪 沿岸 屏東 平原 地下水 區 主要 以砂礫 石層 為 主礫石 跟 礫 石之間 顆粒 地下水 時候 不會 壓密行 為 地下水 一旦 下降 因顆 粒 與 顆粒 支撐 不會產 壓密 沉陷 另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗 模擬 高雄 地區 砂礫 石層 抽水 情況 證明 砂礫 石層 比較 不會 出現 地層下陷 民眾 不必 過度 擔心 經濟部 水利 署 南區 水資源局 副 局長 何達夫 說明 軟礫 石層 跟 粘土 層 不 一樣 粘土 層 抽水 後 會 下陷 但 軟礫 石層 一個 石頭 接著 一個 石頭 把 石頭間 水 抽掉 抽走 得 很快 補充 非常 快不會 地層下陷 問題 專家 強調 只要 不過度 超 抽 加上 嚴密 監測 就 不必 擔心 地層下陷 學呼籲 豐水期 應多加 利用 地下水 不僅 能夠 避免 水資源 浪費 還能夠 防洪 減災 高屏溪 擁豐沛 地下水 資源 從 鑿 井 取水 到 地下水 補注 不僅 讓 水資源 得以 永續 成為 高雄 地區 對 抗旱 象 關鍵 利器</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">基泰 建設 新建 案   基泰 大直   日前 因 施工 不慎   導致 台北市 中山 區 大直 街鄰 近 民宅 傾斜 倒塌   甚至 發生 建物 下陷 情形   北市 府上 月 26 日 進行 拆除 下陷 建物 作業   本月 1 日 進行 單號 受災屋 拆除 工作   不過 民代今   17 日   臉書 爆料   週邊 雙號 受災戶 惡夢還 沒有 結束   15 日竟 出現 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經 會勘 確認   下陷 累積 7 公分     台北市 議員陳怡 君今 稍早 臉書上 透露   大直 街 5 民宅 危樓 已經 拆除   但 對面 雙號棟 卻 上 週日   15 日     某住 戶 聽聞 房子 撕裂   碎石 掉落 聲   且門外 溝壁 破裂 下陷 情形   經現場 會勘 後 確認   累積 下陷 約 7 公分     陳 怡君 表示   雖結構 技師 現場 判定 無 立即 性 危險   該 狀況 為   地面 下 無 地基   對面 單號 拆 危樓   所導致 地下 土壤 遭擾動   因此 下陷   強調   雖 判定 暫無 立即 性 危險   建管處 多 設點 觀察   但 還是 讓 民眾 住 得 心驚膽 跳   陳 怡君 無奈   認為 基泰 建設 不 只是 造成 重災戶 無家 可 歸   讓 鄰房 住 得 不安 穩   雖然 市府 還在 統計 周遭 鄰房 是否 同意 公辦 都 更   但 不能 避免 是 公辦 都 更 前   民眾 仍 隨時 處 於 驚 恐狀態   下雨 地震 再次 施工 都 讓 鄰近 住戶 感到 恐慌   無法 安心 入住   陳 怡君 指出   因為 雙號 建物 下陷 狀況   溝壁 破損 不堪   而 基泰 旁邊 正在 施工 其他 建案 基地   令民眾 害怕 房子 不堪 一擊   再次 嚴重 損鄰   陳 怡君 提出 問題   損鄰 報告   房屋 安全 鑑定   以及 透地雷達 出來 前   鄰近 工地 施工   若 再次 造成 民房 受損   恐怕 更難 釐 清損 鄰責任  </t>
+          <t>順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站 從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊 排列 整齊 錯落 其中 靠近 一看 才 發現 這 一根 根 打入 地底下 水管 稱為 抗旱 水井 高雄市 政府 水利局 表示 所謂 抗旱 水井 抽取 深層 地下水 從 地表 往下 150 米 深透 過 抽水 設備 將深層 地下水 經由 抗旱 水井 取出 相較 於 海淡廠 再 水 等等 取水 更為 快速 成本 更 低 供水量 更大 地下水 成為 抗旱 期間 關鍵 水源 類似 抗旱 水井 已 高雄 陸續 開鑿 110 座 每日 供水量 將近 35 萬噸 雖然 穩定 水情 但 大規模 鑿 井 卻 讓 當地 農民相 當憂 心會 剝奪 農業 用水 對此 專家 解釋 抗旱 水井 取用 深度 達 100 到 150 深層 地下水 與 一般 深 20 到 40 間 淺層 地下水 農業 灌溉 井 含水 層 不同 且 兩間 還阻 水層 相互 阻隔 因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產響 水利局 局長 蔡長 展 指出 抗旱 水井 備 援用 水 使用 時間 大約 每年 3 月 至 5 月 藉由 雨水 對 地下水 進行 補注 對 農業 灌溉 用水 不 受響 根據 地下水位 監測 資料 顯示 112 年 1 月份 地下水位 高點 落 14 接著 隨著 枯水期 到 來 地下水位 5 月份 降到 了 大約 6 隨後迅 期到 來 開始 降雨 加上 高雄市 政府 與 水利 署 合作 推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫 增加 地下水 量 使得 9 月份 地下水位 上升 到 16 足足 比 枯水期 高出 了 10 甚至 高 於 1 月份 水位 枯水期 嚴密監 控視 情況 抽用 豐水期 加強 地下水 補注 能夠 達 到 水資源 永續 發展 目標 經濟部 水利 署 副署 長 林元鵬 說明 高雄 地區 總共 11 口觀測 水井 所 水井 都 會 進行 管控 只要 效地 去 管控 數據 地下水 高雄 地區 可以 當作 一個 安全 用水 嚴密監 控確 保不會 造成 地層下陷 響 水源 保育 情況 之下 短期 備援 抗旱 水井 不僅成 了 抗旱 功臣 賦予 地下水 資源 更 多元 運用 可能</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  </t>
+          <t>聯合 報陽光 行動 專題 報導光 電進 駐 屏東 種電 範圍 遍 農地 山區 到 文資 價值 二戰 遺跡 造成 家園 地景 地貌 變遷 衝擊 老 農計變 相迫 遷青農 更 被 地方 形為 「 惡鄰 」 產蛇鼠 與 害蟲 提升 鄰田 管理 困難度 還潛藏 糧食 危機   縣府 環保局 長 顏幸苑 表示 光電不會 無限 擴張 目前 種電 專區 仍 約 3 千頃 可 耕作 並專案 輔導業 除草 一定 會 兼顧 農業 永續 發展 顏幸苑 表示 台電饋 線 上限 規定 目前 既電力 設施 併 網 上限 下 限度 推動 光電 專區 不會 無 限制 使用 農地 種電 而 東港鎮 林邊 佳冬 枋寮鄉 等 4 鄉鎮 專案 截至 去年底 共 併 網約 3 百 兆瓦 光電 該區 農地 總面 積約 3800 頃 至少 還約 3 千頃 面積 可 農作 使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成 強調 從 未 要求 廠商 提供 「 不利 耕作 同意 書 」 或 其他 不 平等 條約 相關 文件 針對 部分 地區 爭議 案件 未 取得 居民 同意 之前 皆 已 要求 業 停止 施工 另太陽能 案場 並無 食物 來源 應 非屬 引來 老鼠 主因 目前 已 要求 專案 輔導業 定期 進行 除草 維護 周遭 環境 整潔 指出 屏東 綠能 推動 政策 以 「 專案 專區 計畫 」 「 土地 複 合式 利用 」 等 2 大 策略 為 優 限度 使用 相對 不 適合 耕種 土地 發展 綠能 提供 給 地主 農民階段 性 活化 土地 新選擇 對 於 無力 管理 田間 工作 又 土地 鹽化 等 不利因素 無法 耕作 年 邁老 農則 可以 穩定 收入 過 退休 活 至於 非 專案 專區 鄉鎮則 優鼓勵 廠 商以 「 土地 複 合式 利用 」 方式 利用 既 設施 結合 太陽光 電設 施效 利用 共空間 屏 縣府 綠能 辦室 表示 尊重 私 地主 處置 自家 土地 財產業 依法 申請 案件 權利 相關 審查 過程將 審慎 關注 山坡地 耕作 農地 歷史 遺跡態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等議 題並 要求 廠商 提出 因應 作為 以 避免 衍爭 議性 問題 兼顧 開發 合理性 維護 本縣 農民 耕作 權益利 能源 表示 屏東 枋寮 案場 合法 開發 於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後 隨即 保留 並主動展 開一連串 文資 保護作 為 並無二戰 槍堡 被 挖除 等 情事</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  </t>
+          <t>〔 屏東縣 政府 於 東港 林邊 佳冬 枋寮 4 個 沿海 鄉鎮 劃定 「 嚴重 地層下陷區 光電計畫 」 專區 為 確保 農民 耕作 權不過 近來坊 間質 疑聲 浪漸 漲 環保局 強調 該區 計畫 發電量 為 800MW 百萬瓦 不會 無 限制 擴張 因此 至少 會 仍 3000 頃 以上 農地 可供 農作 地面 型 光電場 成為 選戰 攻防 議題 屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案 成野黨 攻 詰 對象 近期 坊 間 又 再 傳出 農民因 種電 失去 農保老 農退場 又 留不住 青農蛇鼠 窩 藏 副作用 等 爭議 屏 縣府 環保局 指出 這 4 鄉鎮過 去 因超 抽 地下水 曾列 為 嚴重 地層下陷區 現 仍屬 第 12 級 地下水 管制 區且 海水 上溯 下許 多 土地 都 已 出現 鹽化 不少 已 不利 耕地 多年 因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既電力 設施 併 網 上限 條件 下 限度 推動 光電 專區 預計 發電量 為 800MW 環保局 指出 部分 農地 轉作 太陽光 電後減 少 農民 抽取 林邊 溪 下游 地下水 需求 並 搭配 上游 設置 大 潮州 人工湖 補注 地下水 減緩 地層下陷 達到 國土 復 育產業 永續 發展 目而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後 「 養水 種電 」 到 近 2 倍 單 一片 就 可 發電達 400w 以 目前 併 網約 300MW 太陽光 電裝 置量 使用 農地 比例 約 250 頃 左右 未來 達 到 目標 單位 發電量 更大下 所 需面積 比例 一定 更 小 至少 會 3000 頃 以上 農地 可供 農作 使用 另外 對 於 無力 管理 田間 工作 又 土地 鹽化 等 不利因素 無法 耕作 年 邁老 農則 可以 穩定 收入 過 退休 活 至於 農保 問題 環保局 重申 農地 若意願 出租 供 人 種電 一定 要 進行 變更 地目 但 這 完全 基 於 地主 利用 土地 意願 權益 縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件 前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡告 於 縣府 綠辦 官網 讓 地主 了解 相關 權利 與 義務 只要 民眾 對 合約疑 問均 可 撥 打 專線 電話詢 問綠能 專案 推動 辦室 針對 部分 地區 爭議 案件 未 取得 居民 同意 之前 縣府 已 要求 業 停止 施工 蛇鼠 患 問題 縣府 環保局 長 顏幸 苑則 認為 作物 收成 期間 食物 充沛 易 引鼠 鳥禽 覓 食 但 太陽能 案場 並無食源 應 非屬 引鼠 主因 縣府 要求 專案 輔導業 維護 周遭 環境 整潔 至於 選址 不當 縣府 重申 屏東縣 綠能 推動 政策 以 「 專案 專區 計畫 」 「 土地 複 合式 利用 」 兩大 策略 為主 專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能 專案 專區 外 鄉鎮 優鼓勵 結合 既 設施 與 光電 「 複 合 利用 」 方式 屏東縣 環保局 表示 民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視 縣府 尊重 私 地主 處置 自家 土地 財產 以業 依法 申請 案件 權利惟 審查 過程將 審慎 關注 山坡地 耕作 農地 歷史 遺跡態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等議 題並 要求 廠商 提出 因應 作為 以 避免 衍爭 議性 問題 兼顧 開發 合理性 維護 本縣 農民 耕作 權益</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影</t>
+          <t>從國道 三號 林邊 交流 道下 來光 電場 廣告 映入 眼簾 從 大馬路 旁到 鄉間 農田光 電板 無 所 不 這 屏東 沿海 地區 這幾年 興起 違 景致 全 台 種電 縮地 青農批 政府 業聯手 種電 種到 失心 瘋 從 農地 山區 到 文資 價值 二戰 遺跡 都 不放過 不僅家園 變貌 迫使 老農離 農變 相迫 遷青農 屏東 農地 種光 電原 全台 濫觴 典範二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量 造成 中南部 嚴 重水 災重 創 屏東 南部 沿海 鄉鎮 不少 魚塭 果園 被 沖 毀時任 屏東縣 長 曹啟 鴻 提出 「 養水 種電 」 計畫 縣府 媒合 魚塭 農地 租給 光電業 地主 負責 管理 地主 按 月 收 地租 管理 費綠電賣 給台 電能 涵養 地下水 減緩 下陷 一舉 數得 屏東 種電   侵蝕 農地   製 表 都 會 地方 中心 農業部 前身 農委會 二 一 三年 修法 允許 不適 耕作 農地 種電 大開 種電 之門 但 農地 非農用 罵 聲不斷 二 一 八年 十月 起屏 縣府 告實施 「 嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」 開放 下陷區 農地 可 變更 種電 二 二年 七月 農委會 加嚴 農地 變更 種電 門檻 二 到卅頃 農地 變更 要 由 中央 審查 兩頃 以下 原則 不 同意 變更 種電 但 早二一 八年 屏東縣 長 潘孟安任 報請 行政院 同意 把 東港 林邊 佳冬 枋寮 四鄉 鎮畫 為 嚴重 地層下陷區 作光電 專區 成為 特例 四年 多來 屏東 種電 發展 快速 原本 立意 良善 光電 如今 變成 農民 陰霾 枋寮 女青農 張靜玉 說 為 衝高 綠電 占 比 種電 已種 到 失心 瘋不該 種電 地方 都 被 光電板 占領 很多 農民 被 業遊 說簽 「 不利 耕作 聲明書 」 離農 坐收 光電場 租金 但 這些 農地 都種 著蓮霧 水稻 芭樂何 來 不利 耕作 「 沿海 四鄉 鎮美麗 鄉間 景致 丕 變綠地 逐漸 蒸發 」 屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說 綠地 果園 被 一塊 塊 光電板 取代 像 貼 狗皮 膏藥般 醜陋 不但 壓縮 農業 空間 光電板 遮陽 廿年 農地 將 失去 地力 衝擊 農產業 服務鏈 受益 少數 地主 受響 多數 農民 整體 農業將 衰退 屆 時 想 回頭 搶 救 就 難 了 屏東縣 府 綠能 辦室 表示 沿海 四鄉 鎮持續 下陷 列 第一二 級 地下水 管制 區縣 府 把 四 鄉鎮 部分 農地 轉作光 電場 搭配 上游 補注 地下水 減緩 地層下陷 創造 地主 業 政府 全民 與 綠能 「 五贏 」 前年 已達成 綠電供 應 全縣 民用 電階段 性 目標</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影</t>
+          <t>屏東 光電場 熱區 之一 正 上演 光電板 與 農民 搶 地爭 奪戰光 電業 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電 租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀 斬斷 兒子 想 當青農 接班 願望 青農 自嘲 說 政府 寧可 把 地租 給業 種電 不給 老 農一畝 田維 青年 若當 「 漂鳥 」 回農村 肯定 變走 投無路 「 落翅仔 」 五十六 歲 鄭明偉 林邊 佳冬鄉 租下 三座 蓮霧園 他 說 兩座 花 了 十多年 整理 收成 正漸 入 佳境 地主 竟 收回 種電 他 只能 忍痛 放棄 由 於 種蓮霧 要 手把手 長 期培養 技術 正念 農校 兒子 雖心 接手 但 他 勸 兒子 算了 最好 另謀 出路 農民控 國產署   為 賺 更 多 租金 屏東 沿海 不少 國財產 署名 下新 地被 農 民用 於 種田 六十三 歲 楊寶秀 枋寮 寮 段種 芭樂 無奈 說種 芭樂近 四十年 繳 用地 補償 金給 國產署 一直 相安 無事 近年 數度 送件 申請 合法 承租 都 被 拒 絕後來 光電業 芭樂園 貼 告示 已 承租 種電 要 農民早 搬 離國產 署則 回覆 因 地層下陷 不利 耕作 要 轉作光 電場 六十多 歲 呂姓 老農靠 這片 三分 地蓮霧 園維 他 說 國產署 明知 老農靠 種蓮霧 養家寧 可租給 光電業 賺 更 多 如果 沒地 可種 「 我 不但 要 吃 土連 農保 都 沒 了 」 面對 農民 控訴 國產署 南區 分署 屏東 辦室 指出 光電業 依法 種電 並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物 占用 繳 使用 補償 金 但 他們 本 就 沒 合法 使用 權 林邊 佳冬 枋寮 「 蓮霧 之 鄉 」 美名 四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園 他 感嘆 近年 光電大舉 入侵 正 侵蝕 果農 維 繫 傳 統 產 業 所 努力 他 說 蓮霧 老農因 子女 無意 接手 只好 租地 給光 電商 果園 地主 刻意 抬高 租金 逼退 承租 農一塊 塊 果園 被 光電場 取代 包圍 整體 產量 正持續 下降 衝擊 採收 包裝 運銷 等 產業 鏈 未來 工人 更難 找 材料 更貴務 農條件 就 更 差 農地 租金 上漲   加速 產業 衰退 陳 呈祥 說蓮霧 產業 衰退 人口老化 缺工 等關 雖 不能 全歸責 光電 但 確實 造成 農地 租金 上漲 問題 間 接 加速 產業 衰退 政府 對 這些 衝突視 若 無睹 苦果 只 由 農民吞 枋寮 農會 總幹事 鄭晏昕 林邊 農會 總幹事 黃 金順 都 慨嘆 原盼 農電能 共 如今 衝突 嚴 重地 驕傲 半世 紀蓮霧 產業 正 因光電 面臨 式微 危機 黃 金順 說 光電場 租金 一分 地四萬元 承租 農民頂 多出 得起 一萬元 相差 四倍 到 處 都 聽 到 地 主要 改 種電 年 輕人 想 返 鄉務 農無低 租金 農地 可種 「 蓮霧 故鄉 」 金字招牌 正 褪色 台大 農經 碩士 張靜玉 枋寮 蓮霧 農 眼看 鄰近 農民 被 光電 搶 地 忿忿不平 直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫 要 青年 返鄉務 農現 連地 都 租 不到 「 這不迫 遷青 農去 都市 討活 漂鳥 回農村 恐怕 走 投無路 變 落翅仔 」</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影</t>
+          <t>光電亂象 已久 從 之前 良田 種電 砍樹 種電 近來 變本加 厲光 電板 不僅 征服 山頭 占 領文資 價值 遺跡 更 一步步 裂解 農漁村 產業 鏈恐 阻斷 青農返 鄉 之路 地面 型 光電 社會 衝擊 比 預期 更大且 深 講求 氣候 正義 「 企業 Ｅ Ｓ Ｇ 環境 保護 社會責 任司 治理 」 國際 主流 下 政府 企業須 警覺 若 綠電來 自迫 遷 危害 態 與 地產業 恐埋 隱憂 屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區 本 可 接軌 屏東縣 前縣 長 曹啟 鴻 「 養水 種電 」 政策 但 實際 推行 結果 鄉間 景觀 破碎 光電場 蛇 鼠 為 患離 農漸 增等 負面 效應 逐漸 浮現 加上 光電助 漲 農地 租金 無異將 返鄉 青年 拒 於 農漁村 之外 被 批評 與 「 養水 種電 」 初衷 漸行 漸遠 屏東 只 全台 種電 爭議 縮 更 多態 景觀 敏感 地 追 趕綠能 目標 下 可割 可棄 面對 爭議 與 衝擊 政策 把關 工具 遲未 發揮 效能 早 阻止 種電 副作用 甚至 正向 引導 與 地共共榮 實難辭 其咎 與 執政黨 「 愛鄉 土 」 理念 背道 而 馳開 發行 為 必須 堅守 環境 正義底 線 綠能 不 例外 猶得 台積電 被 徵收 用地 拆遷戶 激烈 抗爭 下 突然 宣布 放棄 進 駐龍科 三期 不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮 民進 黨 種電 國策 若 如 「 失速 列車 」 無情 地衝 撞 純樸 農漁村 把 青農老 農都 當成 「 農村 最軟 一塊 」 這種 綠電還 國際 認可 符合 Ｅ Ｓ Ｇ 綠電</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>捷運 萬大線 第一期 工程 預計 2025 年 完工   施工 路線 為 中   土城 交通要道   讓 原 交通 更塞   而 LG06 土建工程 圍籬 原定 今年 12 月 31 日 拆除   卻 將延長 3 年 才 要 拆除   恐將 影響 拉長   另有 議員 發現   萬大線 施工 造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂 等 鄰損   要求 新北 捷運局 加速 處理   新北 捷運局 表示   已 邀北捷局   里長 及民眾 現場 說明   目前 並無 地層下陷 問題       市議員陳錦錠 表示   新北 中和區 連城路 因捷 運萬大線 施工   造成 尖峰 時刻 壅塞   且 第一期 LG06 土建工程 圍籬 原定 年底 拆除   卻 延長 三年 後 才 要 拆除   再 加上 萬大線 施工   造成 約 60 戶 民宅   出現 地層下陷   牆面 龜裂   磁磚 破損 等 鄰損   新北 捷運局 應 盡快 提出 改善 方案   避免 鄰損 擴大   確 保民 眾 居住 安全                             對此   新北 捷運局 表示   萬大中 線 目前 計畫 進度 達 7 成   為紓解 施工 交通 瓶頸   台北 捷局 已 於 今年 8 月底 開放 施工 時封閉 連城路 北向 右轉 中正路 專用 車道   預計 明年初 陸續 展開 道路 回填 復 舊 作業   逐步 縮 減圍 籬範圍   緩解 壅塞 情形       至於 鄰損 部分   新北 捷運局 表示   9 月 28 日 邀北捷局   里長 及民眾 現場 說明   關於 巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   現場 立刻 要求 廠商 當天 下午 進場 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理     後 續若涉 鄰損 鑑定   北捷局 已承諾將 依相關 規定 辦理   目前 並沒有 地層下陷 問題         新北 捷運局 長 李政安 表示   會 要求 北捷 局縮 短 工程   不能 任意 延長   新北 捷運 局局 另 指出   LG06 中 站   連城路 75 巷   為 捷運 出入口 B 暨 聯合開 發基礎 共構 工程   屬契約後續 變更 擴充 工作   因開 工時程 較 晚   且位 於 路側   並不影響 連城路 道路 回填 復 舊 期程   不會 造成 交通 壅塞 狀況   萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 新北 捷運局 9 月 28 日 邀北捷局   里長 及民眾 現場 說明   巷弄 水溝 淤積 造成 住戶 端 反應 排水 不良   已 要求 廠商 當天 下午 處理   另住 戶 反應門 窗   磁磚 不易 正常 使用 部分   北捷 已 轉請 廠 商朝 協助 睦 鄰 修繕 方式 處理   圖 ／ 新北 捷運局 提供 萬大線 施工 造成 約 60 戶 民宅 牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 住家 出現 地面 出現 高低 落差   圖 ／ 陳 錦錠 服務處 提供 有民眾 反映   萬大線 施工 造成 約 60 戶 民宅 出現 地面 出現 高低 落差   牆面 龜裂   磁磚 破損 等 鄰損   圖 ／ 陳 錦錠 服務處 提供</t>
+          <t>台北市 今 23 日 又 工地 地層下陷 松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許 驚傳 新建 工地 地基 塌陷 路旁 整排 停放 汽車 因故 側翻 超過 45 度 現場 已劃 設 警戒 線據 了解 台北 市長 蔣 萬安 正 趕往 現場 今晚 9 時 01 分許 慶城街 興安街 交叉路口 一處 所屬 璞 真建設 新建 工地 「 地基 下陷 」 下陷 範圍 評估 中 目前 無人 受傷 目前 響 路旁 4 台 停放 車輛 現場 已劃 設 警戒 線事 發後已 消防 車到場 指揮 詳細發 原因 仍待 釐 清 蔣 萬安 則透過 臉書 表示 正 趕往 現場 呼籲 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">捷運 萬大線 目前 整體 施工 進度 已近 七成   台北市 捷運局 表示   如火如荼 趲 趕中 中 站 地下 段 工程   均 依照 規定 施工 定期 監測   目前 沒有 地層下陷 問題   捷運局 將依 施工 情形 逐步 縮 減圍 籬範圍   以 緩解 交通 壅塞       負責 施工 台北市 捷運局 一工處 說明   日前 接獲 施工 路段 住戶 反映 牆面 龜裂   磁磚 破損 等 情形   已 於 今年 9 月 28 日 前往 會勘 並向 住戶 說明   一工處 說   已 了解 建物 狀況   將依 會勘 共識 積極 與 住戶 協調 處理   並將 責成 施工 廠 商 儘 可能 以敦親 睦 鄰協助 修繕   後 續 若 涉及 需鄰 損鑑定   將 按照 規定 辦理後續                             一工 處進 一步 指出   近年 因受 疫情 整體 營造 環境 不佳 影響   致使 中 站 需 延至 2024 年 6 月 開始 進行 道路 中間 段 回填 管線 復 舊   但 一工 處將 滾動式 檢討 工序   儘 可能 提早 完成 道路 復 舊 還路 於 民   以 減少 對民眾 周邊 交通 影響  </t>
+          <t>台北市 松山區 慶城街 一處 工地 附近 今 23 晚傳出 地層下陷 狀況 停路邊 停車格 車輛 車身 甚至 已經 傾斜響 4 台車輛 傾斜 現場 為 新建 工地 地基 下陷 下陷 範圍 評估 中無人 受傷 已劃 設 警戒 線 台北 市長 蔣 萬安 副 市長 李 四川 正 趕往 現場 台北 市長 蔣 萬安 發文 表示 「 稍早 慶城街 興安街 交叉口 發 工地 地基 下陷 我正 趕往 現場 請 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知 」</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>台北市 慶城街 與 興安街 交叉口 今 23 晚發 工地 地基 下陷 台北 市長 蔣 萬安 發出 通知 提醒 周遭 居民 經過 民眾 注意安全 蔣 萬安 台北市 副 市長 李 四川 目前 趕到 事故 現場 了解 事發 原因 蔣 萬安 受訪 時 指出 今晚 9 點 左右 接獲 通報 慶城街 與 興安街 交叉口 一處 新建 工地 發 下陷 第一 時間 即 通知 相關 單位 現場 拉起 警戒 線無人 傷亡 不過 造成 四輛 停放 車輛 傾斜 蔣 萬安 指出 目前 新建 工地 還沒 進行 基礎 開 挖 即將 準備 施作 連續 壁 工程 還沒 開始 只導溝 初步 了解 因為 部支 撐力 不夠 造成 導溝 外壁 下陷 目前 緊急 回填 導溝 中 台北市 結構 技師會 理事 長 徐茂卿 表示 「 因為 工地 局部 導溝 施作 不佳 造成 道路 坍陷 現 最 重要 把 導溝 坑洞 補起 來 由 於 區域 不大災害 擴大跡 象 不 至於 產 很大 響 」</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>〔 台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 23 日發 地基 塌陷 工地 旁 4 輛停 路邊 停車格 轎車 車身 隨著 地基 塌陷 呈 70 度 傾斜 幸好 無人 傷亡 對 此 台北市 前 市長 柯文 哲今 早 24 日 受訪 表示 台北市 地層下陷 警示 區這本 來 就 問題 台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發 地基 塌陷 而 柯文 哲 卸任 後 發好 幾起 地層下陷 事件 柯文 哲今 早 關渡 宮前 受訪 表示 台北市 本來 就 地層下陷 警示 區其 實去 工務局 網站 看 就 知道 地層下陷 警示 區好 幾個 台北盆地 這本來 就 問題 媒體 詢問 地層下陷 建商 問題 或 地質 需進 一步 檢查 柯文 哲回應 他們 地圖 已經 相當 完整 高 危險區 要 能夠 事 知道</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>台北市 松山區 慶城街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 停 路旁 4 台車 受到 波 人行道 路面 凹陷 北市 府 緊急 成立 指揮 中心 處理 台北 市長 蔣 萬安 今早 二度 到 現場 視察 現況 被問 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報 市府 無因 應 對 此 他 表示 會 請 建管處 全面 清查 台北 慶城街 塌陷 案 截至 上午 11 點已 回填 360 立方 回填 高度 已近 安全 目標值 3 約 12 點 左右 就 會 完成 作業 而 比 對 相關 數據 檢測 目前 僅 塌陷 處東側 超過 15 分 裂痕 西 南北 側比 對 監測 數值 正常 都 沒 地面 塌陷 鄰房 傾斜 狀況 管線 路樹 等 一 併 檢查 處理 此次 台北市 政府 昨晚 慶城街 工地 塌陷 事 發後緊 急 成立 指揮 中心 開罰 18 萬並 勒令 停業 要求 工作 灌漿 回填 確保 安全 這蔣 萬安 任 二度 建案 塌陷 發 此次 處理 速度 較 上次 更快 蔣 萬安 強調 每 一次 事件 發都會 一次 檢視 只要 機制 完善 每個 人員落 實運作 其實 反應 就 會 快速 確實 確保 各項 安全 讓 一切 恢 復 正常 不過 外界 質疑 相比 日前 雙北惡 臭案 市府 被質 疑動作 慢半拍 蔣 萬安 回應 往後相關 機制 調整 完善 確 保人 員透過 機制 系統 運作 其實 各項 反應 就 能 即刻 因應後續 處理 就 會 到位 至於 許淑華 透露 年前 就 接獲 異常通 報且 未來 可以 跟 外審 單位 大地 工程 結構 技師 等 一起 監工 對 此 蔣 萬安 表示 異常 通報 「 會 請 建管處 全面 清查 」 另外 此次 第一 時間 邀請 四大 工會 技師 結構 大地 建築師 工會 參與謝 謝里長 到 現場 協助 各項 監測 這 部份 第一 時間 都 溝通 聯 繫</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>台北市 慶城街 興安街 交叉口 昨 23 天晚間 突發 工地 地基 塌陷 問題 連帶 週邊 停 路旁 汽車 人行道 傾斜 下陷 北市 府 緊急 下令 回填 經過 連夜 灌漿 截至 今 24 早 7 點 左右 已經 灌漿 250 方初估 中午 12 點可 完成 另外 針對業 開罰 18 萬並 勒令停工 據 了解 新建 工地 尚未 開挖 只導溝 疑似 因部 支撐力 不夠 造成 導溝 外壁 下陷 所幸 無人 傷亡 而 除了 導溝 回填 外 北市 府 表示 外側 坍塌 處為 預防樹木 傾倒且 灌漿 回填 後 樹木無法 存活 故將 4 棵 黑板 樹鋸斷 此外 北市 府 開罰業 18 萬並 勒令停工 而 雖然 目前 沒 漏水 情況 但 接下 來 自來 水處 將持續 監測 早上 會 進場 透地雷達 檢測 並確 認管線 排水 溝破壞 處理 方式 待 基地 側灌漿 完成 初凝後即 進行 道路 回填 北市 府 透露 今早 沒 再 塌陷 情況 監測 資料 今天 比 對 完成 後 布</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>13</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>台北市 松山區 慶城街 興安街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 造成 停 路旁 四台 車 受到 波 人行道 路面 呈現 V 字型 凹陷 面積 約 4 長 30 寬 深度 約 1.5 所幸 週邊 建築物 沒 危險 相關 單位 連夜 現場 進行 回填 作業 不過 工地 遭罰 18 萬 勒令停工 事發 原因 尚待 調查 慶城街 新建 工地 地基 下陷 路面 坍塌 人行道 工程 圍籬 都 明顯 下陷 路旁 停車格 消失 一大半 當時 路邊 4 輛汽車 遭殃 歪斜 建商 連夜 回填 灌漿 避免 塌陷 擴大據 了解 該 處興 建工 地原 要 蓋 豪宅 大樓 原 工地 上 地下 三層 地下室 建物 疑似 拆除 建物 後 地下室 進行 導溝 作業 時候 部導溝 支撐力 不足 才 發 坍塌 意外 所幸 工地 尚未 進行 大規 模開 挖 沒 再 釀 更 大 事故 此次 路面 坍塌 面積長 約 4 寬約 30 深度 1.5 目前 週邊 建築物 沒 相關 安危 而 北市 建管處 勘查 後 昨天 深夜 確定 裁罰 18 萬並 勒令 回填 穩定 後 停工 待 確保 工地 安全 業建商 提出 復工 審查 才 會 進行後續 作業 至於 事發 原因 仍待 調查</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>台北 松山區 慶城街 昨 23 天晚 間 發 地層下陷 身為 前 台北 市長 民眾 黨 主席 柯文 哲今 早 挑戰 一日 北高 被 問到 卸任 後 北市 兩度 發 工地 地層下陷 他 表示 台北市 盆地 本來 就 地層下陷 檢視區 認為 高 危險區 要 能夠 事 知道 並 必要措施 柯文 哲 今天 一大早 6 點多 從 台北 關渡 宮出 發挑戰 一日 北高 面對 慶城街 昨晚 發 地層下陷 他 認為 台北市 本來 就 地層下陷 檢視區 工務 局網 站上 可以 看到 好 幾個 區域 且 北市 本來 就 盆地 所以 本來 就 這個 問題 至於 問題 出 誰 身上 柯文 哲認 為 本來 地質 就 應該 多 注意 北市 地路 已經 相當 完整 高 危險區 要 能夠 事 知道 必要措施 防範</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>13</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>台北市 松山區 慶城街 一處 新建 工地 旁 昨天 晚間 發 路面 塌陷 意外 經過 將近 20 小時 搶 救 工地 崩塌 範圍 已 完成 回填 今天下午 開始 灌漿 工地 外圍 塌陷 路面 初步 研判 疑似 新建 工程 拆除 建地 既 地下 建築 結構 時 挖 到 不連續 弱面 才 導致 導溝 崩塌 台北市 松山區 慶城街 新建 工地 23 日 晚間 發地層 坍陷 意外 經過 約 18 小時 緊急 搶 救 工地 外圍 崩塌 範圍終 於 展開 回填 作業 從 制高點 俯瞰 更 清楚 混 泥土 車來 回 進出 灌漿 沒 停過 因為 這一崩 不僅 人行道 嚴重 下陷 路邊 車格 消失 一大半 當時還 4 輛汽車 差點 被 吞噬 附近 住戶 直言 「 好 意外 真 很 意外 文華飯 店當 初蓋 時候 這麼 近 沒 發過 問題 」 精華 地段 豪宅 新建 案出 現大 坍塌 讓 附近 居民 全都 嚇壞 畢竟 這長 約 4 寬約 30 深度 達到 1.5 坍陷 範圍實 不小 而且 建案 甚至 才 正 準備 施作 連續 壁 基礎 地基 都 還沒大規 模開 挖 竟然 就 前置 導溝 作業發 意外 初步 研判 坍塌 原因 跟 建地 原存 地下室 結構 脫 不了 關 係 原來 這回 要 建立 深導溝 越過 既 結構 時 卻 不慎 碰到 既存 不連續 面才會 釀禍 台北市 土木 技師會 理事 長 莊均緯 指出 「 破除 既連續 壁 跟 外牆 個 地方 個 不連續 面原 地下室 這個 部分 外牆 它 推擠 進來 變位 就 把 原來 深導 溝側 壁壓 變形 之後就產 這樣 崩塌 現象 」 台北 市長 蔣 萬安 週六 上午 二度 到 現場 勘查 向 居民 保證 周邊 住宅 暫無 安全 疑慮 「 西側 南側 北側 目前 比對 監測 數值 正常 而且 都 沒 地面 塌陷 以鄰房 傾斜 狀況 」 建管處 則緊 急 開罰 18 萬並 勒令停工 後 續 就 待 道路 回填 並由 透地雷達 確認 周邊 無 安全 疑慮 就 可 恢 復 通車 還給 居民 安全 環境</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>8</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>台北市 慶城街 一處 新建 工地 昨晚 發 地層下陷 事故 對 於 台北市 接連發 地層下陷 事件 前 台北 市長 民眾 黨 主席 柯文 哲 今天 表示 台北市 本來 就 地層下陷 潛勢區 台北市 政府 已經 把 地圖 得 很 完整 要 知道 高 危險 區並 必要措施 柯文 哲 表示 台北市 本來 就 地層下陷 潛勢區 其實 只要 去 工務局 往 上查 一下 就 可以 看到 地層下陷 潛勢區 好 幾個 因為 這個 地方 本來 就 盆地 所以 就會 這個 問題 目前 台北市 地圖 已經 相當 完整 高 危險區 要 事 知道 出 必要措施</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>台北市 慶城街 工地 附近 週 五晚 間 坍塌 下陷 昨天 基地 回填 完成 後 今 25 天 上午 台北市 副 市長 李 四川 再度 到場 視察 評估 地基 沒 再 下陷 宣布 慶城街 上午 十點 恢 復 通車 李 四川 表示 填平 地方 沒繼續 沉陷 路面 部分 希望 今晚 人少 時候 重新 把 瀝青 鋪 好 明天 週一 上班 就 能 恢 復 正常 了 由 於 這已 經蔣 市府 上任 以來 兩年 發第 7 起 塌陷 事件 李 四川 要求 持續 監測 建商 若想 復工 依法 必須 交出 復工 計畫 經過 政府 專業 技師會 審查 確認 安全 無虞 後 才能 繼續 動工</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>〔 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁 由 於 地下水 井積沙 淤泥 嚴重 去年 起 停止 對外 開放 地方 民眾 認為 未 於 本月 如期 開館 營運 通報 台中市 議員 曾威 查出 泳池 前後地層 落差 約 14 分疑 地層下陷 疑慮 環保局 強調 立即 通報 土木 技師 會勘 釐 清 下陷 疑慮 「 泳道 南側 比北側 低 了 約 14 分 」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量 查出 50 泳道 平面 傾斜 約 14 分南側 地勢 明顯 較 低 疑似 地層下陷 緊急 通報 台中市 土木 技師會 複 驗 曾威 說 泳池 蓋 慶光路 焚化 爐旁 運用 焚化 爐 回饋 金設 置 當初 建造 因空 污響 社區 回饋 鄉 親營運 十年 來 陸續 發 池底 積沙頂 棚 消防 設備 被 消防局 要求 改善 等 問題 且 沒水 狀況 下 泳池 兩端 落差 14 分 疑似 後 方 地層下陷 相當 危險 烏日 溫水 游泳池 於 2016 年 起營 運設 10 道 50 泳道 兒童池 spa 池 烤箱 蒸氣室 今年 起 由 台中市 體育局 移交 給環 保局 列管 會勘 團隊 查出 泳池 北側 地勢 最高 處 水面 距 泳池 頂約 20 分南側 地勢 最低 處僅 約 6 分結 構明 顯出 問題 土木 技師 初 勘 認定 複 雜 程度 估價 再 進行後續 評估 結構 補強 作業 環保局 副 局長 陳 政良 說 預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節 至於 地層下陷 疑慮將 15 日請 廠商 鑑定 評估 盡 全力 讓 泳池 盡快 恢 復 營運</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>〔 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁 由 於 地下水 井積沙 淤泥 嚴重 去年 起 停止 對外 開放 地方 民眾 認為 未 於 本月 如期 開館 營運通 報市 議員 曾威 查出 泳池 前後地層 落差 約 十四分 疑 地層下陷 疑慮 環保局 強調 立即 通報 土木 技師 會勘 釐 清 下陷 疑慮 「 泳道 南側 比北側 低 了 約 十四分 」 環保局 技士 本週 前往 烏日 溫水 游泳池 測量 查出 五十 泳道 平面 傾斜 約 十四分 南側 地勢 明顯 較 低 疑似 地層下陷 緊急 通報 台中市 土木 技師會 複 驗 曾威 說 泳池 蓋 慶光路 焚化 爐旁 運用 焚化 爐 回饋 金設 置 當初 建造 因空 污響 社區 回饋 鄉 親營運 十年 來 陸續 發 池底 積沙頂 棚 消防 設備 被 消防局 要求 改善 等 問題 且 沒水 狀況 下 泳池 兩端 落差 十四分 疑似 後 方 地層下陷 相當 危險 烏日 溫水 游泳池 於 二一六年 起營 運設 十道 五十 長 泳道 兒童池 spa 池 烤箱 蒸氣室 今年 起 由 體育局 移交 給環 保局 列管 會勘 團隊 查出 泳池 北側 地勢 最高 處 水面 距 泳池 頂約 廿分 南側 地勢 最低 處 水面 距 泳池 頂僅 約 六分 結構 明顯 出 問題 土木 技師 初 勘 認定 複 雜 程度 估價 再 進行後續 評估 結構 補強 作業 環保局 副 局長 陳 政良 說 預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節 至於 地層下陷 疑慮將 於 十五日 請廠 商鑑定 評估 讓 泳池 儘 快 恢 復 營 運</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>新北市 萬里區 加投 溫泉 共 浴室 疑似 地層下陷 現象 為 確保 泡湯 安全 目前 已 封閉 修繕 中 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>新北市 萬里區 加投 溫泉 共 浴室 疑似 地層下陷 現象 造成 浴池 受 損壁 磚脫 落 未來將 進行 修繕 改善 確認 無 危險 之 虞 才 會 再行 開放 供民眾 使用 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>新北市 萬里 「 加投 溫泉 」 共 浴室 算古 蹟 了 它 日據 時期 就 蓋 好 而且 到現 很多 人喜 歡來 這裡 泡 湯不過 上個 月 開始 這裡 出現 大大小小 問題 浴池 磁磚 掉落 水泥柱 裂痕 地面 嚴重 傾斜 因此 現 浴池 已經 暫時 封閉 了 等到 廠 商都 修繕 完畢 確認 安全 都 沒 問題 才 會 再度 開放   鏡新聞 已 上架 86 台若 無法 收看 請 洽詢 當地系 統台   鏡新聞 APP   iOS 👉 httpsreurl . cckqyqML   鏡新聞 APP   Android 👉 httpsreurl . ccAy2y63   話鏡 來講 YT 👉 httpsreurl . ccA4DjQj   少年 新聞週 YT 👉 httpsreurl . ccK4DeN9</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 因 係 屬免 費泡湯 不但 金山 萬里 當地民眾 喜愛就連 基隆 人 搭車 專程 前來 免費 泡 湯因 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認無 危險 才 會 再行 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆裂 縫 等 事宜 廠商 到場 會勘 後 發現 懷疑 地層下陷 為確 保民 眾泡湯 安全 自 3 月 4 日起 封閉 浴室 經技師 以 透地雷達 探測 後 男女 湯室 地底下 土壤 流失 現象 所 再度 發起現 勘商 討後續 改善 辦法 周雅玲 指出 萬里加投 溫泉 共 浴室 10 多年 前 曾 經修繕 當時 就 曾經 出動 透地雷達 探測 這次 透地雷達 探測 與 當年 比較 發現 問題 較 為 嚴 重建 議 應該 邀請 土木 技師 一 併 會勘 包含 溫泉 主管 機關 經濟 發展局 水利局 邀請 來 對 於 周邊 溫泉 開發應 予以 總量 管制 以免 加投 溫泉 共 浴室 慘遭 池魚 之殃 萬里區 區長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 為 瞭解 確切 原因 找出 效 改善 方法 所將 再 請 新北市 土木 技師會 等 相關 專家 進行 專業 檢查 評估 期望 確保 安全 無虞 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 呼籲加 投 溫泉 共 浴室 封閉 期間 民眾 切勿 擅 闖 翻越 圍籬 進入 使用 以維護 自身 安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>新北市 萬里加投 溫泉 共 浴室 歷史 悠久 吸引 許多人 前來 泡 湯不過 今年 2 月民眾 反應 溫泉 設備 出 問題 沒 想到 廠商 進場 維修 後 發現 浴池 磁磚 掉落 水泥柱 充滿 裂痕 地面 嚴重 傾斜 等 狀況 更 仔細 勘查 下 竟然 地層下陷 現象 地質 檢測 人員 檢查 原來 湯室 地底 大量 孔隙 造成 土壤 流失 目前 封閉 整修 鋁罐 放 地上 一路 滾 不停 不只 地面 嚴重 傾斜 浴池 還一 大片 磁磚 脫落 水泥柱 充滿 裂痕 原來 這處 溫泉 發 地層下陷 新北市 萬里加投 溫泉 共 浴室 日治時 代興建 歷史 相當 悠久 水質 相當 不錯 吸引 許多人 前來 泡 湯不過 今年 2 月 開始 就 泡 湯遊客 反應 燈管 溫度 顯示器 溫泉 管線 設備 問題 區所派 人 前往 了解 狀況 由 廠商 進場 維修 發現 不只 設備 故障 還磁磚 脫 落地 磚不 平等 狀況 仔細 勘查 下 發現 地層下陷 現象 所 從 4 號開始 封閉 浴室 趕緊 找 專業 技師 到場 檢查 男女 湯室 地底 大量 孔隙 造成 土壤 流失 懷疑 可能 跟 一旁 溫泉 露頭關 係 大鵬里長 李建才 「 露頭 我 不敢 說絕 對 沒關 係 因為 這個 相通 東西 地底下 看不到 以 目前 整個 狀況 來 講話 下陷 狀況 速度 應該 不 很 急速 這 很多年 類似點 掏空 感覺 」 溫泉 從 溫泉 露頭 自然 湧出 抽到 蓄水池 後 流入 浴池 可能 連帶響 地基 被 掏空 萬里區 長 黃 雱 勉 「 技師 建議 我們 要 專業 技師會針 對 結構物 下陷 狀況 去 監測 再 去 評 估後續 不 可以 用液 壓 灌漿 部分 改善 還 可能 要 大動作 去後續 改建 這個 部分 後 續 可能 會 需要 比較 多費用 」 所強 調 儘 快 修建 完成 提供 民眾 安全 舒適 泡 湯空間</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>新北市 萬里區 所 表示 民眾 日前 反應加 投 溫泉 共 浴室 燈管 溫度 顯示器 不亮 等 問題 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 圖為 建物 出現 裂縫 所 提供 中央社 王鴻國 傳真   113 年 3 月 26 日</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>萬里區 所以 訊息 說明 萬里區 加投 溫泉 共 浴室 於 日據 時代 建造 歷史 悠久 屬 於 海底 溫泉 為 當地 居民 從小到 大泡 湯空間區 所 表示 因 2 月底 民眾 反應 浴室 燈管 溫度 顯示器 不亮 等 問題 於 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 為 確保 泡湯 安全 已 封閉 浴室 區長 黃 雱 勉 表示 為 瞭解 確切 原因 找出 效 改善 方法 將邀 請 專業 技師 進行 檢查 評估 以商 討後續 改善 辦法 期望 安全 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 提醒 民眾 封閉 期間 勿 擅自 進入 使用 以維護 自身 安全 萬里區 所 主任 秘書 許明富 向 中央社 表示 當地過 去 地層下陷 並 完成 改善 多年 未響 溫泉 供給 溫度 加投 溫泉 共 浴室 經找 技師 以 透地雷達 探測 後 男女 湯室 地下 發現 土壤 流失 現象 未來將 進行 修繕 改善 並確 認無 危險 之 虞 才 會 再行 開放 供民眾 使用 編輯 林恕暉 1130326</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>新北 萬里 加頭 溫泉 2 月份 被 遊客 發現 不僅 燈管 溫度 顯示氣 等等 設備 問題 更 地層下陷 因此 趕緊 請 所 找 人 檢修 目前 已經 緊急 封閉 確認 沒 安全 疑慮 才 會 再度 開放 浴池 整塊 磁磚 脫 落地 磚 不平 甚至 還些 地層下陷 看起 來 相當 老舊 這裡 新北 萬里 加頭 溫泉 從 日據 時代起 就 受到 不少 民眾 喜愛許 多 人 泡 完湯 都 覺得 放 鬆 筋骨 不過 2 月份 卻 被 發現 不僅 燈管 溫度 顯示器 一些 溫泉 管線 設備 問題 外還 地層下陷 跡象 鐵鋁 罐放 地上 都 會 不 自主 滾向 一邊 加上 後 方 就 溫泉 露頭 要 坍方 相當 危險 萬里區 長 黃 雱 勉 「 技師 建議 我們 要 專業 技師會 去 針對 結構物 下陷 狀況 去 監測評 估後續 不 可以 用液 壓 灌漿 部分 改善 」 地質 人員 透過 地雷 達 偵測 結果 發現 確實 男女 湯 地底 大量 孔隙 造成 土壤 流失 目前 所 已 經緊 急 封閉 浴室 以民眾 安全 為 第一 考量 盡快 修建 封面 圖東 森新聞</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 提供 大眾 免費 泡 湯不僅 受到 當地民眾 喜愛就連 基隆 人 慕名 前來 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認沒 危險 才 會 重新 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆面 出現 裂縫 廠商 會勘 後 懷疑 地層下陷 為確 保民 眾 安全 三月 四日 起封閉 浴室 經技師 以 透地雷達 探測 男女 湯室 地底下 發現 土壤 流失 現象 周雅玲 指出 萬里加投 溫泉 共 浴室 十多年 前 曾 經修繕 當時 出動 透地雷達 探測 這次 發現 問題 較 嚴 重建 議邀 請 土木 技師 參 與 會勘 經濟 發展局 水利局 應針 對 附近 溫泉 業開發 予以 總量 管制 以利 共 浴室 永續 發展 萬里區 長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 所將 再 請 土木 技師會 等 專家 進行 檢查 評估 期望 確保 安全 前提 下 儘 早 恢 復 民 眾 泡 湯 空 間</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>13</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>花蓮 近海 今天上午 發規模 7.2 強震 花蓮市 區大樓 嚴重 傾斜學 解釋 地震 造成 房屋 傾斜 原因 包含 地震 本身 震動 方向 建築物 結構 與 土壤 液化 關根據 中央 氣象署 資訊 今天上午 7 時 58 分發 芮氏 規模 7.2 地震 地震 深度 15.5 里 震央 位 於 花蓮縣 政府 南南 東方 25.0 里位 於 台灣 東部 海域 最大 震度 花蓮縣 6 強 各地 陸續 傳出 災情 如 花蓮市 區 2 大樓 嚴重 傾斜 等 中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 地震 發當下 可能 些 民眾會 發現 某些 牆面 東西易 倒 某些 不會 就 代表 該起 地震 震動 方向 然而 這 部分 與 地震 震源 斷層 位置 傳遞 能量 大小 等 相關並 不好 預測 另外 黃 信樺 指出 建築 結構 工程 問題 比方 許多大樓 1 樓 可能 規畫 為 騎樓 甚至 些 成 挑 高大 廳 結構 上僅 靠 少數 樑 柱 支撐 因此 可能 會大 地震 發時 造成 不 穩況 黃 信樺 說 第 3 點就 可能 土壤 液化 問題 些 建築物 若 座落 比 較 鬆 軟 沉 積 層 上 如 河 邊 長 久 沖 積 下 部分 地底 縫隙 會 被 沙石 填滿 但 地震 後 卻 又 鬆 動 或 局部 液化 情況 造成 地層下陷 黃 信樺 提到 雖然 台北市 可能 很多 老式 騎樓 但 一來 震央 位置 離 台北 較 遠二來 老式 騎樓 通常 較 矮 不易 與 地震 發 共振 反之 若高樓 層 又 騎 樓式 設計 房屋 大 地震 來 臨時 就 會 相 對 危險 黃 信樺 表示 其實現 已經 許多 耐震 建築 技術 或許 政府 部門 未來 考量 建築 補強 上 可以 採用 增加 老建築 安全性 ▶ ▶ ▶ 花蓮 大 地震 延伸 讀   ▪ 一夜 83 震氣 象署 曝餘震 暴增 原因   「 只剛 開始 」   ▪ 花蓮 強震 整理 包釀 18 死   重大 災情 災後理 賠 專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言 點不尋常   ▪ 大 地震 要來 了 地科 教授 分析 餘震 分布 花蓮 特性</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>13</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>今 3 日 強震 震撼 全 台 各地 災情 不斷 新北市 新店區 安泰路 一處 民宅 更發 地基 下陷 慘況 此外 台北市 方面 前則 傳出 3 傷 2 名 工人 因 乙炔 鋼瓶 傾倒 爆破 導致燒 燙傷 還一人 手臂 撕裂 傷綜合 媒體 報導 新北市 新店區 安泰路 60 巷 90 弄 頂 好 社區 民宅 今 地震 後 傳出 災情 從 現場 照片 來 看 不僅 民房 地基 下陷 花盆 傾倒 原停 路邊 車輛 更 直接 下沉 場面 驚 悚 目前 粗估 坍塌 面積 約 1000 平方 所幸 住戶 12 人 已 全數 撤離 另外 稍早 台北 市長 蔣 萬安 表示 北市 接獲 3 人 受傷 消息 其中 2 名 男性 工人 地震 期間 因 乙炔 鋼瓶 傾倒 爆破 導致 身上 68 ％ 燒燙傷 目前 已 被 送往 台大 醫院 治療 還 一名 大同區 民眾 地震 時因 玻璃 破裂 導致 左手 撕裂 傷已 送往 馬 偕 醫院 治療 北市 教育局 則 透露 2 名學 疏散 時腳踝 扭傷 與 遭 玻璃 輕微 割傷 截至 前 北市 共接 獲 588 災情 案件 大多 為 停電 漏水 瓦斯 管線 破損 此外 還建築物 外牆 毀損 招牌 掉落 等 受困 電梯 人員 已 被 救出 後 續 北市 府 將落 實外 牆 招牌 懸掛 物防護 以 高架 橋 樑 巡檢</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>〔 南市 已 受理 超過 二 五件 既 未 登 水井 納管 申報 案件 但 仍 部分 民眾 未 申報 為 避免 地下水 過度 使用 造成 地層下陷 四月 起 受理 申報 同時 辦理 複 查作業針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 透過 現場 訪談 測量 等 方式 建立 水井 基本 資料 以利 後 續 地下水 管理 水利局 表示 今年 四月 起 辦理 地下水 井現 地 複 查作業 規劃 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人 無法親 自到場 辦理 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除了 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 申報 時間 即日起 至 八月 二日 止 可 就近 就近 至 各區 所 或 至 市府 民治 行政 中心 服務台 永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱 或 透過 水利局 網站 「 水井 納管 申報 」 Web 平台 申報 可以 手機 下載 「 水井 納管 申報 查詢 」 APP 申報</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>▲ 南市 水井 納管 申報 複 查作業 同時 啟動針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 合理 使用 水資源 防治 地層下陷 李 嘉祥 為 保育 地下水 資源 加強 地下水 管理 避免 地下水 過度 使用 造成 地層下陷 響 市民 人身 財產 安全 臺 南 市政府 水利局 積極 推動 水井 管理 政策 自 112 年 起 辦理 水井 納管 作業 受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登 既 水井 納管 後 可 避免 遭檢舉 而 封井且 取得 合法 水權 機會 並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業針 對轄納管 水井 辦理 複 查 暨 貼標 籤 作業 透過 現場 訪談 測量 等 方式 建立 水井 基本 資料 以利 後 續 地下水 管理 市長 黃 偉哲 表示 水井 納管 除 可 保育 地下水 資源 對 於 使用 水井 民眾 而言 接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障 另為 減輕 農民負 擔經 水井 納管 農業 用 水井 免收 各項 水權 登規費 倘未 登 水井 逾期 未申 報且 經查 獲將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處 分籲 請 鄉親 踴躍申報 讓 珍貴 地下水 資源 合理 使用 並同 時維護 自身 用水 權益 水利局 長 邱忠川 說 根據 水利局 統計 截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既 未 登 水井 納管 申報 案件 但 仍 部分 民眾 未 申報 為 保障 水井 用戶 權益 落實 地下水 保育 市府 特別 再 開放 受理 申報 納管 申報 時間 於 4 月 1 日起 至 8 月 2 日 截止 時間 限籲 請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請 以維護 自身 權益 邱忠川 指出 4 月 起 將展 開 地下水 井現 地 複 查將 以 北門區 學甲區 鹽水區 安定區 地下水 一級 管制 區分區 方式 依序 進行 並由 專人 電話 通知 約定 複 查時間 若 申請 人無法 到場 請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書 現場 除 確認 基本 資料 調查 水井 狀況 坐標 地段 號井 深井 徑 出水管 徑 抽水機 位置 型式 馬 力 電表電號 用水 標與 範圍 農用 水井 另 進行 水電比 檢測 透過 用 電量 測定 抽 水量 為節 省民眾 時間 與 請 所 人 於 預定 複 查 日期 前 清除 水井 周圍 草叢 以 加速 複 查作業 進行 邱忠川 呼籲 水井 所人 可 就近 至 各區 所 或 至 臺 南 市政府 民治 行政 中心 服務台 永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱 或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報 可手 機下載 「 水井 納管 申報 查詢 」 APP 申報 市府 設置 水井 納管 專線 066321212 主動 輔導解 決民眾 申報 問題</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>中國 過度 抽取 地下水 導致 近 40% 主要 城市 土地 下陷 路透 陳 麗珠 核稿 編輯 〔 中國 近一半 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 沉降 海平面 上升 情況 下 恐數 百萬人將 面臨 洪水 風險 路透 指出 中國 都市人口 約 9 億人 當中 約 2.7 億人活 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 中國 82 個 城市 中約 45% 每年 下沉 超過 3 釐 16% 土地 平均 每年 下沉 更 超過 10 釐 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 據 了解 而 造成 中國 土地 逐年 下沉 最 主要 地下水位 下降 所致 路透 表示 「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣約 新 台幣 337 億元 損失 研究 人員 預計 下個 世紀 中國將 約 近 四分之一 沿海 土地 恐低 於 海平面 數億人將 面臨 大 洪水 風險 最 嚴重 受災 城市 北方 天津 這 城市 約 1500 萬 人口 2023 年 一場 「 突發 地質 災害 」 導致 3000 名 居民 被 疏散 調查 人員將 這場 災害 歸咎 於 水資源 枯竭 地熱井 建設 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>最新 一份 根據 衛星 雷達 觀測 研究 顯示 中國近 40% 主要 城市 土地 正發 「 中度 至 重度 」 地層下陷 上 億 居民 面臨 洪水 風險 加上 海平面 上升 上海 廣州 天津 都 面臨 災害 風險 綜合 路透社 與 美國線 電視 新聞網 CNN 報導 這篇 研究 今天 419 發表 期刊 科學 Science 上 由 中國 華南 師範大學 教授 敖祖銳領 軍 研究 小組 透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況 發現 40% 城市 土地 每年 平均 下沉 超過 3 釐 中國 都市人口 約 9 億約 2.7 億 人口 活 這些 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 這 82 個 城市 中 更 16% 土地 平均 每年 下沉 超過 10 釐 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 導致 中國 都市 地層下陷 主因 過度 抽用 地下水 另 一大 因素 城市 土地 上 重量 不斷 增加 時間 推移 下沉 積物 堆積 以 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實導致 土地 下沉 研究 顯示 由 於 地層下陷 海平面 上升 最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面 天津 上海 廣州 周邊 都 面臨 這樣 風險 中國 一些 地區 已經 建立 保護 措施 這份 研究 並未 探討 這些 措施 效果 報告 合著 北京 大學 城市 與 環境 學院 教授 陶勝利 說 上海 就 建造 了 數高 堤防 「 即使 地層下陷 海平面 上升 這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒風險 」 就 他 所知 沒 其他 國家 打造 過規模 這麼 大 堤防 陶勝利稱 中國 政府 實施 嚴格 地下水 管制法 規減 緩 了 上海 周邊 地層下陷 速度 全球 多個 城市 都 下陷 維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨 Leonard   Ohenhen 最近 一份 針對 美國 地層下陷 狀況 報告 指出 大部分 城市 都 會發 土地 下沉 但 因為 沿海 地區 海平面 上升 問題 大家 比較 關心 沿海 城市 「 但 大多 數 城市 下沉 速度 沿海 城市 其實 都 差不多 甚至 還更快 」 地層下陷 不僅 中國 才 問題 CNN 指出 美國 紐約市 等 數十個 沿海 城市 正 下沉 墨西哥 首都 墨西哥城 土地 每年 最 多 下沉 50 分 可能 全球 沉 最快 荷蘭 已 25% 土地 低 於 海平面 今年 2 月 另 一項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 印尼 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 都 已 低 於 海平面 新加坡 2022 年 一項 研究 提到 全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中 30 個亞洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>路透社 報導 根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示 中國將 近一半 主要 城市 正 遭受 「 中等 到 嚴重 」 程度 地層下陷 數百萬人將 面臨 洪災 風險 尤其 海平面 正 上升 這篇 發表 於 科學 ( Science ) 期刊 論文作 發現 中國 45% 都市 土地 正以 每年 超過 3 釐 速度 下陷 16% 都市 土地 下陷 速度 每年 超過 10 釐 造成 原因 不僅 地下水位 下降 還建築 環境 龐大 重量 華南 師範大學 敖祖銳 領導 研究 團隊 表示 中國 都市人口 已經 超過 9 億 因此 「 即使 一小部分 土地 下陷 都 會 對 都市 活構 成 巨大 威脅 」 土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 ) 而下 一個 世紀近 四分之一 沿海 陸地 可能 將低 於 海平面 使數 億人 面臨 更大 洪水 風險 東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示 「 這讓 我們 真正 認識 到 對 中國來 說 這一個 全國性 問題 而 不僅僅 一 兩個 地方 問題 」 他 說 「 這 世界 其他 地方 正發 事情 縮 」 人口 超過 1500 萬 北部 城市 天津 被確 認為 受災 最 嚴重 城市 之一 去年 一場 「 突發性 地質 災害 」 導致 3 千名 居民 撤離 調查 人員將 原因 歸咎 於 水資源 枯竭 以地 熱井興 建中 國許 多 老 煤 礦區 因為 過度 開採 而 受到 響當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥 以 強化 土地 這個 問題 並不 只限 於 中國 今年 2 月 發表 另 一份 研究 指出 全球 約 630 萬 平方里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中 印尼 受響 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 已 低 於 海平面 尼科 爾斯 說易 受響 城市 可以 從 東京 汲取 教訓 東京 曾經 下陷 約 5 ( 16 英 ) 後 來 1970 年代 禁止 抽取 地下水 他 補充 說 「 減緩 土地 下陷 問題 應該 被 非常 認真 看待 但 不 可能 阻止 所 下陷 因此 要 討論 適應力 建造 海堤 」 根據 新加坡 2022 年 一項 研究 44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中 30 個位 於 亞洲羅德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示 「 這一個 都市化 人口 增長 問題 人口密度 愈大 抽水 就 愈 多 就 造成 更 多 下陷 」</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>中國將 近一半 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅 根據 最新 研究 顯示 中國 都市人口 約 9 億 其中 約 2.7 億人活 每年 下陷 逾 3 分地區 相當 於 都市人口 29% 加上 海平面 上升 情形 日漸 加劇 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 上 億 居民 將 面臨 洪水 危機 綜合外 媒報導 這篇關 中國 土地 現況 報告 期刊 科學 Science 上 發表 研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形 發現 約 45% 地區 每年 下沉 超過 3 釐 更 16% 土地 平均 每年 下沉 超過 10 釐 且 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 眾多 即使 地層下陷 只 占 一小部分 威脅 仍 不 忽視 根據 了解 造成 中國 土地 逐年 下沉 主因 過度 抽用 地下水 另 一 因素 為 城市 土地 上 重量 不斷 增加 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實且 研究 人員 預計 由 於 地層下陷 海平面 上升 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 包含 天津 上海 廣州 等 都市 數億人將 面臨 洪水 威脅 人口 超過 1500 萬 天津市 被 認為 「 最 嚴重 受災 城市 」 2023 年 6 月間 一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕 地下室 滲水 3000 名 居民 被 緊急 疏散 事 發後調 查人員將 災害 肇因 歸咎 於 地下水 資源 枯竭 以地 熱井 鑽井 施工 觸動 深層 「 地質 空腔 」 所致 不僅 中國此 問題 世界各地 皆 面臨 地層下陷 危機 今年 2 月 發表 另項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 尤為 印尼 情況 最為 告急 首都 雅加 達 大部分 地區現 已 低 於 海平面 另據 新加坡 2022 年 一項 研究 提 全世界 著 嚴重 地層下陷 44 個 沿海 主要 城市 中 就 30 個位 於 亞洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>7</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>李欣潔 核稿 編輯 〔 中國 各 大都市 面臨 地層下陷 環境 危機 北京 大學 城市 與 環境 學院態 研究 中心 研究 員 陶勝利 團隊 華南 師範大學 北斗 研究院 敖祖銳 團隊 等 人 共同 頂尖 期刊 科學 發表論 文指稱 2120 年 中國 沿海 城市 恐 26 ％ 土地 會 低 於 海平面 北京 全中國 下沉 速度 最快 都市 之一 據 紐約 時報 報導 中國 16 ％ 大城市 每年 海拔高度 下降 超過 10 釐 近一半 城市 每年 海拔高度 下降 超過 3 釐 這些 數字 看 起來 不大 但 日積 月 累 之下 不能 忽視 這些 城市 地層下陷 一部分 由 於 建物 基礎 設施 重量 造成 超 抽 地下水 開採 石油 煤礦 原因 之一 上述 響到 環境 行為 可能 會 造成 土壤 岩石 擠壓 坍塌 研究 人員 透過 雷達圖 像 測量 中國 82 個 主要 都市 2015 至 2022 年間 地表 升降 狀況 並當 地 建物 重量 地下水位 進行 比較 結果 發現 中國 沿海 城市 目前 約 6 ％ 土地 相對 海拔 低于 海平面 假如 2120 年 全球 平均 海平面 上升 0.87 則 可能 會 上升 到 26 ％ 其中 北京 全中國 下陷 速度 最快 城市 之一 鄰近 天津 同樣 危機 天津 去年 數條 道路 突然 發地裂 狀況 導致 數千 居民 從寓 撤離 中國 都市 下陷 狀況 不均 勻 亦 即 不同 區域 以 不同 速度 下沉 使得 土地 上 建物 面臨 受損 風險 都市 土地 低 於 海平面 並不 代表 滅亡 荷蘭 大部分 地區 都 海平面 以下 並持續 下陷 但 荷蘭展 開 了 大量 蓄洪 工程 防止 洪災 中國 研究 人員 認為 降低 下陷 速度 關鍵 限制 地下水 抽取 上海 實施 地下水 管理 後 下沉 速度 比中國 其他 城市 更慢 日本 東京 大阪 多年 來 地下水 規劃 已 能夠 穩定 地表 沉降 狀況 不過 審查 該篇論 文英國東 英吉利 大學 氣候 科學家 土木工程 專家 尼科 爾斯 Robert   Nicholls 透露 地層下陷 中國 全國性 問題 很 難 完全 阻止 中國 沿海 地區 必須 適應 海平面 上升 地表 下沉 狀況 同樣 參與 審查論 文美國 維吉尼亞 理工大 學 地球物理 學家 希爾扎 伊 Manoochehr   Shirzaei 曾 以類 似 方法 研究 了 美國 沿海 都市 下沉 他 直指 地層下陷 幾乎 任何 地方 都 存 卻 一直 遭到 忽視 希爾扎 伊說 目前 大多 數應 對 氣候 變化 指 海平面 上升 策略 都 不 準確 因為 這些 都 沒 考慮 到 地層下陷 狀況 這個 課題 從 未 像 海平面 上升 一樣 得到 廣泛 研究</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>7</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[   根據 美國 科學促 進會 AAAS 出版 期刊 科學 Science 於 18 日 發表論 文顯示 中國 近一半 主要 城市 面臨 「 中度 至 重度 」 地層下陷 問題 45% 城市 每年 下陷 超過 3 毫米 16% 城市 每年 快速 下陷 逾 10 毫米 並 造成 每年 75 億元 人民 幣約 合新 台幣 337 億元 經濟 損失 預計 未來 1 世紀 中國 沿海 城市 可能 110 居民 將活 海平面 以下 下陷 主因 則 包括 地下水位 下降 以建築 環境 對 地下 土壤 帶來 沉重 壓力 等 尤其 都市化 進程 更 加速 了 地下水 資源 過度 開 採以 大量 建築物 重壓 受響 城市 包括 北京 天津 合肥 西安 等 由 於 中國 城市 人口 已 超過 9 億人 因此 「 即使 只 一小部分 土地 下陷 都 可能 對 城市 活構 成 重大 威脅 」 涉 居民 安全 基礎 建設 交通 運作態 環境 等 多個 層面 研究 估算 地層下陷 已使 中國年 經濟 損失 超過 75 億元 人民 幣凸顯 了 問題 嚴峻 與 急迫 例如 擁 1500 萬 人口 天津 近幾年 都 水患 受災嚴 重地 區 之一 未來 隨著 全球 暖化 造成 海平面 上升 以 地層下陷 持續 預計 下個 世紀 中國 將近 14 沿海 土地 低 於 海平面 洪水 風險劇 增除 沿海 城市 中國舊 煤區 亦 因 過度 開 採出 現類 似狀況 地下 礦產開 採導致 土地 結構 變化 引發 地層下陷 地方 政府 常採 取向 礦井 注漿 加固 等 臨時 措施 但 無法 從 根源 解決 問題 英國東 英吉利 大學 University   of   East   Anglia 氣候變遷 研究 中心 主任 尼可斯 指出 地層下陷 不僅 中國 全國性 問題 全球 重大 危機 今年 2 月 研究 顯示 全世界 約 630 萬 平方里 土地 下陷 風險 尤其 印尼 更 如此 其 首都 雅加 達 Jakarta 大部分 區域 目前 已低 於 海平面 加劇 洪水 風險 並嚴 重威脅 居民 活與態 環境</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>因應 極端 氣候 水利 署 投入 123.6 億元展 開 「 鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫 」 包括 6 座 人工 蓄水池 草屯 鳥 嘴潭 2 座淨 水場 鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸 其中 彰化 7 萬噸 南投 2 萬噸 草屯 淨水場 今年 3 月 27 日 正式 完工 出水 總 供水量 提升 到 每日 14 萬噸 並持續 推動 鳥 嘴潭淨 水場 工程 預計 2025 年底 可達 日供 25 萬噸 目標 4 萬噸 供 草屯 21 萬噸 供 彰化 地區 使用 陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程 立委 馬 文君 游顥 等 均 到 場王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助 盼 讓 偏鄉 地區 鄉 親能 同享 量 好質 優水 資源 他 並建議 鳥 嘴潭 人工湖 周遭 可 執行 綠毯計 畫持續 綠 美化 取得 民眾 對 水庫 建設 喜愛陳建仁 說 烏溪 鳥 嘴潭 人工湖 計畫 政府 核定 「 雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫 」 中 重大 建設 之一 草屯 淨水場 為 其中 一環 3 月 已 達 最大 設計 出水 功能 通過 5 萬 CMD 立方 每日 能力 測試 比原 期程 提早 3 個 月 相信 未來 完工 後 定能 穩定 供 應質 優量 足 水資源 進 一步 帶動 地方 發展 游顥會 後 指出 南投縣 水源 長 期不斷 供給 外縣 市 居民 使用 但 南投縣 自來 水普率 水管 汰 舊換 新 都 需要 中央 支持 草屯 淨水廠 應 優滿足 南投縣 用水 需求 剩餘 供水量 再 調度 給外 縣市 才能 實際 解決 南投縣 用水 問題</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>烏溪 鳥 嘴潭 人工湖 中部 地區 最 重要 水利 計畫 總 蓄水量 1450 萬 立方 目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸 等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工 可達 到 最大 每日 25 萬噸 供水量 陳 建仁 經濟 部長 王美花 今天 視察 草屯 淨水場 自來 水司 董事 長 李嘉榮 簡報 中部 地區 供水 面臨 極端 氣候 響產業 發展區 整體 需水量 不斷 增加 造成 雲彰 地區 超 抽 地下水 地層下陷 鳥 嘴潭 人工湖 可 增加 供水 並 改善 地層下陷 問題 人工湖 已蓄 滿 5 個 湖區 C 湖區 預計 5 月底 蓄滿 台水 負責 下游 自來 水 供水 計畫 包含 草屯 鳥 嘴潭 兩座 淨水場 10 里 原水 導 水管 工程 已 完工 總長 85 里 送 水管 聯絡管 工程 已 完成 54 里 草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水 王 瑞德 說 南投縣 集集 攔河堰 湖山 水庫 鳥 嘴潭 人工湖 都 供應 下游 彰化 雲林 使用 南投縣 民 配合 政府 政策 但 南投縣 偏鄉 沒 自來 水且 自來 水延長 管線 成本 高 南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上 只能 開闢 簡易 自來 水響 鄉親 健康 希望 中央 能 重視 南投 自來 水管 線延管 工程 或 加大 簡易 自來 水補助 讓 南投 鄉親 能 喝 到 量 好質 優自來 水陳建仁 說北 從 翡翠 水庫 石門 水庫 一路下 來 這些 水庫 形成 一粒 粒 「 珍珠 串 」 讓 台灣 水資源 調度 更好 顯示 台灣 人民 慈悲 善良 願意 彼此 幫忙 互相 援助 鳥 嘴潭 人工湖 除了 供應 民用 水會 持續 綠 美化 變成 南投 新觀光 地標 立委 游顥 說 南投縣 水源 供應 彰化 雲林 地區 使用 但 行政院 對 南投 回饋 協助 不足 王 瑞德 副 縣長 當場 反映 自來 水普率 水管 汰 舊 換性 草屯 地區 東 八里 4800 戶水員供 應 不足 但陳院 長 沒 回應 他 會 立法院 繼續 爭取 希望 行政院 重視 南投 用水 問題</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>〔 根據 水利 署 監測 資料 全國 最大 米 鄉 — 大埤鄉 近 5 年 地層下陷 面積 深度 惡化 情況 分析 原因 極端 氣候 水情 不穩 地下水 用量 增對 此 縣府 爭取 農業部 農田 水利 署將 大埤 納入 擴大溉 灌 服務範圍 可 從 北港溪 引水 高灘 地 建置 蓄水池 再 新建 管路 供農田 灌溉 用 經費 約 3.3 億元 縣府 水利 處 指出 水利 署 2023 雲林 地層下陷 監測 結果 顯示 雲林 顯著 下陷 面積 247.7 平方里 比 前年 2022 年略增 一些 顯著 下陷 重點 地區 土庫 元長 地下水位 仍持續 下陷 形 水利 處長 許 宏博 表示 整體 監測 結果 可 看出 雲林 沿海 地層下陷 趨緩 顯著 下陷 主要 虎尾 土庫 元長 北港 四湖 褒忠 水林 崙背 大埤 值得注意 大埤鄉 下陷 面積 深度 近 5 年 惡化 現象許 宏博 指出 大埤 全國 水稻 種植 面積 最多 鄉鎮 但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽 地下水 使用 水稻 面積 不變 用水量 都 固定 情況 下 地層下陷 應 不致 惡化 主要 變數 就 水情 尤其 這幾年 極端 氣候 2021 遇 百年 大旱 2023 去年 又 遇 200 年 大旱 這 2 次 地下水 抽得 多 去年 枯水期 地下水位 洩降 大埤 達 15 最嚴 重許 宏博 說 目前 大埤 農民 灌溉 情況 3 種 第一 種引 地面水 即區 排 第二 種抽 地下水 由 幾個 農民 共同 一個 井 再 分擔 電費 第三 種抽 北港溪 水為 減緩 大埤 地層下陷 持續 惡化 縣府 早已 建議 列為 優 防治 地針 對 大埤 取水 灌溉 進行 初步 規劃構 想 考量 北港溪 尚水權 可 申請 即 從 北港溪 引 地面水 到 高灘 地 蓄水池 供給 農田 灌溉 使用</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>經濟部 水利 署 監測 雲林縣 地層下陷 去年 雲林 顯著 下陷 面積 247.7 平方里 較 前年 略 增全 台面 積 最大 稻作 鄉鎮 大埤鄉 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 下陷 面積 逐漸 擴大縣 府 提出 大埤鄉 非灌區 灌溉 水源 改善 工程 提報 中央 爭取 專案 經費 並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍 根據 水利 署 監測 資料 顯示 雲林縣 去年 顯著 下陷 面積 為 247.7 平方里 較 前年 239.5 里 增加 年 下陷 速度 約 7 分 土庫 元長 水位 仍持續 下降 趨勢 枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 其中 又 以 大埤 監測 站 洩降 15 最嚴 重為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮 縣府 水利 處長 許 宏博 表示 過去 雲林縣 地層下陷 以高鐵 沿線 虎尾 土庫 元長 北港 較 為 嚴重 但 近年 大埤鄉 地層下陷 惡化 趨勢 主因 為 大埤鄉 為 全台 稻作 面積 最 大鄉 鎮種 植面積 逾 5 千頃 但 部分 地區 非 灌區 需仰賴 地表水 或 抽取 地下水 灌溉 導致 近 5 年 地層下陷 面積 深度 都 惡化 為 改善 地層下陷 縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫擬 北港溪 高灘 地 設置 調蓄 池臨 時性 滯水 設施 透過 貯蓄 北港溪 水源 新建 給 水管路 供給 非 灌區 農田 使用 經費 約 3.32 億元將 向 中央 提報 並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍 雲林縣 長 張麗善 說 極端 氣候 越來 越 嚴峻 地面水 資源 無法 支持 產業 所 需農田 水利 署 如 未能 綜合 考量 水資源 供 應量 農民因 耕作 計所 需勢 必尋求 抽取 地下水 因應 導致 地層下陷 問題 對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅許 宏博 表示 針對 高鐵 沿線 虎尾 土庫 元長 北港 四鄉鎮 地區 縣府 將持續 加強 查察 水井 用水 情形 並檢討 與 研議 增設 調蓄 設施 增供 地表水 以 限制 溉 地下水 抽取 自來 水可到 達 水井 將 逐年 核減 水權 以 減少 地下水 抽取 造成 地層下陷 雲林縣 大埤鄉 為 全 台面 積 最大 稻作 鄉鎮 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 地層下陷 面積 逐漸 擴大陳雅玲</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>根據 水利 署 監測 資料 雲林縣 水稻 最大 種植 地區 大埤鄉 近 5 年 地層下陷 面積 與 深度 惡化 現象 為 了 避免 極端 氣候 造成 水情 吃緊 地層下陷 持續 雲 縣府 建議 引 北港溪 水源 新建 給 水管路 供應 灌溉 經費 約 3.3 億餘元並 提報 中央 等待 核准 辦理 中 2 期稻 收割 後 農民忙 著 整地 雲林 大埤鄉 雲林 種植 水稻 面積 最大 地區 但 卻 時常 面臨 灌溉 水源 不足 問題 當地 農民 就 說 為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水 才能 夠來 因應 雲林 大埤鄉 農民 表示 「 就 都 沒水 如果 人 耕田 廣一點 就 用 大 井水 比較 深層 我 這個 都 小 井水 就 很 難 去 灌溉 時要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋 」 雲縣 府 表示 根據 水利 署 監測 資料 大埤鄉 下陷 面積 深度 持續 擴大 主要 就 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽取 地下水 使用 雲縣 府 水利 處處長 許 宏博 表示 「 非灌區 地方 去 想 辦法 怎麼 用 地面 水源 來 補充 我們 研究 以 大埤 附近 北港溪 去 引 北港溪 水源 作為 1 期 稻作 灌溉 水源 」 雲縣 府 水利 處 表示 為 改善 大埤鄉 地層下陷 惡化 問題 縣府 完成 大埤 非灌區 灌溉 水源 改善 工程 前期 規劃 希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等 供給 農田 灌溉 使用 但 概估 工程 經費 約 3.3 億 目前 已經報 請 中央 等待 核定 中</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>媒體 報導 雲林縣 大埤鄉 水情 不穩 地下水 用量 增加 地層下陷 惡化 農田 水利 署 今天 表示 雲林縣 府 提出 納入 擴大 灌溉 服務構 想 已 請 其 提擬 更具 體計畫 再 共同 推動 擴大 灌溉 服務 媒體 報導 水稻 產區 雲林縣 大埤鄉 近年 地層下陷 情況 惡化 可能 與 水情 不穩 抽取 地下水 用量 增加 關 雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍 農水署 副署 長 陳 衍源 告訴 中央社 雲林縣 政府 提出 構想 農水署 已 回覆 請 縣府 提出 更具 體計畫 收到 計畫後會 審查然 後 跟 縣府 共同 推動 擴大 灌區 服務計 畫針 對 成立 3 年 3 個 月 來 已 擴大 5.6 萬頃 農田 獲得 灌溉 用水 約 8 萬 多名 農民 受惠 農水署 並規劃 114 年 要 擴 增至 8.8 萬頃 陳 衍源 說 要 等 縣府 提出 具體 計畫後會 審查 因此 能納入 114 年 8.8 萬頃 目標 尚未 確定 但 應不受 此響 擴大 灌溉 服務計 畫會 持續 推動 另外 陳 衍源 說 如果 能 設計 引用 河川 水作 為 灌溉 使用 希望 能 替代 當地 抽用 地下水 對 減緩 地層下陷 所幫助</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>中央社 汪淑芬 台北 29 日電 根據 鐵道 局新布 台灣 高鐵路 段 下陷 監測 報告 彰化 雲林 下陷 持續 累積 下陷 量 最大 雲林 114.2 分鐵道 局 表示 高鐵墩 柱角 變量 都 許範圍 結構 安全 無虞 高鐵路 線通過 彰化 雲林 嘉義 主要 地層下陷區 台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 112 年 監測 報告 根據 最新 報告 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分其位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 112 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化縣 溪州鄉 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 111 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 112 年 回脹量 比 111 年少 鐵道局 指出 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局 指出 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 超過 標準 值橋 墩 反而 沉陷 改善 嘉義 路段 位 於 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 109 年 起 逐年 增加 編輯 張雅淨 1130429</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 2023 年 監測 報告 根據 最新 報告 高鐵 彰化 雲林 路段 下陷 持續 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 2023 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化 溪洲 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 2022 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 2023 年 回脹量 比 2022 年少 鐵道局 說 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高跨 交高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 皆 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局說 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 過標 準值 橋墩 反而 位 沉陷 改善 嘉義 路段 位 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 2020 年 起 逐年 增加</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>〔 鐵道 局布 去年 高鐵 沿線 雲林 路段 不僅 持續 下陷 5.4 分且 累積 下陷 量 已 達 114.2 分全國 下陷 最 嚴重 雲林縣 政府 表示 沿途 現 12 萬 6 千口 灌溉 水井 政府 只能 加以 管制 不能 禁止 其繼續 抽水 地下水 入不敷出 自然 持續 下陷 高鐵司 從 2003 年 起委 託 學術 單位 每年 針對 高鐵 沿線 結構 墩 柱 地層下陷 進行 監測 去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共 8 處 下陷 量 從 2.6 分到 5.4 分 最大 累積 下陷 量 已 達 到 114.2 分地點 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 不過 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 高鐵 結構 安全 無虞 雲林縣 政府 水利 處處長 許 宏博 表示 雖然 相關 單位 持續 針對 地層下陷 進行 防治 但 雲林 高鐵 沿線 既 水井 擁 合法 水權 數量 多 達 12 萬 6 千口 政府 不能 禁止 抽水 農民 灌溉 持續 抽水 地下水 補充 不 當然會 持續 下陷 許 宏博 表示 縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 作物 還 遇到 一些 瓶頸 由 於 雲林 農村 人力 嚴重 老化 許多 水田 都 代耕 老農 根本 無力 自行 耕種 但 旱田 卻 沒 代耕 行業 即使 水田 利潤 低 農民無力 轉作</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>去年 再增 5.4 分   累計達 114.2 分   防治 卻 遇 瓶頸 〔 鐵道 局布 台灣 高鐵路 段 下陷 監測 報告 去年 雲林 路段 不僅 持續 下陷 五 ． 四分 且 累積 下陷 量 已 達 一一 四 ． 二分 全國 最高 雲林縣 政府 水利 處處長 許 宏博 表示 針對 高鐵 沿線 地層下陷 問題 中央 成立 跨部會 平台 進行 監控 整治 但 沿途 現 十二 萬 六千 口 灌溉 水井 政府 只能 管制 限制 其繼續 深挖 無權 禁止 使用 地下水 入不敷出 地層 自然 持續 下陷 地層下陷 遭遇 瓶頸 仍待 解決 12.6 萬口 灌溉 水井   無法 禁用 台灣 高鐵行經 彰化 雲林 嘉義 等 地層下陷區 高鐵司 從 二三年 起委 託 學術 單位 監測 最新 監測 報告 指出 去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處 最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點 下陷 量 從 二 ． 六分 到 五 ． 四分 不等且 比 前年 增加 但 嘉義 卻 未 再 下陷 甚至 已連續 兩年 地層還 上升 與 土庫 台 78 線 交界 處   下陷 最多 監測 報告 指出 高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二分 地點 雲林縣 土庫鎮 台 七八 線 與 高鐵 交界 處 進行 改善 工程 後 墩 柱 差異 沉陷 量 逐年 降低 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 許範圍 高鐵 結構 安全 無虞許 宏博 表示 地層下陷 防治 工作 遭遇 瓶頸 雲林 高鐵 沿線 既 水井 擁 合法 水權 數量 多 達 十二 萬 六千 口 政府 不能 禁止 農民 抽水 何況 這更關 係 到 大約 十二 萬 六千 戶 農民計 農民持續 抽水 地層 自然 持續 下陷 輔導 水田 轉作 旱田   推動 不易 許 宏博 表示 一頃 水田 轉作 旱田 一年 可望 省下 八千 噸 灌溉水 縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等 但 雲林 農村 人力 嚴重 老化 種植 水田 老農無力 自行 耕種 多 數委 託 代耕 但 旱田 卻 沒 代耕 業 即使 水田 利潤 低 農民無力 轉作類 似 瓶頸 仍待 中央 統籌 解決</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>去年 高鐵 沿線 持續 下陷 路段 包括 彰化 雲林 共 8 處 下陷 量 從 2.6 分到 5.4 分 雲林縣 土庫 台 78 線 與 高鐵 交界 處累積 下陷 量 達 到 114.2 分全國 下陷 最 嚴重 地方 鐵道局 土木 建築組 副 組長 謝炎廷 回應 「 這 路段 經由 高鐵司 施作 橋梁 預防性 改善 措施 以 路局 移除 台 78 號高 路堤 荷載 改以 鋼橋 行駛 型式 取代 之後經過 我們 長 期 追 蹤 沉陷 量 已 趨 於 穩定 」 雲縣 府 水利 處 表示 雖然 相關 單位 針對 地層下陷 進行 防治 但 雲林 高鐵 沿線 既 合法 水井 高達 12 萬 6 千口 政府 不能 禁止 抽水 只能 管理 加上 輔導 農民 轉旱 作出 現難題 雲 縣府 水利 處 技正 林昆賢 指出 「 水稻田 原則 上 來 講幾乎 百分之百 都 可以 機械 耕作 所以 它 人力 上 最 沒 問題 我們 要轉 旱作 時候 因為 各種 旱作 目前 來 講機械 跟 機械 耕作 比例 都 跟 水田 比起 來 都 很大 落差 」 水利 處 表示 要 輔導 高鐵 沿線 農民轉 旱作 除了 碰上 人力不足 問題 還存 產銷 失衡 情況 因 農民若 旱作 只能 透過 契作 沒保價 機制 多少 降低 農民 轉作 意願 這些 問題 還待 中央 統籌 解決</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>根據 環境 部國 科會 報告 指出 若 全球 暖化 未來 無法效 控制 增溫 未來 海平面 上升 會 再 造成 海岸 溢淹 又 以 雲林 最 嚴重 雲林縣 水利 處長 許 宏博 提 「 以大數 據 來 看 幾 十年 可能 就 只 上升 1 到 2 分相 對 地層下陷 因素 這 可能 較小響 程度 不過 因應 整個 地層下陷 或 海洋 暖化 海平面 上升 這 雲林縣 必須 去 克服 」 雲縣 府 水利 處 表示 除暖化響 海岸 溢淹 面積 雲林縣 面對 最大 危機 地層下陷 1 年陸 地區 平均 5 至 6 分 下陷 沿海 地區 平均 2 至 3 分 下陷 現針 對 四湖 箔子 寮 漁港 提出 因應許 宏博 說明 「 較 低 地方 我 就 會 蓋 一個 類似 牆然後去 墊 高 讓 它們 潮位 來時 不會溢到 陸裡面 都 擋 防潮 牆 之外 」 水利 處 表示 若 海平面 上升 淹 水面 積 自然 加大 經盤點 雲林 四湖 箔子 寮 漁港 比較 危急 去年 9 月經 中央 地方 共同 會勘 後 將花 3500 萬元 加高 碼頭 港岸 以防 海水 再 入侵 整個 工程 預計 再 半年 可 完工</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>根據 環境 部國 科會 發布 全球 暖化 若 未來 無法效 控制 增溫 台灣 夏天 可能 長 達 7 個 月 海平面 上升 會 造成 海岸 溢淹 面積 增加 其中 以 雲林 溢淹 面積 增加 最顯 著 對 此雲縣 府 水利 處 表示 除了 暖化響 地層下陷 響 主因 目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫 雲林縣 最大 箔子 寮 漁港 去 2023 年 8 月 發 嚴重 海水倒灌 整座 漁港 幾乎 都 被淹 沒 甚至 危近 鄰 村落 根據 環境 部國 科會 報告 指出 若 全球 暖化 未來 無法效 控制 增溫 未來 海平面 上升 會 再 造成 海岸 溢淹 又 以 雲林 最 嚴重 雲林縣 水利 處長 許 宏博 提 「 以大數 據 來 看 幾 十年 可能 就 只 上升 1 到 2 分相 對 地層下陷 因素 這 可能 較小響 程度 不過 因應 整個 地層下陷 或 海洋 暖化 海平面 上升 這 雲林縣 必須 去 克服 」 雲縣 府 水利 處 表示 除暖化響 海岸 溢淹 面積 雲林縣 面對 最大 危機 地層下陷 1 年陸 地區 平均 5 至 6 分 下陷 沿海 地區 平均 2 至 3 分 下陷 現針 對 四湖 箔子 寮 漁港 提出 因應許 宏博 說明 「 較 低 地方 我 就 會 蓋 一個 類似 牆然後去 墊 高 讓 它們 潮位 來時 不會溢到 陸裡面 都 擋 防潮 牆 之外 」 水利 處 表示 若 海平面 上升 淹 水面 積 自然 加大 經盤點 雲林 四湖 箔子 寮 漁港 比較 危急 去年 9 月經 中央 地方 共同 會勘 後 將花 3500 萬元 加高 碼頭 港岸 以防 海水 再 入侵 整個 工程 預計 再 半年 可 完工</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>〔 困擾 雲林 多年 地層下陷 解了 第四 河川 局濁 水溪林段 河槽 河床 設置 地下水 補注池 成效 卓越 今年 補注池 蓄水 面積 已 增加 至 20 頃等 於 添增 一座 隱形 湖山 水庫 源源 不斷 滲水來 補充 雲林 地下水 源 對 減緩 地層下陷 很大 助益 林鄉 所 今天 林鄉 觸口 堤防 國道 3 號 高速路 橋下 舉辦 河川 淨堤 活動 由 鄉長 張維崢 第四 河川 局長 李友 平帶 領所員 工環 保志 工淵 明國 中師 地 居民 約 200 人沿 觸口 堤防 道路 進行 清掃 清理 河堤 外 垃圾 用行 動守護 環境 張維崢 表示 林鄉位 於 濁 水溪 沖 積扇 水源 頭之頂 點得天 獨厚 天然 地理 環境 與 豐富 自然 態緊 鄰濁 水溪 河畔 水源 供 雲林縣 鄰近 縣 市民 農業 工業 用水 為 重要 水源地 李友平 表示 台灣 早年 因超 抽 地下水 導致 地層下陷 濁水溪長 186.7 里林 河段 河寬 最窄 處 造就 了 林好 水質 就 可以 從事 很多 水環境 水資源 保護 措施 經調 查林三號 水門 附近 河段 濁水溪 唯一 能 從 事 地下水 補助 河段 經由 設置 蓄水池 留住 地面水 挖掘 入 滲補 注池 以 河水 補注 地下水 可補充 最深 達 地下 400 地下水 源 再 流往 海岸 地區 能 減輕 地下水 洩降 舒緩 地層下陷 問題 李友平 表示 第一座 地下水 補助池 於 2020 年 完成 效果 非常 好 今年 擴大 辦理 蓄水池 面積 已 達 20 頃 源源 不絕 地面水 持續 往 地下 滲入 可效 減緩 地層下陷 挹注 地下水 資源 李友平 指出 去年 全國 百年 大旱 各地 都 沒水 灌溉 別縣 市 就算 地下水 井 抽 不到 水 唯一 水 就 雲林 因為 地下水 補助 所以 農民 可以 抽 得到 地下水 他強 調要 好好 保護林 水資源 因為 林水 如果 受到 污染 河川 局 不敢 讓 水 滲到 地下 因 為 髒 水下 滲就會 變成 地下水 深層 污染</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>為 抑制 濁水溪 揚塵 四河 局兩 年前 雲林 林段 多 設置 河槽 地下水 補注池 經過 兩年 地下水 補注經 監測 約 注入 1300 萬噸 水源 入滲 今年 將再 增擴 20 頃當 地 農民 就 說 去年 全國 百年 大旱 當地 農民持續 水源 灌溉 對此 第四 河川 局則 表示 地下水 補注池 效果 不錯 能效 舒緩 地層下陷 問題 雲林 林 3 號水門 附近 濁水溪 河段 為 了 改善 揚塵 兩 年前 四河 局進行 疏濬 工程 並設 置 地下水 人工 補注池 蓄水 將 地面 河水 引進 補注 地下水 水源 最深 達到 地下 四百 希望 減緩 地層下陷 第四 河川 局 副 局長 張朝 恭 說 「 疏濬 部分 配合 把 引水 進來 來 一個 補注 地下水 功能 」 雲 科大 水土 中心 主任 溫志超 表示 「 這邊 8 頃 上游 個 28 頃兩個 合 併 約 35 頃去 操作 兩年 時間 基本上 總共 35 頃 之下 1300 多萬噸 水入滲 下去 」 雲 科大 水土 中心 表示 補注池 水源 由高處 流向 低處 補注 能效 減緩 地層下陷 能 使 地下水位 回升 像 去年 全國 百年 大 缺水 各地 都 沒水 可 灌溉 補注池 功效 就 明顯 可見 雲林 農民說 「 年尾時 沒 下雨 一定 都 會 缺水 缺水 時透過 這樣 補注 對 農民 一定 所幫助 」 雲林 農民 表示 「 要 用水 就 比 較 不用 擔心 就 用 排排 得到 」 四河 局 表示 雲林 第一座 地下水 補注池 2020 年 完成 因為 效果 不錯 今年 將再 擴大將 蓄水池 面積 增加 20 頃 希望 透過 地面水 補注 地下水 達到 減緩 地層下陷 情況 能 讓 農民足夠 水源 灌溉</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重 恐響 高鐵行車 安全 農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作 但 卻 從 去年 暫停 獎助 雲 縣府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水 持續 向 中央 爭取 獲得 核定 復 辦 將明 2023 年 起 恢 復 實施 節水 獎勵 措施 雲林 高鐵 沿線 地區 地層下陷 嚴重 區域 其中 雲林 土庫 段 一年 下陷 6.5 分 最嚴 重恐 危高鐵 安全 農委會 2013 年針 對雲縣 虎尾 土庫 元長 北港 高鐵 沿線 左右 1.5 里 提出 節水 獎勵 鼓勵 稻農 轉作 但 卻 去年 暫停 辦理 雲林 農民 表示 「 只要 不種 水稻 類其實 它 吸 水量 會真會 差 很多 這實話 雲林 這邊 就 水稻 需求 地下水 需求量 最 多 」 為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物 雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定 除了 領取 綠色 獎勵 金外 還能 領轉 作金 3 萬元 或 產環境 維護金 4 萬 2 至 5 萬 2 不 等 雲林縣 農業 處 副 處長 蔡耿宇 指出 「 高鐵 沿線 周邊 1.5 里 它 針對 綠肥 部分 原本 大概 每頃 補助 4 萬 5 這次會 加碼 如果 一期 作去 推動話 可以 加碼 4 萬 2000 元 所以 一頃 可以 領到 8 萬 7000 元 」 雲林 農民 指出 「 成本 還 包括 肥料 噴灑 農藥 至少 都 要 花 2 萬元 成本 超過 」 當地 農民 表示 面對 近期 人工 肥料 成本 提高 若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願 而 農業 處 說 縣 高鐵 沿線 四鄉鎮 農地 大約 4 千頃 希望 能 透過 推動 農地 轉旱 作物 獎勵 3 年 達 到 稻作 1700 頃轉出 目標</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>〔 為 防治 地層下陷 行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 3 萬元種 綠肥 4 萬 2000 元種 景觀 作物 5 萬 2000 元鑑 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物 減少 地下水 抽取 量 縣府 農業 處 指出 農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 里 範圍 節水 獎勵 給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 產獎 勵效 減少 地下水 抽取 地層下陷 明顯 減緩 農業 處 表示 獎勵 措施 至 2020 年 截止 去年 今年 沒辦理 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 里 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合 相關 資訊 可 洽詢 縣府 農業 處</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>〔 防治 高鐵 沿線 地層下陷 行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 三萬元種 綠肥 四萬 二千元 種景觀 作物 五萬 二千元 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱 大豆 等 低耗 水 作物 減少 地下水 抽取 量 縣府 農業 處 表示 為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵 針對 雲林 高鐵 沿線 三里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業產 獎勵 農業 處 指出 獎勵 計畫 二 一 三年 至 二 二年 期間 地下水 抽取 減少 地層下陷 明顯 減緩 獎勵 計畫 截止 後 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 一里 半 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>〔 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里位 於 土庫 國中 附近 高鐵 橋下 道路 面龜裂 坑坑洞洞 路況 極差 但 因 工程 涉 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 日前 終獲 高鐵局 同意 預計以 50 個 日 曆 天 完成 改善 土庫鎮 鎮長 陳 特凱 表示 石廟 里 高鐵 橋下 道路 經長 年 使用 平時車 流量 極大 加上 重車 違規 行駛 造成 路面 凹陷 破損 不堪 導致 居民 行車 時易 引發 交通事故 嚴重響 行車 安全 所以 向 縣府 反映 希望 能 儘 速 改善 高鐵 土庫 段 高鐵 沿線 地層下陷 最 嚴重 地方 每年 平均 下陷 6.5 分工 務處長 汪令堯 表示 道位 高鐵 正下方 涉 鐵路 禁限建   範圍 須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 故 改為 專案 發包 方式 辦 理由 於 該 路段 交通量 極大 雖然限 10 噸 以下 車輛 行駛 但還 很多 重車 違規 加上 道路 路基 鬆 軟 所以 路況 極差 汪令堯 指出 由 於 道路 位 地層下陷區 加上 原 就 農地 土 質 鬆 軟 光 重 鋪 路面 一下 大雨 重車 再 輾壓 道路 很快 就 會 再度 損壞 所以 需地質 改良 但 高鐵局 不 同意 用 給配 改善 路基 所以 工務處 改用 低 強度 水泥 替代 終獲 同意 汪令堯 表示 道路 改善 工程 總 預算 390 萬元 預期 改善 道路 長 度 兩側 約 630 寬 4.7 預計 9 月 中旬 發包 工期 為 50 日 曆 天 改善 後 可 提 昇 居民 活品 質維護 用路 人行 車安 另 他 會 建議 警察局 多派 員取 締重車 違規 行駛 才能 確保 道路 改善 後 以維持 好 行車 品質</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷 管制 區高鐵 下方 雲 158 甲 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 預定 近期 封路 動工 10 月 完工 高鐵 雲林縣 土庫 段 受 地層下陷 響過 去 以 每年 約 6.5 分 沈陷 量 下陷 為維護 高鐵 安全 多年 前 曾 下陷區 動工將 橫跨 高鐵台 78 線 快速道路 原為 土方 高架 改以 輕質 建材 重新 施工 進行 「 減重 」 此外 高鐵 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 使 高鐵 雲林 段 沈陷 獲得 紓 緩位 於 土庫 高鐵 下方 連接 雲 158 甲 雲 97 線路 高鐵道 雖僅 短短 約 500 卻 管制 區 唯一 高鐵 通道 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 雲林縣 長 張麗善 今天 會 同工 務處 縣議員 王鈺齊 張維心 等 人現 勘 張麗善 說 道 位 於 高鐵 管制 區 不能 任意 挖掘 施工 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月 動工 10 月 完工 提供 平整 安全 道路 屆 時將 封路 約 50 天請 車輛 繞 道 工務 處長 汪令堯 指出 高鐵下 道路 屬 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 未來 將以 390 萬元 對 高鐵下 寬 4.7 兩側 道 共 修繕 約 630 採 「 低 強度 高流動 」 混凝土 施工 法 打造 路基 更加 穩固 縣府 表示 為維護 高鐵道 承載 安全 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 道路 面受 損將會 請 警方 加強 取締 隨後縣 長 張麗善 一行 人 再 轉往 土庫 崙 雲 101 雲 98 道路 西螺鎮 九隆 里 農路 等 會勘 改善 工程 雲林縣 長 張麗善 一行 人 再 轉往 土庫 崙 等 地 會勘 多條 道路 工程 蔡維斌 高鐵 雲林 土庫 段位 於 地層下陷 管制 區高鐵下 唯一 道破 損 累累 經縣 府 向 高鐵局 專案 申請 後 近期 將 封路 動工 修路 蔡維斌</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>高鐵 地層下陷區 雲林 土庫 段 橋下 道 每次 進行 路面 改善 後 使用 不到 3 年 就 會 出現 路面 龜裂 充滿 坑坑洞洞 響行車 安全 當地屬 禁限建區 日前 獲高鐵局 同意 將進行 改善 不過 該 路段 不時 大型 車輛 未 依規定 超重 行駛導致 路面 加速 毀損 將請 警方 加強 取締 警方 一 看到 大車 馬上 攔檢位 高鐵 雲林 土庫 段 橋下 道 為 避免 路面 持續 下陷 管制 限重 10 噸 以下 車輛 通行 但 因為 這裡車 流量 大鄰 近 交流 道還 大型 車常未 依規定 行駛導致 路面 龜裂 充滿 坑坑洞洞 響行車 安全 土庫 民眾 表示 「 大車 如果 行駛 輾壓 這樣 路 比 較易壞 」 土庫鎮 長 陳 特凱則 指出 「 柏油 鋪設 之 後 多年 來 它 使用 期限 都 差不多 3 年 左右 就 受到 破壞 這樣 情況 一而再再 而 三重 複 」 土庫鎮 所 表示 高鐵 橋下 道 窄 本來 就 不 適合大車 通行 但 駕駛 貪圖方 違規 行駛 讓 路面 破損 不堪 易 引發 交通事故 日前 雲林縣 府 爭取 已獲 高鐵局 同意 將以 50 個 工作 天 改善 雲林縣 府 工務 處長 汪令堯 說明 「 這 路段 經 地方 反映 主要 它 地質 不好 原來 大概 都 農 田土 直接 就 回填 鋪 AC 瀝青 混凝土 加上 這邊 重車 行駛 造成 它 地面 下陷 蠻 嚴重 我們 會 整個 基底 改良 30 分再 來 鋪 設 5 分 AC 」 工務處 表示 高鐵 土庫 段 高鐵 沿線 地層下陷 最 嚴重 路段 每年 平均 下陷 6.5 分道位 高鐵 高架 橋 正下方 涉 鐵路 禁限 建範圍 這次 以 低 強度 水泥 替代 獲高鐵局 同意 預計 年底 能 改善 完畢將 請 警方 加強 取 締維護 好 行車 品質</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷區 軌道 下方 雲 158 甲線 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 縣府 以 專案 向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 縣長 張麗善 昨天 會勘 後 表示 近期 封路 動工 10 月 完工 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 縣府 表示 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 路面 受 損將 請 警方 加強 取締 昨縣 府 會 同議員現 勘工務 處長 汪令堯 說 高鐵軌 道下 寬度 4.7 兩側 道 將修繕 共約 630 採低 強度 高流動 混凝土 施工 法 打造 路基 更加 穩固 預算約 390 萬元 張麗善 指出 高鐵下 道路 屬 鐵路 禁限 建範圍 道 不能 任意 挖掘 施工 須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月動 工屆 時將 封路 約 50 天請 車輛 繞 道 高鐵 土庫 段過 去 以 每年 約 6.5 分 沉陷 量 下陷 後 來 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 較 為 減緩</t>
         </is>
       </c>
     </row>
